--- a/VA_result_BTP.xlsx
+++ b/VA_result_BTP.xlsx
@@ -458,76 +458,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.74722842359915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.03849095769692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42964662052691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87221218249761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29506519914139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78886674100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75266334193293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77291015104856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72983567393385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.278743182891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.407365169609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5558778434061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3668159352383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660144263064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.885546307778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0314847622067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1160652070539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.573858669959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0167050331365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.8926275561098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.9938658820465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.3401595833711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.418245030567</t>
+    <t xml:space="preserve">2.3283064365387e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.74947333906312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.03917788644321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.429996399092488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8748469746206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29661750863306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79020657052752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75608748197556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7767627016874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73408994101919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2840680617373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4127440357115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5613192111487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3725979605224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2725942936959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8932258789428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.042166242376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1288825955708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5822493715677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0261225977447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.89451001142152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.0012493310496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.3451679977588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.4266440970823</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -2218,10 +2218,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>3934466.33521102</v>
+        <v>4027346.57628613</v>
       </c>
       <c r="C102" t="n">
-        <v>142.893902052751</v>
+        <v>146.267172768539</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2229,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>4115515.76432256</v>
+        <v>4196038.32357095</v>
       </c>
       <c r="C103" t="n">
-        <v>149.469345120758</v>
+        <v>152.393803411659</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2240,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>4248056.52283386</v>
+        <v>4183313.18378183</v>
       </c>
       <c r="C104" t="n">
-        <v>154.283026202539</v>
+        <v>151.931645466028</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2251,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>4358210.12207656</v>
+        <v>4535462.35938847</v>
       </c>
       <c r="C105" t="n">
-        <v>158.283639317482</v>
+        <v>164.721174088184</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2262,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>4458730.16854304</v>
+        <v>4332745.65644015</v>
       </c>
       <c r="C106" t="n">
-        <v>161.93437627908</v>
+        <v>157.358808209916</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2273,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>4555718.63624215</v>
+        <v>4244432.86188409</v>
       </c>
       <c r="C107" t="n">
-        <v>165.456851609372</v>
+        <v>154.151420284808</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2284,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>4652077.29029056</v>
+        <v>4327859.99230963</v>
       </c>
       <c r="C108" t="n">
-        <v>168.956453054758</v>
+        <v>157.181368234008</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2295,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>4749191.21827174</v>
+        <v>4065875.57607889</v>
       </c>
       <c r="C109" t="n">
-        <v>172.483484913872</v>
+        <v>147.666488114894</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2306,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>4847731.76678671</v>
+        <v>4329159.92558898</v>
       </c>
       <c r="C110" t="n">
-        <v>176.062329485932</v>
+        <v>157.22857985634</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2317,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>4948035.67027522</v>
+        <v>4484142.78805569</v>
       </c>
       <c r="C111" t="n">
-        <v>179.705216459529</v>
+        <v>162.857324413379</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2328,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>5050283.25958656</v>
+        <v>4476546.50858915</v>
       </c>
       <c r="C112" t="n">
-        <v>183.418695179992</v>
+        <v>162.58143896372</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2339,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>5154582.05988685</v>
+        <v>4795937.17100717</v>
       </c>
       <c r="C113" t="n">
-        <v>187.206670799697</v>
+        <v>174.181227637392</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2350,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>5261005.97454209</v>
+        <v>4618077.44026453</v>
       </c>
       <c r="C114" t="n">
-        <v>191.071827377787</v>
+        <v>167.721629618616</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2361,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>5369613.64865505</v>
+        <v>4542742.28460536</v>
       </c>
       <c r="C115" t="n">
-        <v>195.016294816226</v>
+        <v>164.985570027116</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2372,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>5480457.07885322</v>
+        <v>4621314.13335757</v>
       </c>
       <c r="C116" t="n">
-        <v>199.04196155435</v>
+        <v>167.839181445575</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2383,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>5593585.65517721</v>
+        <v>4390340.85775581</v>
       </c>
       <c r="C117" t="n">
-        <v>203.150621364179</v>
+        <v>159.450579330653</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2394,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>5709048.06412289</v>
+        <v>4630094.1313516</v>
       </c>
       <c r="C118" t="n">
-        <v>207.344042466046</v>
+        <v>168.1580577725</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2405,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>5826893.19038162</v>
+        <v>4772791.59543817</v>
       </c>
       <c r="C119" t="n">
-        <v>211.624000278446</v>
+        <v>173.340615130757</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2416,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>5947170.54995327</v>
+        <v>4769791.61196034</v>
       </c>
       <c r="C120" t="n">
-        <v>215.992293148049</v>
+        <v>173.231660241144</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2427,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>6069930.50405761</v>
+        <v>5059825.29967156</v>
       </c>
       <c r="C121" t="n">
-        <v>220.450750118642</v>
+        <v>183.765247729975</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>795062.715985913</v>
+        <v>795062.715985914</v>
       </c>
       <c r="C3" t="n">
         <v>27.4868327978221</v>
@@ -2506,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>875484.857540935</v>
+        <v>875484.855296019</v>
       </c>
       <c r="C4" t="n">
         <v>39.0961949688878</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1151946806227</v>
+        <v>10.1151943982656</v>
       </c>
       <c r="E4" t="n">
         <v>42.2360853884394</v>
@@ -2526,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>899968.489331637</v>
+        <v>899968.488644708</v>
       </c>
       <c r="C5" t="n">
         <v>44.468328376837</v>
       </c>
       <c r="D5" t="n">
-        <v>2.79657969864511</v>
+        <v>2.79657988377311</v>
       </c>
       <c r="E5" t="n">
         <v>13.7408088235294</v>
@@ -2546,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>700919.640038151</v>
+        <v>700919.640387929</v>
       </c>
       <c r="C6" t="n">
         <v>35.8082337192066</v>
       </c>
       <c r="D6" t="n">
-        <v>-22.1173131785214</v>
+        <v>-22.1173130802094</v>
       </c>
       <c r="E6" t="n">
         <v>-19.4747474747475</v>
@@ -2566,13 +2566,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>678291.684413506</v>
+        <v>678291.687048298</v>
       </c>
       <c r="C7" t="n">
         <v>30.4361003112573</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.228323809476</v>
+        <v>-3.22832348186276</v>
       </c>
       <c r="E7" t="n">
         <v>-15.0025087807326</v>
@@ -2586,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>707259.988983514</v>
+        <v>707259.990535824</v>
       </c>
       <c r="C8" t="n">
         <v>32.0890644367802</v>
       </c>
       <c r="D8" t="n">
-        <v>4.27077395104092</v>
+        <v>4.27077377486176</v>
       </c>
       <c r="E8" t="n">
         <v>5.43093270365997</v>
@@ -2606,13 +2606,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>598346.768761895</v>
+        <v>598346.770101725</v>
       </c>
       <c r="C9" t="n">
         <v>30.0767602839698</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.399318767933</v>
+        <v>-15.3993187641769</v>
       </c>
       <c r="E9" t="n">
         <v>-6.27099664053751</v>
@@ -2626,13 +2626,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>577522.449837114</v>
+        <v>577522.453261254</v>
       </c>
       <c r="C10" t="n">
         <v>29.7892882621397</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.48030941453412</v>
+        <v>-3.48030905839604</v>
       </c>
       <c r="E10" t="n">
         <v>-0.955794504181595</v>
@@ -2646,13 +2646,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>532932.912550737</v>
+        <v>532932.916403288</v>
       </c>
       <c r="C11" t="n">
         <v>27.4892218102726</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.72083185665823</v>
+        <v>-7.72083173670052</v>
       </c>
       <c r="E11" t="n">
         <v>-7.72111918763227</v>
@@ -2666,13 +2666,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>553167.113211096</v>
+        <v>553167.117465363</v>
       </c>
       <c r="C12" t="n">
         <v>32.6280744777115</v>
       </c>
       <c r="D12" t="n">
-        <v>3.7967631917333</v>
+        <v>3.79676323966509</v>
       </c>
       <c r="E12" t="n">
         <v>18.6940638149263</v>
@@ -2686,13 +2686,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>545163.896429064</v>
+        <v>545163.901753943</v>
       </c>
       <c r="C13" t="n">
         <v>32.1558394428441</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.44679909396167</v>
+        <v>-1.44679888929251</v>
       </c>
       <c r="E13" t="n">
         <v>-1.44732731681727</v>
@@ -2706,13 +2706,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>575428.638270376</v>
+        <v>575428.643649243</v>
       </c>
       <c r="C14" t="n">
         <v>34.8124287791466</v>
       </c>
       <c r="D14" t="n">
-        <v>5.55149415424476</v>
+        <v>5.55149410992359</v>
       </c>
       <c r="E14" t="n">
         <v>8.26160778985254</v>
@@ -2726,13 +2726,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>591596.507143071</v>
+        <v>591596.512584438</v>
       </c>
       <c r="C15" t="n">
         <v>37.2359421209589</v>
       </c>
       <c r="D15" t="n">
-        <v>2.80970876272193</v>
+        <v>2.80970874731969</v>
       </c>
       <c r="E15" t="n">
         <v>6.96163245945076</v>
@@ -2746,13 +2746,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>636582.003466889</v>
+        <v>636582.009248914</v>
       </c>
       <c r="C16" t="n">
         <v>43.488796591477</v>
       </c>
       <c r="D16" t="n">
-        <v>7.60408416558467</v>
+        <v>7.60408415322682</v>
       </c>
       <c r="E16" t="n">
         <v>16.7925238743956</v>
@@ -2766,13 +2766,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>520905.023672719</v>
+        <v>520905.030252586</v>
       </c>
       <c r="C17" t="n">
         <v>37.7099732742537</v>
       </c>
       <c r="D17" t="n">
-        <v>-18.1715755651561</v>
+        <v>-18.1715752747729</v>
       </c>
       <c r="E17" t="n">
         <v>-13.288073642295</v>
@@ -2786,13 +2786,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>676737.55651097</v>
+        <v>676737.564190542</v>
       </c>
       <c r="C18" t="n">
         <v>60.1486286558445</v>
       </c>
       <c r="D18" t="n">
-        <v>29.9157285409788</v>
+        <v>29.9157283742091</v>
       </c>
       <c r="E18" t="n">
         <v>59.5032386217857</v>
@@ -2806,13 +2806,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>775227.521471324</v>
+        <v>775227.532152804</v>
       </c>
       <c r="C19" t="n">
         <v>75.1099414652688</v>
       </c>
       <c r="D19" t="n">
-        <v>14.5536425476568</v>
+        <v>14.5536428260885</v>
       </c>
       <c r="E19" t="n">
         <v>24.8739050977026</v>
@@ -2826,13 +2826,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1009390.94722126</v>
+        <v>1009390.96003865</v>
       </c>
       <c r="C20" t="n">
         <v>79.6144737006461</v>
       </c>
       <c r="D20" t="n">
-        <v>30.2057678893429</v>
+        <v>30.2057677486726</v>
       </c>
       <c r="E20" t="n">
         <v>5.99725169198844</v>
@@ -2846,13 +2846,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1219542.57385867</v>
+        <v>1219542.58224937</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>20.8196464626452</v>
+        <v>20.8196457597241</v>
       </c>
       <c r="E21" t="n">
         <v>25.6053018399699</v>
@@ -2866,13 +2866,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1637610.01670503</v>
+        <v>1637610.0261226</v>
       </c>
       <c r="C22" t="n">
         <v>96.9401857862517</v>
       </c>
       <c r="D22" t="n">
-        <v>34.2806763624155</v>
+        <v>34.2806762107582</v>
       </c>
       <c r="E22" t="n">
         <v>-3.05981421374834</v>
@@ -2886,13 +2886,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1984543.8932057</v>
+        <v>1984543.89132325</v>
       </c>
       <c r="C23" t="n">
         <v>107.073482222742</v>
       </c>
       <c r="D23" t="n">
-        <v>21.185378262324</v>
+        <v>21.18537745046</v>
       </c>
       <c r="E23" t="n">
         <v>10.4531431978416</v>
@@ -2906,13 +2906,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2105870.8310704</v>
+        <v>2105870.82368695</v>
       </c>
       <c r="C24" t="n">
         <v>124.668484226788</v>
       </c>
       <c r="D24" t="n">
-        <v>6.11359306690431</v>
+        <v>6.11359279551156</v>
       </c>
       <c r="E24" t="n">
         <v>16.4326419938817</v>
@@ -2926,13 +2926,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2606533.30570314</v>
+        <v>2606533.30069472</v>
       </c>
       <c r="C25" t="n">
         <v>154.153371419362</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7746051299004</v>
+        <v>23.7746053260387</v>
       </c>
       <c r="E25" t="n">
         <v>23.6506342203833</v>
@@ -2946,13 +2946,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2749885.23814014</v>
+        <v>2749885.22974107</v>
       </c>
       <c r="C26" t="n">
         <v>142.431451282797</v>
       </c>
       <c r="D26" t="n">
-        <v>5.49971612192124</v>
+        <v>5.49971600240604</v>
       </c>
       <c r="E26" t="n">
         <v>-7.60406342633659</v>
@@ -2966,16 +2966,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>2816337.13560399</v>
+        <v>2848369.42440335</v>
       </c>
       <c r="C27" t="n">
-        <v>151.232478173383</v>
+        <v>153.828448933602</v>
       </c>
       <c r="D27" t="n">
-        <v>2.41653348082236</v>
+        <v>3.58139291040691</v>
       </c>
       <c r="E27" t="n">
-        <v>6.17913165338093</v>
+        <v>8.00174227543069</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -2986,16 +2986,16 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>3013460.33527346</v>
+        <v>2851590.85770883</v>
       </c>
       <c r="C28" t="n">
-        <v>167.20779146427</v>
+        <v>154.089521210907</v>
       </c>
       <c r="D28" t="n">
-        <v>6.9992756611932</v>
+        <v>0.113097454209576</v>
       </c>
       <c r="E28" t="n">
-        <v>10.5634143431629</v>
+        <v>0.169716511551643</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -3006,16 +3006,16 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>3191027.36255003</v>
+        <v>2976496.3068724</v>
       </c>
       <c r="C29" t="n">
-        <v>181.598227981287</v>
+        <v>164.212142717708</v>
       </c>
       <c r="D29" t="n">
-        <v>5.89246273455453</v>
+        <v>4.38020232902288</v>
       </c>
       <c r="E29" t="n">
-        <v>8.60631935330114</v>
+        <v>6.56931206434603</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3026,16 +3026,16 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>3381939.4215414</v>
+        <v>2986208.48989637</v>
       </c>
       <c r="C30" t="n">
-        <v>197.070176278136</v>
+        <v>164.99924010549</v>
       </c>
       <c r="D30" t="n">
-        <v>5.98277724697414</v>
+        <v>0.326295819737688</v>
       </c>
       <c r="E30" t="n">
-        <v>8.51987845302258</v>
+        <v>0.479317409027136</v>
       </c>
       <c r="F30" t="s">
         <v>129</v>
@@ -3046,16 +3046,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>3589023.86547087</v>
+        <v>3104969.41256239</v>
       </c>
       <c r="C31" t="n">
-        <v>213.852771502796</v>
+        <v>174.623895218594</v>
       </c>
       <c r="D31" t="n">
-        <v>6.12324521871801</v>
+        <v>3.97698027675712</v>
       </c>
       <c r="E31" t="n">
-        <v>8.51605024241402</v>
+        <v>5.83315117509056</v>
       </c>
       <c r="F31" t="s">
         <v>129</v>
@@ -3103,16 +3103,16 @@
         <v>795062.715985913</v>
       </c>
       <c r="C2" t="n">
-        <v>808428.874127289</v>
+        <v>808428.848025299</v>
       </c>
       <c r="D2" t="n">
-        <v>-13366.1581413755</v>
+        <v>-13366.1320393856</v>
       </c>
       <c r="E2" t="n">
         <v>27.4868327978221</v>
       </c>
       <c r="F2" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3123,16 @@
         <v>875490.604769358</v>
       </c>
       <c r="C3" t="n">
-        <v>941107.378771829</v>
+        <v>941107.38384747</v>
       </c>
       <c r="D3" t="n">
-        <v>-65616.7740024705</v>
+        <v>-65616.779078112</v>
       </c>
       <c r="E3" t="n">
         <v>39.0961949688878</v>
       </c>
       <c r="F3" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3143,16 @@
         <v>899970.527822594</v>
       </c>
       <c r="C4" t="n">
-        <v>949832.853968892</v>
+        <v>949832.855737338</v>
       </c>
       <c r="D4" t="n">
-        <v>-49862.3261462978</v>
+        <v>-49862.3279147435</v>
       </c>
       <c r="E4" t="n">
         <v>44.468328376837</v>
       </c>
       <c r="F4" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3163,16 @@
         <v>700919.21039153</v>
       </c>
       <c r="C5" t="n">
-        <v>804666.419874016</v>
+        <v>804666.41061257</v>
       </c>
       <c r="D5" t="n">
-        <v>-103747.209482486</v>
+        <v>-103747.200221039</v>
       </c>
       <c r="E5" t="n">
         <v>35.8082337192066</v>
       </c>
       <c r="F5" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3183,16 @@
         <v>678285.812201323</v>
       </c>
       <c r="C6" t="n">
-        <v>653905.431896155</v>
+        <v>653905.426795194</v>
       </c>
       <c r="D6" t="n">
-        <v>24380.3803051677</v>
+        <v>24380.3854061293</v>
       </c>
       <c r="E6" t="n">
         <v>30.4361003112573</v>
       </c>
       <c r="F6" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3203,16 @@
         <v>707256.693918315</v>
       </c>
       <c r="C7" t="n">
-        <v>714301.124454233</v>
+        <v>714301.124206398</v>
       </c>
       <c r="D7" t="n">
-        <v>-7044.43053591799</v>
+        <v>-7044.43028808315</v>
       </c>
       <c r="E7" t="n">
         <v>32.0890644367802</v>
       </c>
       <c r="F7" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3223,16 @@
         <v>598343.979895154</v>
       </c>
       <c r="C8" t="n">
-        <v>697327.427020344</v>
+        <v>697327.423504754</v>
       </c>
       <c r="D8" t="n">
-        <v>-98983.4471251894</v>
+        <v>-98983.4436096001</v>
       </c>
       <c r="E8" t="n">
         <v>30.0767602839698</v>
       </c>
       <c r="F8" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3243,16 @@
         <v>577514.697173772</v>
       </c>
       <c r="C9" t="n">
-        <v>616738.163868817</v>
+        <v>616738.163463504</v>
       </c>
       <c r="D9" t="n">
-        <v>-39223.4666950445</v>
+        <v>-39223.4662897317</v>
       </c>
       <c r="E9" t="n">
         <v>29.7892882621397</v>
       </c>
       <c r="F9" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3263,16 @@
         <v>532924.139640586</v>
       </c>
       <c r="C10" t="n">
-        <v>572522.052326758</v>
+        <v>572522.050496333</v>
       </c>
       <c r="D10" t="n">
-        <v>-39597.9126861714</v>
+        <v>-39597.9108557465</v>
       </c>
       <c r="E10" t="n">
         <v>27.4892218102726</v>
       </c>
       <c r="F10" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3283,16 @@
         <v>553157.383375422</v>
       </c>
       <c r="C11" t="n">
-        <v>621079.334252591</v>
+        <v>621079.339106879</v>
       </c>
       <c r="D11" t="n">
-        <v>-67921.9508771684</v>
+        <v>-67921.9557314572</v>
       </c>
       <c r="E11" t="n">
         <v>32.6280744777115</v>
       </c>
       <c r="F11" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3303,16 @@
         <v>545151.617685881</v>
       </c>
       <c r="C12" t="n">
-        <v>575691.238597773</v>
+        <v>575691.23981059</v>
       </c>
       <c r="D12" t="n">
-        <v>-30539.6209118922</v>
+        <v>-30539.6221247087</v>
       </c>
       <c r="E12" t="n">
         <v>32.1558394428441</v>
       </c>
       <c r="F12" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3323,16 @@
         <v>575416.230905207</v>
       </c>
       <c r="C13" t="n">
-        <v>606475.212137136</v>
+        <v>606475.216101498</v>
       </c>
       <c r="D13" t="n">
-        <v>-31058.9812319289</v>
+        <v>-31058.9851962912</v>
       </c>
       <c r="E13" t="n">
         <v>34.8124287791466</v>
       </c>
       <c r="F13" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3343,16 @@
         <v>591583.951265227</v>
       </c>
       <c r="C14" t="n">
-        <v>634074.486096087</v>
+        <v>634074.490103398</v>
       </c>
       <c r="D14" t="n">
-        <v>-42490.5348308602</v>
+        <v>-42490.5388381706</v>
       </c>
       <c r="E14" t="n">
         <v>37.2359421209589</v>
       </c>
       <c r="F14" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3363,16 @@
         <v>636568.636650954</v>
       </c>
       <c r="C15" t="n">
-        <v>698643.54309968</v>
+        <v>698643.550924735</v>
       </c>
       <c r="D15" t="n">
-        <v>-62074.9064487267</v>
+        <v>-62074.9142737811</v>
       </c>
       <c r="E15" t="n">
         <v>43.488796591477</v>
       </c>
       <c r="F15" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3383,16 @@
         <v>520889.757658292</v>
       </c>
       <c r="C16" t="n">
-        <v>597860.190894282</v>
+        <v>597860.189306348</v>
       </c>
       <c r="D16" t="n">
-        <v>-76970.4332359894</v>
+        <v>-76970.4316480554</v>
       </c>
       <c r="E16" t="n">
         <v>37.7099732742537</v>
       </c>
       <c r="F16" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3403,16 @@
         <v>676719.670964663</v>
       </c>
       <c r="C17" t="n">
-        <v>834078.888190461</v>
+        <v>834078.911819664</v>
       </c>
       <c r="D17" t="n">
-        <v>-157359.217225798</v>
+        <v>-157359.240855002</v>
       </c>
       <c r="E17" t="n">
         <v>60.1486286558445</v>
       </c>
       <c r="F17" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3423,16 @@
         <v>775202.489986562</v>
       </c>
       <c r="C18" t="n">
-        <v>907779.43698878</v>
+        <v>907779.458228395</v>
       </c>
       <c r="D18" t="n">
-        <v>-132576.947002218</v>
+        <v>-132576.968241833</v>
       </c>
       <c r="E18" t="n">
         <v>75.1099414652688</v>
       </c>
       <c r="F18" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3443,16 @@
         <v>1009360.83115605</v>
       </c>
       <c r="C19" t="n">
-        <v>884445.195452832</v>
+        <v>884445.210418893</v>
       </c>
       <c r="D19" t="n">
-        <v>124915.635703219</v>
+        <v>124915.620737158</v>
       </c>
       <c r="E19" t="n">
         <v>79.6144737006461</v>
       </c>
       <c r="F19" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3463,16 @@
         <v>1219523</v>
       </c>
       <c r="C20" t="n">
-        <v>1299610.50816557</v>
+        <v>1299610.53366406</v>
       </c>
       <c r="D20" t="n">
-        <v>-80087.5081655654</v>
+        <v>-80087.5336640618</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3483,16 @@
         <v>1637588</v>
       </c>
       <c r="C21" t="n">
-        <v>1223939.80955032</v>
+        <v>1223939.81686517</v>
       </c>
       <c r="D21" t="n">
-        <v>413648.19044968</v>
+        <v>413648.18313483</v>
       </c>
       <c r="E21" t="n">
         <v>96.9401857862517</v>
       </c>
       <c r="F21" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3503,16 @@
         <v>1984548.78583326</v>
       </c>
       <c r="C22" t="n">
-        <v>1766631.2477085</v>
+        <v>1766631.25688627</v>
       </c>
       <c r="D22" t="n">
-        <v>217917.538124759</v>
+        <v>217917.528946985</v>
       </c>
       <c r="E22" t="n">
         <v>107.073482222742</v>
       </c>
       <c r="F22" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3523,16 @@
         <v>2105888.82493628</v>
       </c>
       <c r="C23" t="n">
-        <v>2187081.82767259</v>
+        <v>2187081.8395196</v>
       </c>
       <c r="D23" t="n">
-        <v>-81193.0027363088</v>
+        <v>-81193.0145833179</v>
       </c>
       <c r="E23" t="n">
         <v>124.668484226788</v>
       </c>
       <c r="F23" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3543,16 @@
         <v>2606545.64586272</v>
       </c>
       <c r="C24" t="n">
-        <v>2463152.85535834</v>
+        <v>2463152.88090144</v>
       </c>
       <c r="D24" t="n">
-        <v>143392.790504382</v>
+        <v>143392.764961281</v>
       </c>
       <c r="E24" t="n">
         <v>154.153371419362</v>
       </c>
       <c r="F24" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3563,16 @@
         <v>2749905.65638517</v>
       </c>
       <c r="C25" t="n">
-        <v>2443891.60897226</v>
+        <v>2443891.59773713</v>
       </c>
       <c r="D25" t="n">
-        <v>306014.047412909</v>
+        <v>306014.05864804</v>
       </c>
       <c r="E25" t="n">
         <v>142.431451282797</v>
       </c>
       <c r="F25" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
   </sheetData>
@@ -3632,28 +3632,28 @@
         <v>8.16221959350705</v>
       </c>
       <c r="C2" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
       <c r="D2" t="n">
-        <v>218031.14631798</v>
+        <v>218031.140923</v>
       </c>
       <c r="E2" t="n">
-        <v>808428.874127289</v>
+        <v>808428.848025299</v>
       </c>
       <c r="F2" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G2" t="n">
-        <v>-13366.1581413755</v>
+        <v>-13366.1320393856</v>
       </c>
       <c r="H2" t="n">
-        <v>321.845154023494</v>
+        <v>321.853560535156</v>
       </c>
       <c r="I2" t="n">
-        <v>218352.991472004</v>
+        <v>218352.994483535</v>
       </c>
       <c r="J2" t="n">
-        <v>795062.715985913</v>
+        <v>795062.715985914</v>
       </c>
       <c r="K2" t="s">
         <v>146</v>
@@ -3667,28 +3667,28 @@
         <v>6.25866308053367</v>
       </c>
       <c r="C3" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
       <c r="D3" t="n">
-        <v>194542.708641893</v>
+        <v>194542.701579355</v>
       </c>
       <c r="E3" t="n">
-        <v>808428.874127289</v>
+        <v>808428.848025299</v>
       </c>
       <c r="F3" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G3" t="n">
-        <v>-13366.1581413755</v>
+        <v>-13366.1320393856</v>
       </c>
       <c r="H3" t="n">
-        <v>-1143.50872172345</v>
+        <v>-1143.50106761745</v>
       </c>
       <c r="I3" t="n">
-        <v>193399.19992017</v>
+        <v>193399.200511737</v>
       </c>
       <c r="J3" t="n">
-        <v>795062.715985913</v>
+        <v>795062.715985914</v>
       </c>
       <c r="K3" t="s">
         <v>147</v>
@@ -3702,28 +3702,28 @@
         <v>6.11445425379326</v>
       </c>
       <c r="C4" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
       <c r="D4" t="n">
-        <v>192763.28154522</v>
+        <v>192763.274356351</v>
       </c>
       <c r="E4" t="n">
-        <v>808428.874127289</v>
+        <v>808428.848025299</v>
       </c>
       <c r="F4" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G4" t="n">
-        <v>-13366.1581413755</v>
+        <v>-13366.1320393856</v>
       </c>
       <c r="H4" t="n">
-        <v>-4074.21647321735</v>
+        <v>-4074.21032392266</v>
       </c>
       <c r="I4" t="n">
-        <v>188689.065072003</v>
+        <v>188689.064032429</v>
       </c>
       <c r="J4" t="n">
-        <v>795062.715985913</v>
+        <v>795062.715985914</v>
       </c>
       <c r="K4" t="s">
         <v>148</v>
@@ -3737,28 +3737,28 @@
         <v>6.95149586998813</v>
       </c>
       <c r="C5" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
       <c r="D5" t="n">
-        <v>203091.737622195</v>
+        <v>203091.731166593</v>
       </c>
       <c r="E5" t="n">
-        <v>808428.874127289</v>
+        <v>808428.848025299</v>
       </c>
       <c r="F5" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G5" t="n">
-        <v>-13366.1581413755</v>
+        <v>-13366.1320393856</v>
       </c>
       <c r="H5" t="n">
-        <v>-8470.2781004582</v>
+        <v>-8470.27420838047</v>
       </c>
       <c r="I5" t="n">
-        <v>194621.459521736</v>
+        <v>194621.456958213</v>
       </c>
       <c r="J5" t="n">
-        <v>795062.715985913</v>
+        <v>795062.715985914</v>
       </c>
       <c r="K5" t="s">
         <v>149</v>
@@ -3772,28 +3772,28 @@
         <v>9.05536868764681</v>
       </c>
       <c r="C6" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
       <c r="D6" t="n">
-        <v>226407.443338496</v>
+        <v>226407.443416598</v>
       </c>
       <c r="E6" t="n">
-        <v>941101.631543405</v>
+        <v>941101.634374131</v>
       </c>
       <c r="F6" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G6" t="n">
-        <v>-65611.0267740466</v>
+        <v>-65611.0296047725</v>
       </c>
       <c r="H6" t="n">
-        <v>-14331.693603446</v>
+        <v>-14331.6927209909</v>
       </c>
       <c r="I6" t="n">
-        <v>212075.74973505</v>
+        <v>212075.750695607</v>
       </c>
       <c r="J6" t="n">
-        <v>875484.857540935</v>
+        <v>875484.855296019</v>
       </c>
       <c r="K6" t="s">
         <v>150</v>
@@ -3807,28 +3807,28 @@
         <v>9.46860971902752</v>
       </c>
       <c r="C7" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
       <c r="D7" t="n">
-        <v>231506.522953225</v>
+        <v>231506.523393335</v>
       </c>
       <c r="E7" t="n">
-        <v>941101.631543405</v>
+        <v>941101.634374131</v>
       </c>
       <c r="F7" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G7" t="n">
-        <v>-65611.0267740466</v>
+        <v>-65611.0296047725</v>
       </c>
       <c r="H7" t="n">
-        <v>-17505.2597635097</v>
+        <v>-17505.2609454498</v>
       </c>
       <c r="I7" t="n">
-        <v>214001.263189716</v>
+        <v>214001.262447886</v>
       </c>
       <c r="J7" t="n">
-        <v>875484.857540935</v>
+        <v>875484.855296019</v>
       </c>
       <c r="K7" t="s">
         <v>151</v>
@@ -3842,28 +3842,28 @@
         <v>10.1333887695095</v>
       </c>
       <c r="C8" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
       <c r="D8" t="n">
-        <v>239709.390159529</v>
+        <v>239709.391182</v>
       </c>
       <c r="E8" t="n">
-        <v>941101.631543405</v>
+        <v>941101.634374131</v>
       </c>
       <c r="F8" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G8" t="n">
-        <v>-65611.0267740466</v>
+        <v>-65611.0296047725</v>
       </c>
       <c r="H8" t="n">
-        <v>-17990.9765806494</v>
+        <v>-17990.9788817574</v>
       </c>
       <c r="I8" t="n">
-        <v>221718.413578879</v>
+        <v>221718.412300243</v>
       </c>
       <c r="J8" t="n">
-        <v>875484.857540935</v>
+        <v>875484.855296019</v>
       </c>
       <c r="K8" t="s">
         <v>152</v>
@@ -3877,28 +3877,28 @@
         <v>10.438827792704</v>
       </c>
       <c r="C9" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
       <c r="D9" t="n">
-        <v>243478.275092155</v>
+        <v>243478.276382197</v>
       </c>
       <c r="E9" t="n">
-        <v>941101.631543405</v>
+        <v>941101.634374131</v>
       </c>
       <c r="F9" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G9" t="n">
-        <v>-65611.0267740466</v>
+        <v>-65611.0296047725</v>
       </c>
       <c r="H9" t="n">
-        <v>-15788.844054865</v>
+        <v>-15788.8465299135</v>
       </c>
       <c r="I9" t="n">
-        <v>227689.43103729</v>
+        <v>227689.429852284</v>
       </c>
       <c r="J9" t="n">
-        <v>875484.857540935</v>
+        <v>875484.855296019</v>
       </c>
       <c r="K9" t="s">
         <v>153</v>
@@ -3912,28 +3912,28 @@
         <v>9.80998274495072</v>
       </c>
       <c r="C10" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
       <c r="D10" t="n">
-        <v>221329.093348981</v>
+        <v>221329.092474312</v>
       </c>
       <c r="E10" t="n">
-        <v>949830.815477934</v>
+        <v>949830.816559451</v>
       </c>
       <c r="F10" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G10" t="n">
-        <v>-49860.2876553398</v>
+        <v>-49860.2887368563</v>
       </c>
       <c r="H10" t="n">
-        <v>-10898.8621861566</v>
+        <v>-10898.8638899181</v>
       </c>
       <c r="I10" t="n">
-        <v>210430.231162825</v>
+        <v>210430.228584394</v>
       </c>
       <c r="J10" t="n">
-        <v>899968.489331637</v>
+        <v>899968.488644708</v>
       </c>
       <c r="K10" t="s">
         <v>154</v>
@@ -3947,28 +3947,28 @@
         <v>9.4865767203919</v>
       </c>
       <c r="C11" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
       <c r="D11" t="n">
-        <v>217338.509302671</v>
+        <v>217338.508144692</v>
       </c>
       <c r="E11" t="n">
-        <v>949830.815477934</v>
+        <v>949830.816559451</v>
       </c>
       <c r="F11" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G11" t="n">
-        <v>-49860.2876553398</v>
+        <v>-49860.2887368563</v>
       </c>
       <c r="H11" t="n">
-        <v>-9569.55717884033</v>
+        <v>-9569.558069427</v>
       </c>
       <c r="I11" t="n">
-        <v>207768.952123831</v>
+        <v>207768.950075265</v>
       </c>
       <c r="J11" t="n">
-        <v>899968.489331637</v>
+        <v>899968.488644708</v>
       </c>
       <c r="K11" t="s">
         <v>155</v>
@@ -3982,28 +3982,28 @@
         <v>10.0076197599589</v>
       </c>
       <c r="C12" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
       <c r="D12" t="n">
-        <v>223767.783599504</v>
+        <v>223767.782897969</v>
       </c>
       <c r="E12" t="n">
-        <v>949830.815477934</v>
+        <v>949830.816559451</v>
       </c>
       <c r="F12" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G12" t="n">
-        <v>-49860.2876553398</v>
+        <v>-49860.2887368563</v>
       </c>
       <c r="H12" t="n">
-        <v>-11800.9290329162</v>
+        <v>-11800.9290684401</v>
       </c>
       <c r="I12" t="n">
-        <v>211966.854566588</v>
+        <v>211966.853829529</v>
       </c>
       <c r="J12" t="n">
-        <v>899968.489331637</v>
+        <v>899968.488644708</v>
       </c>
       <c r="K12" t="s">
         <v>156</v>
@@ -4017,28 +4017,28 @@
         <v>15.1641491515355</v>
       </c>
       <c r="C13" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
       <c r="D13" t="n">
-        <v>287395.429226778</v>
+        <v>287395.433042477</v>
       </c>
       <c r="E13" t="n">
-        <v>949830.815477934</v>
+        <v>949830.816559451</v>
       </c>
       <c r="F13" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G13" t="n">
-        <v>-49860.2876553398</v>
+        <v>-49860.2887368563</v>
       </c>
       <c r="H13" t="n">
-        <v>-17592.9777483843</v>
+        <v>-17592.9768869575</v>
       </c>
       <c r="I13" t="n">
-        <v>269802.451478393</v>
+        <v>269802.45615552</v>
       </c>
       <c r="J13" t="n">
-        <v>899968.489331637</v>
+        <v>899968.488644708</v>
       </c>
       <c r="K13" t="s">
         <v>157</v>
@@ -4052,28 +4052,28 @@
         <v>9.80998274495072</v>
       </c>
       <c r="C14" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
       <c r="D14" t="n">
-        <v>211752.845058564</v>
+        <v>211752.843582208</v>
       </c>
       <c r="E14" t="n">
-        <v>804666.849520636</v>
+        <v>804666.840608968</v>
       </c>
       <c r="F14" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G14" t="n">
-        <v>-103747.639129106</v>
+        <v>-103747.630217438</v>
       </c>
       <c r="H14" t="n">
-        <v>-26945.7033252446</v>
+        <v>-26945.701524979</v>
       </c>
       <c r="I14" t="n">
-        <v>184807.14173332</v>
+        <v>184807.142057229</v>
       </c>
       <c r="J14" t="n">
-        <v>700919.640038151</v>
+        <v>700919.640387929</v>
       </c>
       <c r="K14" t="s">
         <v>158</v>
@@ -4087,28 +4087,28 @@
         <v>12.1277259209556</v>
       </c>
       <c r="C15" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
       <c r="D15" t="n">
-        <v>240352.030723785</v>
+        <v>240352.031277823</v>
       </c>
       <c r="E15" t="n">
-        <v>804666.849520636</v>
+        <v>804666.840608968</v>
       </c>
       <c r="F15" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G15" t="n">
-        <v>-103747.639129106</v>
+        <v>-103747.630217438</v>
       </c>
       <c r="H15" t="n">
-        <v>-30283.2331741394</v>
+        <v>-30283.2307922999</v>
       </c>
       <c r="I15" t="n">
-        <v>210068.797549646</v>
+        <v>210068.800485523</v>
       </c>
       <c r="J15" t="n">
-        <v>700919.640038151</v>
+        <v>700919.640387929</v>
       </c>
       <c r="K15" t="s">
         <v>159</v>
@@ -4122,28 +4122,28 @@
         <v>7.34850355803085</v>
       </c>
       <c r="C16" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
       <c r="D16" t="n">
-        <v>181380.066483873</v>
+        <v>181380.062851206</v>
       </c>
       <c r="E16" t="n">
-        <v>804666.849520636</v>
+        <v>804666.840608968</v>
       </c>
       <c r="F16" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G16" t="n">
-        <v>-103747.639129106</v>
+        <v>-103747.630217438</v>
       </c>
       <c r="H16" t="n">
-        <v>-27605.5672950688</v>
+        <v>-27605.5646889201</v>
       </c>
       <c r="I16" t="n">
-        <v>153774.499188804</v>
+        <v>153774.498162286</v>
       </c>
       <c r="J16" t="n">
-        <v>700919.640038151</v>
+        <v>700919.640387929</v>
       </c>
       <c r="K16" t="s">
         <v>160</v>
@@ -4157,28 +4157,28 @@
         <v>6.52202149526943</v>
       </c>
       <c r="C17" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
       <c r="D17" t="n">
-        <v>171181.907254414</v>
+        <v>171181.902897731</v>
       </c>
       <c r="E17" t="n">
-        <v>804666.849520636</v>
+        <v>804666.840608968</v>
       </c>
       <c r="F17" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G17" t="n">
-        <v>-103747.639129106</v>
+        <v>-103747.630217438</v>
       </c>
       <c r="H17" t="n">
-        <v>-18912.7056880327</v>
+        <v>-18912.7032148395</v>
       </c>
       <c r="I17" t="n">
-        <v>152269.201566382</v>
+        <v>152269.199682891</v>
       </c>
       <c r="J17" t="n">
-        <v>700919.640038151</v>
+        <v>700919.640387929</v>
       </c>
       <c r="K17" t="s">
         <v>161</v>
@@ -4192,28 +4192,28 @@
         <v>5.92911045024494</v>
       </c>
       <c r="C18" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
       <c r="D18" t="n">
-        <v>142748.958897642</v>
+        <v>142748.956809456</v>
       </c>
       <c r="E18" t="n">
-        <v>653911.304108338</v>
+        <v>653911.301642167</v>
       </c>
       <c r="F18" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G18" t="n">
-        <v>24374.5080929856</v>
+        <v>24374.5105591563</v>
       </c>
       <c r="H18" t="n">
-        <v>-4204.64835303121</v>
+        <v>-4204.6463700583</v>
       </c>
       <c r="I18" t="n">
-        <v>138544.31054461</v>
+        <v>138544.310439398</v>
       </c>
       <c r="J18" t="n">
-        <v>678291.684413506</v>
+        <v>678291.687048298</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -4227,28 +4227,28 @@
         <v>7.7258105866828</v>
       </c>
       <c r="C19" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
       <c r="D19" t="n">
-        <v>164918.87026603</v>
+        <v>164918.869751794</v>
       </c>
       <c r="E19" t="n">
-        <v>653911.304108338</v>
+        <v>653911.301642167</v>
       </c>
       <c r="F19" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G19" t="n">
-        <v>24374.5080929856</v>
+        <v>24374.5105591563</v>
       </c>
       <c r="H19" t="n">
-        <v>5798.47195269869</v>
+        <v>5798.47345649061</v>
       </c>
       <c r="I19" t="n">
-        <v>170717.342218728</v>
+        <v>170717.343208284</v>
       </c>
       <c r="J19" t="n">
-        <v>678291.684413506</v>
+        <v>678291.687048298</v>
       </c>
       <c r="K19" t="s">
         <v>163</v>
@@ -4262,28 +4262,28 @@
         <v>7.67190958258966</v>
       </c>
       <c r="C20" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
       <c r="D20" t="n">
-        <v>164253.772924978</v>
+        <v>164253.772363524</v>
       </c>
       <c r="E20" t="n">
-        <v>653911.304108338</v>
+        <v>653911.301642167</v>
       </c>
       <c r="F20" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G20" t="n">
-        <v>24374.5080929856</v>
+        <v>24374.5105591563</v>
       </c>
       <c r="H20" t="n">
-        <v>11096.655229157</v>
+        <v>11096.6562648072</v>
       </c>
       <c r="I20" t="n">
-        <v>175350.428154135</v>
+        <v>175350.428628331</v>
       </c>
       <c r="J20" t="n">
-        <v>678291.684413506</v>
+        <v>678291.687048298</v>
       </c>
       <c r="K20" t="s">
         <v>164</v>
@@ -4297,28 +4297,28 @@
         <v>9.10926969173995</v>
       </c>
       <c r="C21" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
       <c r="D21" t="n">
-        <v>181989.702019688</v>
+        <v>181989.702717393</v>
       </c>
       <c r="E21" t="n">
-        <v>653911.304108338</v>
+        <v>653911.301642167</v>
       </c>
       <c r="F21" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G21" t="n">
-        <v>24374.5080929856</v>
+        <v>24374.5105591563</v>
       </c>
       <c r="H21" t="n">
-        <v>11689.9014763437</v>
+        <v>11689.9020548915</v>
       </c>
       <c r="I21" t="n">
-        <v>193679.603496032</v>
+        <v>193679.604772285</v>
       </c>
       <c r="J21" t="n">
-        <v>678291.684413506</v>
+        <v>678291.687048298</v>
       </c>
       <c r="K21" t="s">
         <v>165</v>
@@ -4332,28 +4332,28 @@
         <v>8.28278762897853</v>
       </c>
       <c r="C22" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
       <c r="D22" t="n">
-        <v>181790.742028274</v>
+        <v>181790.742582615</v>
       </c>
       <c r="E22" t="n">
-        <v>714304.419519432</v>
+        <v>714304.420823906</v>
       </c>
       <c r="F22" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G22" t="n">
-        <v>-7047.72560111666</v>
+        <v>-7047.72690559051</v>
       </c>
       <c r="H22" t="n">
-        <v>7578.21069425882</v>
+        <v>7578.21082674341</v>
       </c>
       <c r="I22" t="n">
-        <v>189368.952722533</v>
+        <v>189368.953409359</v>
       </c>
       <c r="J22" t="n">
-        <v>707259.988983514</v>
+        <v>707259.990535824</v>
       </c>
       <c r="K22" t="s">
         <v>166</v>
@@ -4367,28 +4367,28 @@
         <v>10.4927287967971</v>
       </c>
       <c r="C23" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
       <c r="D23" t="n">
-        <v>209059.733011392</v>
+        <v>209059.73550169</v>
       </c>
       <c r="E23" t="n">
-        <v>714304.419519432</v>
+        <v>714304.420823906</v>
       </c>
       <c r="F23" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G23" t="n">
-        <v>-7047.72560111666</v>
+        <v>-7047.72690559051</v>
       </c>
       <c r="H23" t="n">
-        <v>2197.80705012957</v>
+        <v>2197.80697597864</v>
       </c>
       <c r="I23" t="n">
-        <v>211257.540061521</v>
+        <v>211257.542477669</v>
       </c>
       <c r="J23" t="n">
-        <v>707259.988983514</v>
+        <v>707259.990535824</v>
       </c>
       <c r="K23" t="s">
         <v>167</v>
@@ -4402,28 +4402,28 @@
         <v>8.55229264944421</v>
       </c>
       <c r="C24" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
       <c r="D24" t="n">
-        <v>185116.228733532</v>
+        <v>185116.229523966</v>
       </c>
       <c r="E24" t="n">
-        <v>714304.419519432</v>
+        <v>714304.420823906</v>
       </c>
       <c r="F24" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G24" t="n">
-        <v>-7047.72560111666</v>
+        <v>-7047.72690559051</v>
       </c>
       <c r="H24" t="n">
-        <v>-4451.30945604402</v>
+        <v>-4451.30949740285</v>
       </c>
       <c r="I24" t="n">
-        <v>180664.919277488</v>
+        <v>180664.920026563</v>
       </c>
       <c r="J24" t="n">
-        <v>707259.988983514</v>
+        <v>707259.990535824</v>
       </c>
       <c r="K24" t="s">
         <v>168</v>
@@ -4437,28 +4437,28 @@
         <v>4.76125536156033</v>
       </c>
       <c r="C25" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
       <c r="D25" t="n">
-        <v>138337.715746234</v>
+        <v>138337.713215634</v>
       </c>
       <c r="E25" t="n">
-        <v>714304.419519432</v>
+        <v>714304.420823906</v>
       </c>
       <c r="F25" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G25" t="n">
-        <v>-7047.72560111666</v>
+        <v>-7047.72690559051</v>
       </c>
       <c r="H25" t="n">
-        <v>-12369.138824262</v>
+        <v>-12369.1385934011</v>
       </c>
       <c r="I25" t="n">
-        <v>125968.576921972</v>
+        <v>125968.574622233</v>
       </c>
       <c r="J25" t="n">
-        <v>707259.988983514</v>
+        <v>707259.990535824</v>
       </c>
       <c r="K25" t="s">
         <v>169</v>
@@ -4472,28 +4472,28 @@
         <v>6.68372450754884</v>
       </c>
       <c r="C26" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
       <c r="D26" t="n">
-        <v>164023.545185471</v>
+        <v>164023.543909644</v>
       </c>
       <c r="E26" t="n">
-        <v>697330.215887084</v>
+        <v>697330.213711324</v>
       </c>
       <c r="F26" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G26" t="n">
-        <v>-98986.2359919302</v>
+        <v>-98986.2338161701</v>
       </c>
       <c r="H26" t="n">
-        <v>-21555.6810545243</v>
+        <v>-21555.680312016</v>
       </c>
       <c r="I26" t="n">
-        <v>142467.864130946</v>
+        <v>142467.863597628</v>
       </c>
       <c r="J26" t="n">
-        <v>598346.768761895</v>
+        <v>598346.770101725</v>
       </c>
       <c r="K26" t="s">
         <v>146</v>
@@ -4507,28 +4507,28 @@
         <v>7.4742725675815</v>
       </c>
       <c r="C27" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
       <c r="D27" t="n">
-        <v>173778.306187561</v>
+        <v>173778.305604273</v>
       </c>
       <c r="E27" t="n">
-        <v>697330.215887084</v>
+        <v>697330.213711324</v>
       </c>
       <c r="F27" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G27" t="n">
-        <v>-98986.2359919302</v>
+        <v>-98986.2338161701</v>
       </c>
       <c r="H27" t="n">
-        <v>-26506.3702373384</v>
+        <v>-26506.3692356155</v>
       </c>
       <c r="I27" t="n">
-        <v>147271.935950223</v>
+        <v>147271.936368657</v>
       </c>
       <c r="J27" t="n">
-        <v>598346.768761895</v>
+        <v>598346.770101725</v>
       </c>
       <c r="K27" t="s">
         <v>147</v>
@@ -4542,28 +4542,28 @@
         <v>9.05536868764681</v>
       </c>
       <c r="C28" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
       <c r="D28" t="n">
-        <v>193287.828191743</v>
+        <v>193287.828993529</v>
       </c>
       <c r="E28" t="n">
-        <v>697330.215887084</v>
+        <v>697330.213711324</v>
       </c>
       <c r="F28" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G28" t="n">
-        <v>-98986.2359919302</v>
+        <v>-98986.2338161701</v>
       </c>
       <c r="H28" t="n">
-        <v>-27221.2063727044</v>
+        <v>-27221.2053641997</v>
       </c>
       <c r="I28" t="n">
-        <v>166066.621819039</v>
+        <v>166066.62362933</v>
       </c>
       <c r="J28" t="n">
-        <v>598346.768761895</v>
+        <v>598346.770101725</v>
       </c>
       <c r="K28" t="s">
         <v>148</v>
@@ -4577,28 +4577,28 @@
         <v>6.86339452119263</v>
       </c>
       <c r="C29" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
       <c r="D29" t="n">
-        <v>166240.536322309</v>
+        <v>166240.535203878</v>
       </c>
       <c r="E29" t="n">
-        <v>697330.215887084</v>
+        <v>697330.213711324</v>
       </c>
       <c r="F29" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G29" t="n">
-        <v>-98986.2359919302</v>
+        <v>-98986.2338161701</v>
       </c>
       <c r="H29" t="n">
-        <v>-23700.1894606221</v>
+        <v>-23700.1886977684</v>
       </c>
       <c r="I29" t="n">
-        <v>142540.346861687</v>
+        <v>142540.34650611</v>
       </c>
       <c r="J29" t="n">
-        <v>598346.768761895</v>
+        <v>598346.770101725</v>
       </c>
       <c r="K29" t="s">
         <v>149</v>
@@ -4612,28 +4612,28 @@
         <v>7.31256955530209</v>
       </c>
       <c r="C30" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
       <c r="D30" t="n">
-        <v>152523.73578041</v>
+        <v>152523.736417071</v>
       </c>
       <c r="E30" t="n">
-        <v>616745.916532159</v>
+        <v>616745.919550986</v>
       </c>
       <c r="F30" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G30" t="n">
-        <v>-39231.2193583861</v>
+        <v>-39231.2223772134</v>
       </c>
       <c r="H30" t="n">
-        <v>-15943.3195010917</v>
+        <v>-15943.3192363219</v>
       </c>
       <c r="I30" t="n">
-        <v>136580.416279319</v>
+        <v>136580.417180749</v>
       </c>
       <c r="J30" t="n">
-        <v>577522.449837114</v>
+        <v>577522.453261254</v>
       </c>
       <c r="K30" t="s">
         <v>150</v>
@@ -4647,28 +4647,28 @@
         <v>9.14520369446871</v>
       </c>
       <c r="C31" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
       <c r="D31" t="n">
-        <v>175137.045376166</v>
+        <v>175137.047618255</v>
       </c>
       <c r="E31" t="n">
-        <v>616745.916532159</v>
+        <v>616745.919550986</v>
       </c>
       <c r="F31" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G31" t="n">
-        <v>-39231.2193583861</v>
+        <v>-39231.2223772134</v>
       </c>
       <c r="H31" t="n">
-        <v>-10385.5903863473</v>
+        <v>-10385.5903861876</v>
       </c>
       <c r="I31" t="n">
-        <v>164751.454989819</v>
+        <v>164751.457232067</v>
       </c>
       <c r="J31" t="n">
-        <v>577522.449837114</v>
+        <v>577522.453261254</v>
       </c>
       <c r="K31" t="s">
         <v>151</v>
@@ -4682,28 +4682,28 @@
         <v>7.63597557986091</v>
       </c>
       <c r="C32" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
       <c r="D32" t="n">
-        <v>156514.31982672</v>
+        <v>156514.320746692</v>
       </c>
       <c r="E32" t="n">
-        <v>616745.916532159</v>
+        <v>616745.919550986</v>
       </c>
       <c r="F32" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G32" t="n">
-        <v>-39231.2193583861</v>
+        <v>-39231.2223772134</v>
       </c>
       <c r="H32" t="n">
-        <v>-7027.00211638884</v>
+        <v>-7027.00214736573</v>
       </c>
       <c r="I32" t="n">
-        <v>149487.317710332</v>
+        <v>149487.318599326</v>
       </c>
       <c r="J32" t="n">
-        <v>577522.449837114</v>
+        <v>577522.453261254</v>
       </c>
       <c r="K32" t="s">
         <v>152</v>
@@ -4717,28 +4717,28 @@
         <v>5.69553943250802</v>
       </c>
       <c r="C33" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
       <c r="D33" t="n">
-        <v>132570.815548861</v>
+        <v>132570.814768968</v>
       </c>
       <c r="E33" t="n">
-        <v>616745.916532159</v>
+        <v>616745.919550986</v>
       </c>
       <c r="F33" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G33" t="n">
-        <v>-39231.2193583861</v>
+        <v>-39231.2223772134</v>
       </c>
       <c r="H33" t="n">
-        <v>-5867.55469121637</v>
+        <v>-5867.5545198562</v>
       </c>
       <c r="I33" t="n">
-        <v>126703.260857645</v>
+        <v>126703.260249112</v>
       </c>
       <c r="J33" t="n">
-        <v>577522.449837114</v>
+        <v>577522.453261254</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -4752,28 +4752,28 @@
         <v>7.55888211528903</v>
       </c>
       <c r="C34" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
       <c r="D34" t="n">
-        <v>151604.539450123</v>
+        <v>151604.540557111</v>
       </c>
       <c r="E34" t="n">
-        <v>572530.825236908</v>
+        <v>572530.827259034</v>
       </c>
       <c r="F34" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G34" t="n">
-        <v>-39606.6855963221</v>
+        <v>-39606.687618448</v>
       </c>
       <c r="H34" t="n">
-        <v>-6907.24811082989</v>
+        <v>-6907.24750365904</v>
       </c>
       <c r="I34" t="n">
-        <v>144697.291339293</v>
+        <v>144697.293053451</v>
       </c>
       <c r="J34" t="n">
-        <v>532932.912550737</v>
+        <v>532932.916403288</v>
       </c>
       <c r="K34" t="s">
         <v>154</v>
@@ -4787,28 +4787,28 @@
         <v>7.91197868468834</v>
       </c>
       <c r="C35" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
       <c r="D35" t="n">
-        <v>155961.482208297</v>
+        <v>155961.483624606</v>
       </c>
       <c r="E35" t="n">
-        <v>572530.825236908</v>
+        <v>572530.827259034</v>
       </c>
       <c r="F35" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G35" t="n">
-        <v>-39606.6855963221</v>
+        <v>-39606.687618448</v>
       </c>
       <c r="H35" t="n">
-        <v>-8520.01750296044</v>
+        <v>-8520.01678129119</v>
       </c>
       <c r="I35" t="n">
-        <v>147441.464705337</v>
+        <v>147441.466843315</v>
       </c>
       <c r="J35" t="n">
-        <v>532932.912550737</v>
+        <v>532932.916403288</v>
       </c>
       <c r="K35" t="s">
         <v>155</v>
@@ -4822,28 +4822,28 @@
         <v>6.13341818697328</v>
       </c>
       <c r="C36" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
       <c r="D36" t="n">
-        <v>134015.40016712</v>
+        <v>134015.40002537</v>
       </c>
       <c r="E36" t="n">
-        <v>572530.825236908</v>
+        <v>572530.827259034</v>
       </c>
       <c r="F36" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G36" t="n">
-        <v>-39606.6855963221</v>
+        <v>-39606.687618448</v>
       </c>
       <c r="H36" t="n">
-        <v>-10705.862867608</v>
+        <v>-10705.8623527527</v>
       </c>
       <c r="I36" t="n">
-        <v>123309.537299512</v>
+        <v>123309.537672618</v>
       </c>
       <c r="J36" t="n">
-        <v>532932.912550737</v>
+        <v>532932.916403288</v>
       </c>
       <c r="K36" t="s">
         <v>156</v>
@@ -4857,28 +4857,28 @@
         <v>5.88494282332191</v>
       </c>
       <c r="C37" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
       <c r="D37" t="n">
-        <v>130949.403411368</v>
+        <v>130949.403051948</v>
       </c>
       <c r="E37" t="n">
-        <v>572530.825236908</v>
+        <v>572530.827259034</v>
       </c>
       <c r="F37" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G37" t="n">
-        <v>-39606.6855963221</v>
+        <v>-39606.687618448</v>
       </c>
       <c r="H37" t="n">
-        <v>-13464.7842047727</v>
+        <v>-13464.7842180435</v>
       </c>
       <c r="I37" t="n">
-        <v>117484.619206595</v>
+        <v>117484.618833904</v>
       </c>
       <c r="J37" t="n">
-        <v>532932.912550737</v>
+        <v>532932.916403288</v>
       </c>
       <c r="K37" t="s">
         <v>157</v>
@@ -4892,28 +4892,28 @@
         <v>8.01328260851286</v>
       </c>
       <c r="C38" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
       <c r="D38" t="n">
-        <v>153498.673112595</v>
+        <v>153498.675263818</v>
       </c>
       <c r="E38" t="n">
-        <v>621089.064088264</v>
+        <v>621089.07319682</v>
       </c>
       <c r="F38" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G38" t="n">
-        <v>-67931.6807128419</v>
+        <v>-67931.6898213981</v>
       </c>
       <c r="H38" t="n">
-        <v>-16796.7815144543</v>
+        <v>-16796.7823771636</v>
       </c>
       <c r="I38" t="n">
-        <v>136701.891598141</v>
+        <v>136701.892886654</v>
       </c>
       <c r="J38" t="n">
-        <v>553167.113211096</v>
+        <v>553167.117465363</v>
       </c>
       <c r="K38" t="s">
         <v>158</v>
@@ -4927,28 +4927,28 @@
         <v>8.88108877441235</v>
       </c>
       <c r="C39" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
       <c r="D39" t="n">
-        <v>164206.740303526</v>
+        <v>164206.743214967</v>
       </c>
       <c r="E39" t="n">
-        <v>621089.064088264</v>
+        <v>621089.07319682</v>
       </c>
       <c r="F39" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G39" t="n">
-        <v>-67931.6807128419</v>
+        <v>-67931.6898213981</v>
       </c>
       <c r="H39" t="n">
-        <v>-18203.0629202621</v>
+        <v>-18203.064263092</v>
       </c>
       <c r="I39" t="n">
-        <v>146003.677383264</v>
+        <v>146003.678951875</v>
       </c>
       <c r="J39" t="n">
-        <v>553167.113211096</v>
+        <v>553167.117465363</v>
       </c>
       <c r="K39" t="s">
         <v>159</v>
@@ -4962,28 +4962,28 @@
         <v>7.3844375607596</v>
       </c>
       <c r="C40" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
       <c r="D40" t="n">
-        <v>145739.204133659</v>
+        <v>145739.205734</v>
       </c>
       <c r="E40" t="n">
-        <v>621089.064088264</v>
+        <v>621089.07319682</v>
       </c>
       <c r="F40" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G40" t="n">
-        <v>-67931.6807128419</v>
+        <v>-67931.6898213981</v>
       </c>
       <c r="H40" t="n">
-        <v>-17683.6284221958</v>
+        <v>-17683.6298758285</v>
       </c>
       <c r="I40" t="n">
-        <v>128055.575711463</v>
+        <v>128055.575858172</v>
       </c>
       <c r="J40" t="n">
-        <v>553167.113211096</v>
+        <v>553167.117465363</v>
       </c>
       <c r="K40" t="s">
         <v>160</v>
@@ -4997,28 +4997,28 @@
         <v>8.34926553402674</v>
       </c>
       <c r="C41" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
       <c r="D41" t="n">
-        <v>157644.446538484</v>
+        <v>157644.448984035</v>
       </c>
       <c r="E41" t="n">
-        <v>621089.064088264</v>
+        <v>621089.07319682</v>
       </c>
       <c r="F41" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G41" t="n">
-        <v>-67931.6807128419</v>
+        <v>-67931.6898213981</v>
       </c>
       <c r="H41" t="n">
-        <v>-15238.4780202557</v>
+        <v>-15238.4792153732</v>
       </c>
       <c r="I41" t="n">
-        <v>142405.968518228</v>
+        <v>142405.969768662</v>
       </c>
       <c r="J41" t="n">
-        <v>553167.113211096</v>
+        <v>553167.117465363</v>
       </c>
       <c r="K41" t="s">
         <v>161</v>
@@ -5032,28 +5032,28 @@
         <v>8.03419698692758</v>
       </c>
       <c r="C42" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
       <c r="D42" t="n">
-        <v>143867.109100019</v>
+        <v>143867.110730271</v>
       </c>
       <c r="E42" t="n">
-        <v>575703.517340956</v>
+        <v>575703.523878652</v>
       </c>
       <c r="F42" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G42" t="n">
-        <v>-30551.8996550749</v>
+        <v>-30551.9061927708</v>
       </c>
       <c r="H42" t="n">
-        <v>-10867.6117144416</v>
+        <v>-10867.612281726</v>
       </c>
       <c r="I42" t="n">
-        <v>132999.497385578</v>
+        <v>132999.498448545</v>
       </c>
       <c r="J42" t="n">
-        <v>545163.896429064</v>
+        <v>545163.901753943</v>
       </c>
       <c r="K42" t="s">
         <v>162</v>
@@ -5067,28 +5067,28 @@
         <v>7.55431349246636</v>
       </c>
       <c r="C43" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
       <c r="D43" t="n">
-        <v>137945.712243863</v>
+        <v>137945.713453726</v>
       </c>
       <c r="E43" t="n">
-        <v>575703.517340956</v>
+        <v>575703.523878652</v>
       </c>
       <c r="F43" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G43" t="n">
-        <v>-30551.8996550749</v>
+        <v>-30551.9061927708</v>
       </c>
       <c r="H43" t="n">
-        <v>-7826.18259752853</v>
+        <v>-7826.18280804767</v>
       </c>
       <c r="I43" t="n">
-        <v>130119.529646335</v>
+        <v>130119.530645679</v>
       </c>
       <c r="J43" t="n">
-        <v>545163.896429064</v>
+        <v>545163.901753943</v>
       </c>
       <c r="K43" t="s">
         <v>163</v>
@@ -5102,28 +5102,28 @@
         <v>7.97775283468964</v>
       </c>
       <c r="C44" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
       <c r="D44" t="n">
-        <v>143170.631247649</v>
+        <v>143170.632828454</v>
       </c>
       <c r="E44" t="n">
-        <v>575703.517340956</v>
+        <v>575703.523878652</v>
       </c>
       <c r="F44" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G44" t="n">
-        <v>-30551.8996550749</v>
+        <v>-30551.9061927708</v>
       </c>
       <c r="H44" t="n">
-        <v>-6114.19066951648</v>
+        <v>-6114.19079433806</v>
       </c>
       <c r="I44" t="n">
-        <v>137056.440578133</v>
+        <v>137056.442034116</v>
       </c>
       <c r="J44" t="n">
-        <v>545163.896429064</v>
+        <v>545163.901753943</v>
       </c>
       <c r="K44" t="s">
         <v>164</v>
@@ -5137,28 +5137,28 @@
         <v>8.58957612876056</v>
       </c>
       <c r="C45" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
       <c r="D45" t="n">
-        <v>150720.064749424</v>
+        <v>150720.0668662</v>
       </c>
       <c r="E45" t="n">
-        <v>575703.517340956</v>
+        <v>575703.523878652</v>
       </c>
       <c r="F45" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G45" t="n">
-        <v>-30551.8996550749</v>
+        <v>-30551.9061927708</v>
       </c>
       <c r="H45" t="n">
-        <v>-5731.63593040544</v>
+        <v>-5731.63624059722</v>
       </c>
       <c r="I45" t="n">
-        <v>144988.428819019</v>
+        <v>144988.430625603</v>
       </c>
       <c r="J45" t="n">
-        <v>545163.896429064</v>
+        <v>545163.901753943</v>
       </c>
       <c r="K45" t="s">
         <v>165</v>
@@ -5172,28 +5172,28 @@
         <v>9.87509152195869</v>
       </c>
       <c r="C46" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
       <c r="D46" t="n">
-        <v>166083.298923254</v>
+        <v>166083.302285745</v>
       </c>
       <c r="E46" t="n">
-        <v>606487.619502305</v>
+        <v>606487.628845534</v>
       </c>
       <c r="F46" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G46" t="n">
-        <v>-31071.3885970982</v>
+        <v>-31071.3979403269</v>
       </c>
       <c r="H46" t="n">
-        <v>-6678.51838019541</v>
+        <v>-6678.51914682514</v>
       </c>
       <c r="I46" t="n">
-        <v>159404.780543058</v>
+        <v>159404.78313892</v>
       </c>
       <c r="J46" t="n">
-        <v>575428.638270376</v>
+        <v>575428.643649243</v>
       </c>
       <c r="K46" t="s">
         <v>166</v>
@@ -5207,28 +5207,28 @@
         <v>9.24586819727895</v>
       </c>
       <c r="C47" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
       <c r="D47" t="n">
-        <v>158319.16229513</v>
+        <v>158319.165106408</v>
       </c>
       <c r="E47" t="n">
-        <v>606487.619502305</v>
+        <v>606487.628845534</v>
       </c>
       <c r="F47" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G47" t="n">
-        <v>-31071.3885970982</v>
+        <v>-31071.3979403269</v>
       </c>
       <c r="H47" t="n">
-        <v>-7491.76213122609</v>
+        <v>-7491.76317021538</v>
       </c>
       <c r="I47" t="n">
-        <v>150827.400163904</v>
+        <v>150827.401936192</v>
       </c>
       <c r="J47" t="n">
-        <v>575428.638270376</v>
+        <v>575428.643649243</v>
       </c>
       <c r="K47" t="s">
         <v>167</v>
@@ -5242,28 +5242,28 @@
         <v>8.0591670131493</v>
       </c>
       <c r="C48" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
       <c r="D48" t="n">
-        <v>143676.173440531</v>
+        <v>143676.175212233</v>
       </c>
       <c r="E48" t="n">
-        <v>606487.619502305</v>
+        <v>606487.628845534</v>
       </c>
       <c r="F48" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G48" t="n">
-        <v>-31071.3885970982</v>
+        <v>-31071.3979403269</v>
       </c>
       <c r="H48" t="n">
-        <v>-8171.36718349748</v>
+        <v>-8171.36831076795</v>
       </c>
       <c r="I48" t="n">
-        <v>135504.806257034</v>
+        <v>135504.806901465</v>
       </c>
       <c r="J48" t="n">
-        <v>575428.638270376</v>
+        <v>575428.643649243</v>
       </c>
       <c r="K48" t="s">
         <v>168</v>
@@ -5277,28 +5277,28 @@
         <v>7.63230204675969</v>
       </c>
       <c r="C49" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
       <c r="D49" t="n">
-        <v>138408.98484339</v>
+        <v>138408.986241148</v>
       </c>
       <c r="E49" t="n">
-        <v>606487.619502305</v>
+        <v>606487.628845534</v>
       </c>
       <c r="F49" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G49" t="n">
-        <v>-31071.3885970982</v>
+        <v>-31071.3979403269</v>
       </c>
       <c r="H49" t="n">
-        <v>-8717.33353700957</v>
+        <v>-8717.33456848283</v>
       </c>
       <c r="I49" t="n">
-        <v>129691.65130638</v>
+        <v>129691.651672665</v>
       </c>
       <c r="J49" t="n">
-        <v>575428.638270376</v>
+        <v>575428.643649243</v>
       </c>
       <c r="K49" t="s">
         <v>169</v>
@@ -5312,28 +5312,28 @@
         <v>9.499663198153</v>
       </c>
       <c r="C50" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
       <c r="D50" t="n">
-        <v>160874.577700893</v>
+        <v>160874.580230101</v>
       </c>
       <c r="E50" t="n">
-        <v>634087.04197393</v>
+        <v>634087.051422609</v>
       </c>
       <c r="F50" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G50" t="n">
-        <v>-42503.0907087032</v>
+        <v>-42503.1001573815</v>
       </c>
       <c r="H50" t="n">
-        <v>-9129.66119176237</v>
+        <v>-9129.66194336004</v>
       </c>
       <c r="I50" t="n">
-        <v>151744.916509131</v>
+        <v>151744.918286741</v>
       </c>
       <c r="J50" t="n">
-        <v>591596.507143071</v>
+        <v>591596.512584438</v>
       </c>
       <c r="K50" t="s">
         <v>146</v>
@@ -5347,28 +5347,28 @@
         <v>8.76045624743491</v>
       </c>
       <c r="C51" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
       <c r="D51" t="n">
-        <v>151753.326887829</v>
+        <v>151753.328769475</v>
       </c>
       <c r="E51" t="n">
-        <v>634087.04197393</v>
+        <v>634087.051422609</v>
       </c>
       <c r="F51" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G51" t="n">
-        <v>-42503.0907087032</v>
+        <v>-42503.1001573815</v>
       </c>
       <c r="H51" t="n">
-        <v>-9891.78126004453</v>
+        <v>-9891.78199978395</v>
       </c>
       <c r="I51" t="n">
-        <v>141861.545627785</v>
+        <v>141861.546769691</v>
       </c>
       <c r="J51" t="n">
-        <v>591596.507143071</v>
+        <v>591596.512584438</v>
       </c>
       <c r="K51" t="s">
         <v>147</v>
@@ -5382,28 +5382,28 @@
         <v>9.09525438078848</v>
       </c>
       <c r="C52" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
       <c r="D52" t="n">
-        <v>155884.480880763</v>
+        <v>155884.4830557</v>
       </c>
       <c r="E52" t="n">
-        <v>634087.04197393</v>
+        <v>634087.051422609</v>
       </c>
       <c r="F52" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G52" t="n">
-        <v>-42503.0907087032</v>
+        <v>-42503.1001573815</v>
       </c>
       <c r="H52" t="n">
-        <v>-11003.693741856</v>
+        <v>-11003.6947377546</v>
       </c>
       <c r="I52" t="n">
-        <v>144880.787138907</v>
+        <v>144880.788317945</v>
       </c>
       <c r="J52" t="n">
-        <v>591596.507143071</v>
+        <v>591596.512584438</v>
       </c>
       <c r="K52" t="s">
         <v>148</v>
@@ -5417,28 +5417,28 @@
         <v>9.88056829458249</v>
       </c>
       <c r="C53" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
       <c r="D53" t="n">
-        <v>165574.656504445</v>
+        <v>165574.659367333</v>
       </c>
       <c r="E53" t="n">
-        <v>634087.04197393</v>
+        <v>634087.051422609</v>
       </c>
       <c r="F53" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G53" t="n">
-        <v>-42503.0907087032</v>
+        <v>-42503.1001573815</v>
       </c>
       <c r="H53" t="n">
-        <v>-12465.3986371969</v>
+        <v>-12465.4001572719</v>
       </c>
       <c r="I53" t="n">
-        <v>153109.257867248</v>
+        <v>153109.259210061</v>
       </c>
       <c r="J53" t="n">
-        <v>591596.507143071</v>
+        <v>591596.512584438</v>
       </c>
       <c r="K53" t="s">
         <v>149</v>
@@ -5452,28 +5452,28 @@
         <v>12.0589251293415</v>
       </c>
       <c r="C54" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
       <c r="D54" t="n">
-        <v>189307.522313825</v>
+        <v>189307.526755193</v>
       </c>
       <c r="E54" t="n">
-        <v>698656.909915615</v>
+        <v>698656.923522695</v>
       </c>
       <c r="F54" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G54" t="n">
-        <v>-62088.2732646615</v>
+        <v>-62088.2868717412</v>
       </c>
       <c r="H54" t="n">
-        <v>-14276.8959460671</v>
+        <v>-14276.8982583359</v>
       </c>
       <c r="I54" t="n">
-        <v>175030.626367758</v>
+        <v>175030.628496857</v>
       </c>
       <c r="J54" t="n">
-        <v>636582.003466889</v>
+        <v>636582.009248914</v>
       </c>
       <c r="K54" t="s">
         <v>150</v>
@@ -5487,28 +5487,28 @@
         <v>10.999062816302</v>
       </c>
       <c r="C55" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
       <c r="D55" t="n">
-        <v>176229.628531635</v>
+        <v>176229.63204454</v>
       </c>
       <c r="E55" t="n">
-        <v>698656.909915615</v>
+        <v>698656.923522695</v>
       </c>
       <c r="F55" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G55" t="n">
-        <v>-62088.2732646615</v>
+        <v>-62088.2868717412</v>
       </c>
       <c r="H55" t="n">
-        <v>-15498.227136061</v>
+        <v>-15498.2296228052</v>
       </c>
       <c r="I55" t="n">
-        <v>160731.401395574</v>
+        <v>160731.402421735</v>
       </c>
       <c r="J55" t="n">
-        <v>636582.003466889</v>
+        <v>636582.009248914</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
@@ -5522,28 +5522,28 @@
         <v>10.9825151781621</v>
       </c>
       <c r="C56" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
       <c r="D56" t="n">
-        <v>176025.443279195</v>
+        <v>176025.446777604</v>
       </c>
       <c r="E56" t="n">
-        <v>698656.909915615</v>
+        <v>698656.923522695</v>
       </c>
       <c r="F56" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G56" t="n">
-        <v>-62088.2732646615</v>
+        <v>-62088.2868717412</v>
       </c>
       <c r="H56" t="n">
-        <v>-16129.3922071785</v>
+        <v>-16129.3942506798</v>
       </c>
       <c r="I56" t="n">
-        <v>159896.051072016</v>
+        <v>159896.052526924</v>
       </c>
       <c r="J56" t="n">
-        <v>636582.003466889</v>
+        <v>636582.009248914</v>
       </c>
       <c r="K56" t="s">
         <v>152</v>
@@ -5557,28 +5557,28 @@
         <v>9.44829346767149</v>
       </c>
       <c r="C57" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
       <c r="D57" t="n">
-        <v>157094.315790961</v>
+        <v>157094.317945358</v>
       </c>
       <c r="E57" t="n">
-        <v>698656.909915615</v>
+        <v>698656.923522695</v>
       </c>
       <c r="F57" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G57" t="n">
-        <v>-62088.2732646615</v>
+        <v>-62088.2868717412</v>
       </c>
       <c r="H57" t="n">
-        <v>-16170.3911594197</v>
+        <v>-16170.3921419598</v>
       </c>
       <c r="I57" t="n">
-        <v>140923.924631541</v>
+        <v>140923.925803398</v>
       </c>
       <c r="J57" t="n">
-        <v>636582.003466889</v>
+        <v>636582.009248914</v>
       </c>
       <c r="K57" t="s">
         <v>153</v>
@@ -5592,28 +5592,28 @@
         <v>7.06970695262227</v>
       </c>
       <c r="C58" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
       <c r="D58" t="n">
-        <v>120375.576093886</v>
+        <v>120375.575276397</v>
       </c>
       <c r="E58" t="n">
-        <v>597875.456908708</v>
+        <v>597875.461900641</v>
       </c>
       <c r="F58" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G58" t="n">
-        <v>-76985.6992504155</v>
+        <v>-76985.7042423484</v>
       </c>
       <c r="H58" t="n">
-        <v>-15621.2239927846</v>
+        <v>-15621.2232966451</v>
       </c>
       <c r="I58" t="n">
-        <v>104754.352101102</v>
+        <v>104754.351979752</v>
       </c>
       <c r="J58" t="n">
-        <v>520905.023672719</v>
+        <v>520905.030252586</v>
       </c>
       <c r="K58" t="s">
         <v>154</v>
@@ -5627,28 +5627,28 @@
         <v>5.69786921930977</v>
       </c>
       <c r="C59" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
       <c r="D59" t="n">
-        <v>103448.143217054</v>
+        <v>103448.141197803</v>
       </c>
       <c r="E59" t="n">
-        <v>597875.456908708</v>
+        <v>597875.461900641</v>
       </c>
       <c r="F59" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G59" t="n">
-        <v>-76985.6992504155</v>
+        <v>-76985.7042423484</v>
       </c>
       <c r="H59" t="n">
-        <v>-16850.1108526156</v>
+        <v>-16850.1096046667</v>
       </c>
       <c r="I59" t="n">
-        <v>86598.0323644379</v>
+        <v>86598.0315931368</v>
       </c>
       <c r="J59" t="n">
-        <v>520905.023672719</v>
+        <v>520905.030252586</v>
       </c>
       <c r="K59" t="s">
         <v>155</v>
@@ -5662,28 +5662,28 @@
         <v>10.8842771694431</v>
       </c>
       <c r="C60" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
       <c r="D60" t="n">
-        <v>167444.467502264</v>
+        <v>167444.470026422</v>
       </c>
       <c r="E60" t="n">
-        <v>597875.456908708</v>
+        <v>597875.461900641</v>
       </c>
       <c r="F60" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G60" t="n">
-        <v>-76985.6992504155</v>
+        <v>-76985.7042423484</v>
       </c>
       <c r="H60" t="n">
-        <v>-19857.0517389128</v>
+        <v>-19857.0510660244</v>
       </c>
       <c r="I60" t="n">
-        <v>147587.415763351</v>
+        <v>147587.418960398</v>
       </c>
       <c r="J60" t="n">
-        <v>520905.023672719</v>
+        <v>520905.030252586</v>
       </c>
       <c r="K60" t="s">
         <v>156</v>
@@ -5697,28 +5697,28 @@
         <v>14.0581199328785</v>
       </c>
       <c r="C61" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
       <c r="D61" t="n">
-        <v>206607.270095504</v>
+        <v>206607.275400018</v>
       </c>
       <c r="E61" t="n">
-        <v>597875.456908708</v>
+        <v>597875.461900641</v>
       </c>
       <c r="F61" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G61" t="n">
-        <v>-76985.6992504155</v>
+        <v>-76985.7042423484</v>
       </c>
       <c r="H61" t="n">
-        <v>-24642.0466516762</v>
+        <v>-24642.0476807185</v>
       </c>
       <c r="I61" t="n">
-        <v>181965.223443828</v>
+        <v>181965.2277193</v>
       </c>
       <c r="J61" t="n">
-        <v>520905.023672719</v>
+        <v>520905.030252586</v>
       </c>
       <c r="K61" t="s">
         <v>157</v>
@@ -5732,28 +5732,28 @@
         <v>16.7131514365444</v>
       </c>
       <c r="C62" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
       <c r="D62" t="n">
-        <v>229204.686368736</v>
+        <v>229204.695664137</v>
       </c>
       <c r="E62" t="n">
-        <v>834096.773736768</v>
+        <v>834096.805045542</v>
       </c>
       <c r="F62" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G62" t="n">
-        <v>-157377.102772105</v>
+        <v>-157377.13408088</v>
       </c>
       <c r="H62" t="n">
-        <v>-31205.0955909058</v>
+        <v>-31205.0994487487</v>
       </c>
       <c r="I62" t="n">
-        <v>197999.59077783</v>
+        <v>197999.596215389</v>
       </c>
       <c r="J62" t="n">
-        <v>676737.55651097</v>
+        <v>676737.564190542</v>
       </c>
       <c r="K62" t="s">
         <v>158</v>
@@ -5767,28 +5767,28 @@
         <v>15.0201154728914</v>
       </c>
       <c r="C63" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
       <c r="D63" t="n">
-        <v>208313.911944854</v>
+        <v>208313.919757119</v>
       </c>
       <c r="E63" t="n">
-        <v>834096.773736768</v>
+        <v>834096.805045542</v>
       </c>
       <c r="F63" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G63" t="n">
-        <v>-157377.102772105</v>
+        <v>-157377.13408088</v>
       </c>
       <c r="H63" t="n">
-        <v>-37084.1986528151</v>
+        <v>-37084.2044619614</v>
       </c>
       <c r="I63" t="n">
-        <v>171229.713292039</v>
+        <v>171229.715295157</v>
       </c>
       <c r="J63" t="n">
-        <v>676737.55651097</v>
+        <v>676737.564190542</v>
       </c>
       <c r="K63" t="s">
         <v>159</v>
@@ -5802,28 +5802,28 @@
         <v>14.7205931675529</v>
       </c>
       <c r="C64" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
       <c r="D64" t="n">
-        <v>204618.034804568</v>
+        <v>204618.042354445</v>
       </c>
       <c r="E64" t="n">
-        <v>834096.773736768</v>
+        <v>834096.805045542</v>
       </c>
       <c r="F64" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G64" t="n">
-        <v>-157377.102772105</v>
+        <v>-157377.13408088</v>
       </c>
       <c r="H64" t="n">
-        <v>-42279.3558374041</v>
+        <v>-42279.3627203565</v>
       </c>
       <c r="I64" t="n">
-        <v>162338.678967164</v>
+        <v>162338.679634088</v>
       </c>
       <c r="J64" t="n">
-        <v>676737.55651097</v>
+        <v>676737.564190542</v>
       </c>
       <c r="K64" t="s">
         <v>160</v>
@@ -5837,28 +5837,28 @@
         <v>13.6947685788558</v>
       </c>
       <c r="C65" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
       <c r="D65" t="n">
-        <v>191960.14061861</v>
+        <v>191960.147269841</v>
       </c>
       <c r="E65" t="n">
-        <v>834096.773736768</v>
+        <v>834096.805045542</v>
       </c>
       <c r="F65" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G65" t="n">
-        <v>-157377.102772105</v>
+        <v>-157377.13408088</v>
       </c>
       <c r="H65" t="n">
-        <v>-46790.5671446727</v>
+        <v>-46790.5742239341</v>
       </c>
       <c r="I65" t="n">
-        <v>145169.573473937</v>
+        <v>145169.573045907</v>
       </c>
       <c r="J65" t="n">
-        <v>676737.55651097</v>
+        <v>676737.564190542</v>
       </c>
       <c r="K65" t="s">
         <v>161</v>
@@ -5872,28 +5872,28 @@
         <v>15.4268195791034</v>
       </c>
       <c r="C66" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
       <c r="D66" t="n">
-        <v>185606.45307506</v>
+        <v>185606.458120077</v>
       </c>
       <c r="E66" t="n">
-        <v>907804.468473542</v>
+        <v>907804.500394636</v>
       </c>
       <c r="F66" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G66" t="n">
-        <v>-132601.97848698</v>
+        <v>-132602.010408074</v>
       </c>
       <c r="H66" t="n">
-        <v>-50617.8325746211</v>
+        <v>-50617.8389726941</v>
       </c>
       <c r="I66" t="n">
-        <v>134988.620500439</v>
+        <v>134988.619147383</v>
       </c>
       <c r="J66" t="n">
-        <v>775227.521471324</v>
+        <v>775227.532152804</v>
       </c>
       <c r="K66" t="s">
         <v>162</v>
@@ -5907,28 +5907,28 @@
         <v>19.3157381050926</v>
       </c>
       <c r="C67" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
       <c r="D67" t="n">
-        <v>233592.745997037</v>
+        <v>233592.754448832</v>
       </c>
       <c r="E67" t="n">
-        <v>907804.468473542</v>
+        <v>907804.500394636</v>
       </c>
       <c r="F67" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G67" t="n">
-        <v>-132601.97848698</v>
+        <v>-132602.010408074</v>
       </c>
       <c r="H67" t="n">
-        <v>-45159.3004169737</v>
+        <v>-45159.3061073037</v>
       </c>
       <c r="I67" t="n">
-        <v>188433.445580064</v>
+        <v>188433.448341529</v>
       </c>
       <c r="J67" t="n">
-        <v>775227.521471324</v>
+        <v>775227.532152804</v>
       </c>
       <c r="K67" t="s">
         <v>163</v>
@@ -5942,28 +5942,28 @@
         <v>17.4208649420682</v>
       </c>
       <c r="C68" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
       <c r="D68" t="n">
-        <v>210211.454246331</v>
+        <v>210211.461038175</v>
       </c>
       <c r="E68" t="n">
-        <v>907804.468473542</v>
+        <v>907804.500394636</v>
       </c>
       <c r="F68" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G68" t="n">
-        <v>-132601.97848698</v>
+        <v>-132602.010408074</v>
       </c>
       <c r="H68" t="n">
-        <v>-30414.9706717307</v>
+        <v>-30414.9756277628</v>
       </c>
       <c r="I68" t="n">
-        <v>179796.4835746</v>
+        <v>179796.485410412</v>
       </c>
       <c r="J68" t="n">
-        <v>775227.521471324</v>
+        <v>775227.532152804</v>
       </c>
       <c r="K68" t="s">
         <v>164</v>
@@ -5977,28 +5977,28 @@
         <v>22.9465188390045</v>
       </c>
       <c r="C69" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
       <c r="D69" t="n">
-        <v>278393.815155113</v>
+        <v>278393.826787552</v>
       </c>
       <c r="E69" t="n">
-        <v>907804.468473542</v>
+        <v>907804.500394636</v>
       </c>
       <c r="F69" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G69" t="n">
-        <v>-132601.97848698</v>
+        <v>-132602.010408074</v>
       </c>
       <c r="H69" t="n">
-        <v>-6384.84333889192</v>
+        <v>-6384.8475340715</v>
       </c>
       <c r="I69" t="n">
-        <v>272008.971816221</v>
+        <v>272008.979253481</v>
       </c>
       <c r="J69" t="n">
-        <v>775227.521471324</v>
+        <v>775227.532152804</v>
       </c>
       <c r="K69" t="s">
         <v>165</v>
@@ -6012,28 +6012,28 @@
         <v>18.9177240989619</v>
       </c>
       <c r="C70" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
       <c r="D70" t="n">
-        <v>208953.642723028</v>
+        <v>208953.648805225</v>
       </c>
       <c r="E70" t="n">
-        <v>884475.311518038</v>
+        <v>884475.339301488</v>
       </c>
       <c r="F70" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G70" t="n">
-        <v>124885.519638013</v>
+        <v>124885.491854563</v>
       </c>
       <c r="H70" t="n">
-        <v>26931.0815815425</v>
+        <v>26931.0781737702</v>
       </c>
       <c r="I70" t="n">
-        <v>235884.72430457</v>
+        <v>235884.726978995</v>
       </c>
       <c r="J70" t="n">
-        <v>1009390.94722126</v>
+        <v>1009390.96003865</v>
       </c>
       <c r="K70" t="s">
         <v>166</v>
@@ -6047,28 +6047,28 @@
         <v>19.2294986424461</v>
       </c>
       <c r="C71" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
       <c r="D71" t="n">
-        <v>212800.703151079</v>
+        <v>212800.709506397</v>
       </c>
       <c r="E71" t="n">
-        <v>884475.311518038</v>
+        <v>884475.339301488</v>
       </c>
       <c r="F71" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G71" t="n">
-        <v>124885.519638013</v>
+        <v>124885.491854563</v>
       </c>
       <c r="H71" t="n">
-        <v>41976.5824874213</v>
+        <v>41976.5792611147</v>
       </c>
       <c r="I71" t="n">
-        <v>254777.2856385</v>
+        <v>254777.288767512</v>
       </c>
       <c r="J71" t="n">
-        <v>1009390.94722126</v>
+        <v>1009390.96003865</v>
       </c>
       <c r="K71" t="s">
         <v>167</v>
@@ -6082,28 +6082,28 @@
         <v>20.0609197134899</v>
       </c>
       <c r="C72" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
       <c r="D72" t="n">
-        <v>223059.805981335</v>
+        <v>223059.813064997</v>
       </c>
       <c r="E72" t="n">
-        <v>884475.311518038</v>
+        <v>884475.339301488</v>
       </c>
       <c r="F72" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G72" t="n">
-        <v>124885.519638013</v>
+        <v>124885.491854563</v>
       </c>
       <c r="H72" t="n">
-        <v>38751.6593787443</v>
+        <v>38751.655727962</v>
       </c>
       <c r="I72" t="n">
-        <v>261811.465360079</v>
+        <v>261811.468792959</v>
       </c>
       <c r="J72" t="n">
-        <v>1009390.94722126</v>
+        <v>1009390.96003865</v>
       </c>
       <c r="K72" t="s">
         <v>168</v>
@@ -6117,28 +6117,28 @@
         <v>21.4063312457483</v>
       </c>
       <c r="C73" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
       <c r="D73" t="n">
-        <v>239661.159662597</v>
+        <v>239661.167924869</v>
       </c>
       <c r="E73" t="n">
-        <v>884475.311518038</v>
+        <v>884475.339301488</v>
       </c>
       <c r="F73" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G73" t="n">
-        <v>124885.519638013</v>
+        <v>124885.491854563</v>
       </c>
       <c r="H73" t="n">
-        <v>17256.3122555116</v>
+        <v>17256.3075743121</v>
       </c>
       <c r="I73" t="n">
-        <v>256917.471918108</v>
+        <v>256917.475499181</v>
       </c>
       <c r="J73" t="n">
-        <v>1009390.94722126</v>
+        <v>1009390.96003865</v>
       </c>
       <c r="K73" t="s">
         <v>169</v>
@@ -6152,28 +6152,28 @@
         <v>22.9332960748977</v>
       </c>
       <c r="C74" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
       <c r="D74" t="n">
-        <v>299405.968012687</v>
+        <v>299405.974674508</v>
       </c>
       <c r="E74" t="n">
-        <v>1299630.08202424</v>
+        <v>1299630.11591343</v>
       </c>
       <c r="F74" t="n">
         <v>1219523</v>
       </c>
       <c r="G74" t="n">
-        <v>-80107.0820242353</v>
+        <v>-80107.1159134326</v>
       </c>
       <c r="H74" t="n">
-        <v>-22509.4588822768</v>
+        <v>-22509.465199835</v>
       </c>
       <c r="I74" t="n">
-        <v>276896.509130411</v>
+        <v>276896.509474673</v>
       </c>
       <c r="J74" t="n">
-        <v>1219542.57385867</v>
+        <v>1219542.58224937</v>
       </c>
       <c r="K74" t="s">
         <v>146</v>
@@ -6187,28 +6187,28 @@
         <v>27.4605973462161</v>
       </c>
       <c r="C75" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
       <c r="D75" t="n">
-        <v>355269.41783805</v>
+        <v>355269.428465887</v>
       </c>
       <c r="E75" t="n">
-        <v>1299630.08202424</v>
+        <v>1299630.11591343</v>
       </c>
       <c r="F75" t="n">
         <v>1219523</v>
       </c>
       <c r="G75" t="n">
-        <v>-80107.0820242353</v>
+        <v>-80107.1159134326</v>
       </c>
       <c r="H75" t="n">
-        <v>-37420.7346010379</v>
+        <v>-37420.741595966</v>
       </c>
       <c r="I75" t="n">
-        <v>317848.683237012</v>
+        <v>317848.686869921</v>
       </c>
       <c r="J75" t="n">
-        <v>1219542.57385867</v>
+        <v>1219542.58224937</v>
       </c>
       <c r="K75" t="s">
         <v>147</v>
@@ -6222,28 +6222,28 @@
         <v>24.8195973535314</v>
       </c>
       <c r="C76" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
       <c r="D76" t="n">
-        <v>322681.489238114</v>
+        <v>322681.497552377</v>
       </c>
       <c r="E76" t="n">
-        <v>1299630.08202424</v>
+        <v>1299630.11591343</v>
       </c>
       <c r="F76" t="n">
         <v>1219523</v>
       </c>
       <c r="G76" t="n">
-        <v>-80107.0820242353</v>
+        <v>-80107.1159134326</v>
       </c>
       <c r="H76" t="n">
-        <v>-27477.5149007719</v>
+        <v>-27477.5216140808</v>
       </c>
       <c r="I76" t="n">
-        <v>295203.974337342</v>
+        <v>295203.975938296</v>
       </c>
       <c r="J76" t="n">
-        <v>1219542.57385867</v>
+        <v>1219542.58224937</v>
       </c>
       <c r="K76" t="s">
         <v>148</v>
@@ -6257,28 +6257,28 @@
         <v>24.7865092253548</v>
       </c>
       <c r="C77" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
       <c r="D77" t="n">
-        <v>322273.206935384</v>
+        <v>322273.21522066</v>
       </c>
       <c r="E77" t="n">
-        <v>1299630.08202424</v>
+        <v>1299630.11591343</v>
       </c>
       <c r="F77" t="n">
         <v>1219523</v>
       </c>
       <c r="G77" t="n">
-        <v>-80107.0820242353</v>
+        <v>-80107.1159134326</v>
       </c>
       <c r="H77" t="n">
-        <v>7320.20021852135</v>
+        <v>7320.19474582061</v>
       </c>
       <c r="I77" t="n">
-        <v>329593.407153905</v>
+        <v>329593.409966481</v>
       </c>
       <c r="J77" t="n">
-        <v>1219542.57385867</v>
+        <v>1219542.58224937</v>
       </c>
       <c r="K77" t="s">
         <v>149</v>
@@ -6292,28 +6292,28 @@
         <v>25.5697122982907</v>
       </c>
       <c r="C78" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
       <c r="D78" t="n">
-        <v>322459.216730954</v>
+        <v>322459.222083255</v>
       </c>
       <c r="E78" t="n">
-        <v>1223961.82625535</v>
+        <v>1223961.84298777</v>
       </c>
       <c r="F78" t="n">
         <v>1637588</v>
       </c>
       <c r="G78" t="n">
-        <v>413626.173744647</v>
+        <v>413626.157012233</v>
       </c>
       <c r="H78" t="n">
-        <v>66972.4107568418</v>
+        <v>66972.4074837382</v>
       </c>
       <c r="I78" t="n">
-        <v>389431.627487796</v>
+        <v>389431.629566993</v>
       </c>
       <c r="J78" t="n">
-        <v>1637610.01670503</v>
+        <v>1637610.0261226</v>
       </c>
       <c r="K78" t="s">
         <v>150</v>
@@ -6327,28 +6327,28 @@
         <v>25.117741323994</v>
       </c>
       <c r="C79" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
       <c r="D79" t="n">
-        <v>316882.239116254</v>
+        <v>316882.244072618</v>
       </c>
       <c r="E79" t="n">
-        <v>1223961.82625535</v>
+        <v>1223961.84298777</v>
       </c>
       <c r="F79" t="n">
         <v>1637588</v>
       </c>
       <c r="G79" t="n">
-        <v>413626.173744647</v>
+        <v>413626.157012233</v>
       </c>
       <c r="H79" t="n">
-        <v>105409.149714401</v>
+        <v>105409.147898893</v>
       </c>
       <c r="I79" t="n">
-        <v>422291.388830656</v>
+        <v>422291.391971511</v>
       </c>
       <c r="J79" t="n">
-        <v>1637610.01670503</v>
+        <v>1637610.0261226</v>
       </c>
       <c r="K79" t="s">
         <v>151</v>
@@ -6362,28 +6362,28 @@
         <v>23.2748447271129</v>
       </c>
       <c r="C80" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
       <c r="D80" t="n">
-        <v>294142.298607895</v>
+        <v>294142.301949841</v>
       </c>
       <c r="E80" t="n">
-        <v>1223961.82625535</v>
+        <v>1223961.84298777</v>
       </c>
       <c r="F80" t="n">
         <v>1637588</v>
       </c>
       <c r="G80" t="n">
-        <v>413626.173744647</v>
+        <v>413626.157012233</v>
       </c>
       <c r="H80" t="n">
-        <v>122630.4170912</v>
+        <v>122630.415991285</v>
       </c>
       <c r="I80" t="n">
-        <v>416772.715699095</v>
+        <v>416772.717941126</v>
       </c>
       <c r="J80" t="n">
-        <v>1637610.01670503</v>
+        <v>1637610.0261226</v>
       </c>
       <c r="K80" t="s">
         <v>152</v>
@@ -6397,28 +6397,28 @@
         <v>22.977887436854</v>
       </c>
       <c r="C81" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
       <c r="D81" t="n">
-        <v>290478.071800249</v>
+        <v>290478.074882054</v>
       </c>
       <c r="E81" t="n">
-        <v>1223961.82625535</v>
+        <v>1223961.84298777</v>
       </c>
       <c r="F81" t="n">
         <v>1637588</v>
       </c>
       <c r="G81" t="n">
-        <v>413626.173744647</v>
+        <v>413626.157012233</v>
       </c>
       <c r="H81" t="n">
-        <v>118636.212887237</v>
+        <v>118636.211760914</v>
       </c>
       <c r="I81" t="n">
-        <v>409114.284687487</v>
+        <v>409114.286642968</v>
       </c>
       <c r="J81" t="n">
-        <v>1637610.01670503</v>
+        <v>1637610.0261226</v>
       </c>
       <c r="K81" t="s">
         <v>153</v>
@@ -6432,28 +6432,28 @@
         <v>25.7050958592039</v>
       </c>
       <c r="C82" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
       <c r="D82" t="n">
-        <v>428536.588775143</v>
+        <v>428536.58966752</v>
       </c>
       <c r="E82" t="n">
-        <v>1766626.35508094</v>
+        <v>1766626.36237626</v>
       </c>
       <c r="F82" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G82" t="n">
-        <v>217922.430752315</v>
+        <v>217922.423456997</v>
       </c>
       <c r="H82" t="n">
-        <v>93426.5371025137</v>
+        <v>93426.5352077807</v>
       </c>
       <c r="I82" t="n">
-        <v>521963.125877657</v>
+        <v>521963.124875301</v>
       </c>
       <c r="J82" t="n">
-        <v>1984543.8932057</v>
+        <v>1984543.89132325</v>
       </c>
       <c r="K82" t="s">
         <v>154</v>
@@ -6467,28 +6467,28 @@
         <v>27.6284805866413</v>
       </c>
       <c r="C83" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
       <c r="D83" t="n">
-        <v>452269.691517117</v>
+        <v>452269.694094422</v>
       </c>
       <c r="E83" t="n">
-        <v>1766626.35508094</v>
+        <v>1766626.36237626</v>
       </c>
       <c r="F83" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G83" t="n">
-        <v>217922.430752315</v>
+        <v>217922.423456997</v>
       </c>
       <c r="H83" t="n">
-        <v>67763.8057600947</v>
+        <v>67763.8033981136</v>
       </c>
       <c r="I83" t="n">
-        <v>520033.497277212</v>
+        <v>520033.497492536</v>
       </c>
       <c r="J83" t="n">
-        <v>1984543.8932057</v>
+        <v>1984543.89132325</v>
       </c>
       <c r="K83" t="s">
         <v>155</v>
@@ -6502,28 +6502,28 @@
         <v>25.0493763241664</v>
       </c>
       <c r="C84" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
       <c r="D84" t="n">
-        <v>420445.509089957</v>
+        <v>420445.50940791</v>
       </c>
       <c r="E84" t="n">
-        <v>1766626.35508094</v>
+        <v>1766626.36237626</v>
       </c>
       <c r="F84" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G84" t="n">
-        <v>217922.430752315</v>
+        <v>217922.423456997</v>
       </c>
       <c r="H84" t="n">
-        <v>41648.0188599803</v>
+        <v>41648.0163319128</v>
       </c>
       <c r="I84" t="n">
-        <v>462093.527949938</v>
+        <v>462093.525739823</v>
       </c>
       <c r="J84" t="n">
-        <v>1984543.8932057</v>
+        <v>1984543.89132325</v>
       </c>
       <c r="K84" t="s">
         <v>156</v>
@@ -6537,28 +6537,28 @@
         <v>28.6905294527306</v>
       </c>
       <c r="C85" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
       <c r="D85" t="n">
-        <v>465374.565698725</v>
+        <v>465374.569206409</v>
       </c>
       <c r="E85" t="n">
-        <v>1766626.35508094</v>
+        <v>1766626.36237626</v>
       </c>
       <c r="F85" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G85" t="n">
-        <v>217922.430752315</v>
+        <v>217922.423456997</v>
       </c>
       <c r="H85" t="n">
-        <v>15079.1764021704</v>
+        <v>15079.1740091785</v>
       </c>
       <c r="I85" t="n">
-        <v>480453.742100896</v>
+        <v>480453.743215587</v>
       </c>
       <c r="J85" t="n">
-        <v>1984543.8932057</v>
+        <v>1984543.89132325</v>
       </c>
       <c r="K85" t="s">
         <v>157</v>
@@ -6572,28 +6572,28 @@
         <v>30.9426742711305</v>
       </c>
       <c r="C86" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
       <c r="D86" t="n">
-        <v>543996.456050016</v>
+        <v>543996.456969286</v>
       </c>
       <c r="E86" t="n">
-        <v>2187063.83380671</v>
+        <v>2187063.83827027</v>
       </c>
       <c r="F86" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G86" t="n">
-        <v>-81175.0088704256</v>
+        <v>-81175.013333986</v>
       </c>
       <c r="H86" t="n">
-        <v>-11942.7216133349</v>
+        <v>-11942.7235700894</v>
       </c>
       <c r="I86" t="n">
-        <v>532053.734436681</v>
+        <v>532053.733399196</v>
       </c>
       <c r="J86" t="n">
-        <v>2105870.8310704</v>
+        <v>2105870.82368695</v>
       </c>
       <c r="K86" t="s">
         <v>158</v>
@@ -6607,28 +6607,28 @@
         <v>33.6577154927094</v>
       </c>
       <c r="C87" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
       <c r="D87" t="n">
-        <v>577497.997026832</v>
+        <v>577498.000324538</v>
       </c>
       <c r="E87" t="n">
-        <v>2187063.83380671</v>
+        <v>2187063.83827027</v>
       </c>
       <c r="F87" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G87" t="n">
-        <v>-81175.0088704256</v>
+        <v>-81175.013333986</v>
       </c>
       <c r="H87" t="n">
-        <v>-26093.6924478339</v>
+        <v>-26093.6946320925</v>
       </c>
       <c r="I87" t="n">
-        <v>551404.304578998</v>
+        <v>551404.305692446</v>
       </c>
       <c r="J87" t="n">
-        <v>2105870.8310704</v>
+        <v>2105870.82368695</v>
       </c>
       <c r="K87" t="s">
         <v>159</v>
@@ -6642,28 +6642,28 @@
         <v>31.8066819569784</v>
       </c>
       <c r="C88" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
       <c r="D88" t="n">
-        <v>554657.652889925</v>
+        <v>554657.654566084</v>
       </c>
       <c r="E88" t="n">
-        <v>2187063.83380671</v>
+        <v>2187063.83827027</v>
       </c>
       <c r="F88" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G88" t="n">
-        <v>-81175.0088704256</v>
+        <v>-81175.013333986</v>
       </c>
       <c r="H88" t="n">
-        <v>-27373.7361013265</v>
+        <v>-27373.7391768308</v>
       </c>
       <c r="I88" t="n">
-        <v>527283.916788598</v>
+        <v>527283.915389253</v>
       </c>
       <c r="J88" t="n">
-        <v>2105870.8310704</v>
+        <v>2105870.82368695</v>
       </c>
       <c r="K88" t="s">
         <v>160</v>
@@ -6677,28 +6677,28 @@
         <v>28.2614125059696</v>
       </c>
       <c r="C89" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
       <c r="D89" t="n">
-        <v>510911.727839934</v>
+        <v>510911.726410359</v>
       </c>
       <c r="E89" t="n">
-        <v>2187063.83380671</v>
+        <v>2187063.83827027</v>
       </c>
       <c r="F89" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G89" t="n">
-        <v>-81175.0088704256</v>
+        <v>-81175.013333986</v>
       </c>
       <c r="H89" t="n">
-        <v>-15782.8525738128</v>
+        <v>-15782.8572043043</v>
       </c>
       <c r="I89" t="n">
-        <v>495128.875266121</v>
+        <v>495128.869206054</v>
       </c>
       <c r="J89" t="n">
-        <v>2105870.8310704</v>
+        <v>2105870.82368695</v>
       </c>
       <c r="K89" t="s">
         <v>161</v>
@@ -6712,28 +6712,28 @@
         <v>30.8225633404867</v>
       </c>
       <c r="C90" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
       <c r="D90" t="n">
-        <v>520578.285708784</v>
+        <v>520578.284083262</v>
       </c>
       <c r="E90" t="n">
-        <v>2463140.51519875</v>
+        <v>2463140.53573344</v>
       </c>
       <c r="F90" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G90" t="n">
-        <v>143405.130663966</v>
+        <v>143405.110129279</v>
       </c>
       <c r="H90" t="n">
-        <v>8678.95813470725</v>
+        <v>8678.951285487</v>
       </c>
       <c r="I90" t="n">
-        <v>529257.243843491</v>
+        <v>529257.235368749</v>
       </c>
       <c r="J90" t="n">
-        <v>2606533.30570314</v>
+        <v>2606533.30069472</v>
       </c>
       <c r="K90" t="s">
         <v>162</v>
@@ -6747,28 +6747,28 @@
         <v>38.4894445516996</v>
       </c>
       <c r="C91" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
       <c r="D91" t="n">
-        <v>615181.760978475</v>
+        <v>615181.76606931</v>
       </c>
       <c r="E91" t="n">
-        <v>2463140.51519875</v>
+        <v>2463140.53573344</v>
       </c>
       <c r="F91" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G91" t="n">
-        <v>143405.130663966</v>
+        <v>143405.110129279</v>
       </c>
       <c r="H91" t="n">
-        <v>29331.3782146706</v>
+        <v>29331.3706633369</v>
       </c>
       <c r="I91" t="n">
-        <v>644513.139193145</v>
+        <v>644513.136732647</v>
       </c>
       <c r="J91" t="n">
-        <v>2606533.30570314</v>
+        <v>2606533.30069472</v>
       </c>
       <c r="K91" t="s">
         <v>163</v>
@@ -6782,28 +6782,28 @@
         <v>36.743249301837</v>
       </c>
       <c r="C92" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
       <c r="D92" t="n">
-        <v>593635.041447353</v>
+        <v>593635.045008483</v>
       </c>
       <c r="E92" t="n">
-        <v>2463140.51519875</v>
+        <v>2463140.53573344</v>
       </c>
       <c r="F92" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G92" t="n">
-        <v>143405.130663966</v>
+        <v>143405.110129279</v>
       </c>
       <c r="H92" t="n">
-        <v>46174.4076660773</v>
+        <v>46174.4009292453</v>
       </c>
       <c r="I92" t="n">
-        <v>639809.449113431</v>
+        <v>639809.445937729</v>
       </c>
       <c r="J92" t="n">
-        <v>2606533.30570314</v>
+        <v>2606533.30069472</v>
       </c>
       <c r="K92" t="s">
         <v>164</v>
@@ -6817,28 +6817,28 @@
         <v>48.0981142253385</v>
       </c>
       <c r="C93" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
       <c r="D93" t="n">
-        <v>733745.427064143</v>
+        <v>733745.440572386</v>
       </c>
       <c r="E93" t="n">
-        <v>2463140.51519875</v>
+        <v>2463140.53573344</v>
       </c>
       <c r="F93" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G93" t="n">
-        <v>143405.130663966</v>
+        <v>143405.110129279</v>
       </c>
       <c r="H93" t="n">
-        <v>59208.0464889274</v>
+        <v>59208.0420832122</v>
       </c>
       <c r="I93" t="n">
-        <v>792953.47355307</v>
+        <v>792953.482655598</v>
       </c>
       <c r="J93" t="n">
-        <v>2606533.30570314</v>
+        <v>2606533.30069472</v>
       </c>
       <c r="K93" t="s">
         <v>165</v>
@@ -6852,28 +6852,28 @@
         <v>35.9047478439183</v>
       </c>
       <c r="C94" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
       <c r="D94" t="n">
-        <v>614631.132769217</v>
+        <v>614631.128120746</v>
       </c>
       <c r="E94" t="n">
-        <v>2443871.19072723</v>
+        <v>2443871.17109303</v>
       </c>
       <c r="F94" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G94" t="n">
-        <v>306034.46565794</v>
+        <v>306034.485292137</v>
       </c>
       <c r="H94" t="n">
-        <v>68432.2946832207</v>
+        <v>68432.2941252377</v>
       </c>
       <c r="I94" t="n">
-        <v>683063.427452438</v>
+        <v>683063.422245984</v>
       </c>
       <c r="J94" t="n">
-        <v>2749885.23814014</v>
+        <v>2749885.22974107</v>
       </c>
       <c r="K94" t="s">
         <v>166</v>
@@ -6887,28 +6887,28 @@
         <v>35.6089180232297</v>
       </c>
       <c r="C95" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
       <c r="D95" t="n">
-        <v>610980.818077421</v>
+        <v>610980.813169796</v>
       </c>
       <c r="E95" t="n">
-        <v>2443871.19072723</v>
+        <v>2443871.17109303</v>
       </c>
       <c r="F95" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G95" t="n">
-        <v>306034.46565794</v>
+        <v>306034.485292137</v>
       </c>
       <c r="H95" t="n">
-        <v>75350.4808289407</v>
+        <v>75350.4831567568</v>
       </c>
       <c r="I95" t="n">
-        <v>686331.298906361</v>
+        <v>686331.296326553</v>
       </c>
       <c r="J95" t="n">
-        <v>2749885.23814014</v>
+        <v>2749885.22974107</v>
       </c>
       <c r="K95" t="s">
         <v>167</v>
@@ -6922,28 +6922,28 @@
         <v>37.7411349899931</v>
       </c>
       <c r="C96" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
       <c r="D96" t="n">
-        <v>637290.751612037</v>
+        <v>637290.748572282</v>
       </c>
       <c r="E96" t="n">
-        <v>2443871.19072723</v>
+        <v>2443871.17109303</v>
       </c>
       <c r="F96" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G96" t="n">
-        <v>306034.46565794</v>
+        <v>306034.485292137</v>
       </c>
       <c r="H96" t="n">
-        <v>79962.6049260874</v>
+        <v>79962.6091777695</v>
       </c>
       <c r="I96" t="n">
-        <v>717253.356538125</v>
+        <v>717253.357750051</v>
       </c>
       <c r="J96" t="n">
-        <v>2749885.23814014</v>
+        <v>2749885.22974107</v>
       </c>
       <c r="K96" t="s">
         <v>168</v>
@@ -6957,28 +6957,28 @@
         <v>33.1766504256562</v>
       </c>
       <c r="C97" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
       <c r="D97" t="n">
-        <v>580968.488268554</v>
+        <v>580968.481230209</v>
       </c>
       <c r="E97" t="n">
-        <v>2443871.19072723</v>
+        <v>2443871.17109303</v>
       </c>
       <c r="F97" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G97" t="n">
-        <v>306034.46565794</v>
+        <v>306034.485292137</v>
       </c>
       <c r="H97" t="n">
-        <v>82268.6669746607</v>
+        <v>82268.6721882759</v>
       </c>
       <c r="I97" t="n">
-        <v>663237.155243215</v>
+        <v>663237.153418485</v>
       </c>
       <c r="J97" t="n">
-        <v>2749885.23814014</v>
+        <v>2749885.22974107</v>
       </c>
       <c r="K97" t="s">
         <v>169</v>
@@ -7017,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>218352.991472004</v>
+        <v>218352.994483535</v>
       </c>
       <c r="C2" t="n">
         <v>8.16221959350705</v>
       </c>
       <c r="D2" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7031,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>193399.19992017</v>
+        <v>193399.200511737</v>
       </c>
       <c r="C3" t="n">
         <v>6.25866308053367</v>
       </c>
       <c r="D3" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7045,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>188689.065072003</v>
+        <v>188689.064032429</v>
       </c>
       <c r="C4" t="n">
         <v>6.11445425379326</v>
       </c>
       <c r="D4" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7059,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>194621.459521736</v>
+        <v>194621.456958213</v>
       </c>
       <c r="C5" t="n">
         <v>6.95149586998813</v>
       </c>
       <c r="D5" t="n">
-        <v>-21730.8986447632</v>
+        <v>-21730.8128617054</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7073,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212075.74973505</v>
+        <v>212075.750695607</v>
       </c>
       <c r="C6" t="n">
         <v>9.05536868764681</v>
       </c>
       <c r="D6" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7087,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>214001.263189716</v>
+        <v>214001.262447886</v>
       </c>
       <c r="C7" t="n">
         <v>9.46860971902752</v>
       </c>
       <c r="D7" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7101,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>221718.413578879</v>
+        <v>221718.412300243</v>
       </c>
       <c r="C8" t="n">
         <v>10.1333887695095</v>
       </c>
       <c r="D8" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7115,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>227689.43103729</v>
+        <v>227689.429852284</v>
       </c>
       <c r="C9" t="n">
         <v>10.438827792704</v>
       </c>
       <c r="D9" t="n">
-        <v>-33276.2159123197</v>
+        <v>-33276.110224882</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7129,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>210430.231162825</v>
+        <v>210430.228584394</v>
       </c>
       <c r="C10" t="n">
         <v>9.80998274495072</v>
       </c>
       <c r="D10" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7143,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>207768.952123831</v>
+        <v>207768.950075265</v>
       </c>
       <c r="C11" t="n">
         <v>9.4865767203919</v>
       </c>
       <c r="D11" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7157,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>211966.854566588</v>
+        <v>211966.853829529</v>
       </c>
       <c r="C12" t="n">
         <v>10.0076197599589</v>
       </c>
       <c r="D12" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7171,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>269802.451478393</v>
+        <v>269802.45615552</v>
       </c>
       <c r="C13" t="n">
         <v>15.1641491515355</v>
       </c>
       <c r="D13" t="n">
-        <v>-96099.0149628073</v>
+        <v>-96098.9194454278</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7185,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>184807.14173332</v>
+        <v>184807.142057229</v>
       </c>
       <c r="C14" t="n">
         <v>9.80998274495072</v>
       </c>
       <c r="D14" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7199,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>210068.797549646</v>
+        <v>210068.800485523</v>
       </c>
       <c r="C15" t="n">
         <v>12.1277259209556</v>
       </c>
       <c r="D15" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7213,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>153774.499188804</v>
+        <v>153774.498162286</v>
       </c>
       <c r="C16" t="n">
         <v>7.34850355803085</v>
       </c>
       <c r="D16" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7227,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>152269.201566382</v>
+        <v>152269.199682891</v>
       </c>
       <c r="C17" t="n">
         <v>6.52202149526943</v>
       </c>
       <c r="D17" t="n">
-        <v>-137907.126901051</v>
+        <v>-137907.03608978</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7241,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>138544.31054461</v>
+        <v>138544.310439398</v>
       </c>
       <c r="C18" t="n">
         <v>5.92911045024494</v>
       </c>
       <c r="D18" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7255,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>170717.342218728</v>
+        <v>170717.343208284</v>
       </c>
       <c r="C19" t="n">
         <v>7.7258105866828</v>
       </c>
       <c r="D19" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7269,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>175350.428154135</v>
+        <v>175350.428628331</v>
       </c>
       <c r="C20" t="n">
         <v>7.67190958258966</v>
       </c>
       <c r="D20" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7283,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>193679.603496032</v>
+        <v>193679.604772285</v>
       </c>
       <c r="C21" t="n">
         <v>9.10926969173995</v>
       </c>
       <c r="D21" t="n">
-        <v>-230099.471536485</v>
+        <v>-230099.373138779</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7297,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>189368.952722533</v>
+        <v>189368.953409359</v>
       </c>
       <c r="C22" t="n">
         <v>8.28278762897853</v>
       </c>
       <c r="D22" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7311,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>211257.540061521</v>
+        <v>211257.542477669</v>
       </c>
       <c r="C23" t="n">
         <v>10.4927287967971</v>
       </c>
       <c r="D23" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7325,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>180664.919277488</v>
+        <v>180664.920026563</v>
       </c>
       <c r="C24" t="n">
         <v>8.55229264944421</v>
       </c>
       <c r="D24" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7339,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>125968.576921972</v>
+        <v>125968.574622233</v>
       </c>
       <c r="C25" t="n">
         <v>4.76125536156033</v>
       </c>
       <c r="D25" t="n">
-        <v>-186444.834735212</v>
+        <v>-186444.731631398</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>142467.864130946</v>
+        <v>142467.863597628</v>
       </c>
       <c r="C26" t="n">
         <v>6.68372450754884</v>
       </c>
       <c r="D26" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7367,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>147271.935950223</v>
+        <v>147271.936368657</v>
       </c>
       <c r="C27" t="n">
         <v>7.4742725675815</v>
       </c>
       <c r="D27" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7381,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>166066.621819039</v>
+        <v>166066.62362933</v>
       </c>
       <c r="C28" t="n">
         <v>9.05536868764681</v>
       </c>
       <c r="D28" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7395,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>142540.346861687</v>
+        <v>142540.34650611</v>
       </c>
       <c r="C29" t="n">
         <v>6.86339452119263</v>
       </c>
       <c r="D29" t="n">
-        <v>-177870.271477137</v>
+        <v>-177870.169821356</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>136580.416279319</v>
+        <v>136580.417180749</v>
       </c>
       <c r="C30" t="n">
         <v>7.31256955530209</v>
       </c>
       <c r="D30" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7423,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>164751.454989819</v>
+        <v>164751.457232067</v>
       </c>
       <c r="C31" t="n">
         <v>9.14520369446871</v>
       </c>
       <c r="D31" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7437,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>149487.317710332</v>
+        <v>149487.318599326</v>
       </c>
       <c r="C32" t="n">
         <v>7.63597557986091</v>
       </c>
       <c r="D32" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7451,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>126703.260857645</v>
+        <v>126703.260249112</v>
       </c>
       <c r="C33" t="n">
         <v>5.69553943250802</v>
       </c>
       <c r="D33" t="n">
-        <v>-261952.684767703</v>
+        <v>-261952.5813491</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7465,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>144697.291339293</v>
+        <v>144697.293053451</v>
       </c>
       <c r="C34" t="n">
         <v>7.55888211528903</v>
       </c>
       <c r="D34" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7479,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>147441.464705337</v>
+        <v>147441.466843315</v>
       </c>
       <c r="C35" t="n">
         <v>7.91197868468834</v>
       </c>
       <c r="D35" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7493,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>123309.537299512</v>
+        <v>123309.537672618</v>
       </c>
       <c r="C36" t="n">
         <v>6.13341818697328</v>
       </c>
       <c r="D36" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7507,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>117484.619206595</v>
+        <v>117484.618833904</v>
       </c>
       <c r="C37" t="n">
         <v>5.88494282332191</v>
       </c>
       <c r="D37" t="n">
-        <v>-279234.781670143</v>
+        <v>-279234.677999707</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7521,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>136701.891598141</v>
+        <v>136701.892886654</v>
       </c>
       <c r="C38" t="n">
         <v>8.01328260851286</v>
       </c>
       <c r="D38" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7535,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>146003.677383264</v>
+        <v>146003.678951875</v>
       </c>
       <c r="C39" t="n">
         <v>8.88108877441235</v>
       </c>
       <c r="D39" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7549,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>128055.575711463</v>
+        <v>128055.575858172</v>
       </c>
       <c r="C40" t="n">
         <v>7.3844375607596</v>
       </c>
       <c r="D40" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7563,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>142405.968518228</v>
+        <v>142405.969768662</v>
       </c>
       <c r="C41" t="n">
         <v>8.34926553402674</v>
       </c>
       <c r="D41" t="n">
-        <v>-295444.270851882</v>
+        <v>-295444.165166537</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7577,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>132999.497385578</v>
+        <v>132999.498448545</v>
       </c>
       <c r="C42" t="n">
         <v>8.03419698692758</v>
       </c>
       <c r="D42" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>130119.529646335</v>
+        <v>130119.530645679</v>
       </c>
       <c r="C43" t="n">
         <v>7.55431349246636</v>
       </c>
       <c r="D43" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7605,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>137056.440578133</v>
+        <v>137056.442034116</v>
       </c>
       <c r="C44" t="n">
         <v>7.97775283468964</v>
       </c>
       <c r="D44" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7619,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>144988.428819019</v>
+        <v>144988.430625603</v>
       </c>
       <c r="C45" t="n">
         <v>8.58957612876056</v>
       </c>
       <c r="D45" t="n">
-        <v>-338620.555430547</v>
+        <v>-338620.45424695</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7633,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>159404.780543058</v>
+        <v>159404.78313892</v>
       </c>
       <c r="C46" t="n">
         <v>9.87509152195869</v>
       </c>
       <c r="D46" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7647,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>150827.400163904</v>
+        <v>150827.401936192</v>
       </c>
       <c r="C47" t="n">
         <v>9.24586819727895</v>
       </c>
       <c r="D47" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7661,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>135504.806257034</v>
+        <v>135504.806901465</v>
       </c>
       <c r="C48" t="n">
         <v>8.0591670131493</v>
       </c>
       <c r="D48" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7675,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>129691.65130638</v>
+        <v>129691.651672665</v>
       </c>
       <c r="C49" t="n">
         <v>7.63230204675969</v>
       </c>
       <c r="D49" t="n">
-        <v>-340799.300430472</v>
+        <v>-340799.198833188</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7689,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>151744.916509131</v>
+        <v>151744.918286741</v>
       </c>
       <c r="C50" t="n">
         <v>9.499663198153</v>
       </c>
       <c r="D50" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +7703,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>141861.545627785</v>
+        <v>141861.546769691</v>
       </c>
       <c r="C51" t="n">
         <v>8.76045624743491</v>
       </c>
       <c r="D51" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +7717,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>144880.787138907</v>
+        <v>144880.788317945</v>
       </c>
       <c r="C52" t="n">
         <v>9.09525438078848</v>
       </c>
       <c r="D52" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +7731,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>153109.257867248</v>
+        <v>153109.259210061</v>
       </c>
       <c r="C53" t="n">
         <v>9.88056829458249</v>
       </c>
       <c r="D53" t="n">
-        <v>-343314.97643893</v>
+        <v>-343314.877168877</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +7745,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>175030.626367758</v>
+        <v>175030.628496857</v>
       </c>
       <c r="C54" t="n">
         <v>12.0589251293415</v>
       </c>
       <c r="D54" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +7759,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>160731.401395574</v>
+        <v>160731.402421735</v>
       </c>
       <c r="C55" t="n">
         <v>10.999062816302</v>
       </c>
       <c r="D55" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +7773,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>159896.051072016</v>
+        <v>159896.052526924</v>
       </c>
       <c r="C56" t="n">
         <v>10.9825151781621</v>
       </c>
       <c r="D56" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +7787,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>140923.924631541</v>
+        <v>140923.925803398</v>
       </c>
       <c r="C57" t="n">
         <v>9.44829346767149</v>
       </c>
       <c r="D57" t="n">
-        <v>-357051.565038671</v>
+        <v>-357051.467891669</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +7801,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>104754.352101102</v>
+        <v>104754.351979752</v>
       </c>
       <c r="C58" t="n">
         <v>7.06970695262227</v>
       </c>
       <c r="D58" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +7815,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>86598.0323644379</v>
+        <v>86598.0315931368</v>
       </c>
       <c r="C59" t="n">
         <v>5.69786921930977</v>
       </c>
       <c r="D59" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +7829,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>147587.415763351</v>
+        <v>147587.418960398</v>
       </c>
       <c r="C60" t="n">
         <v>10.8842771694431</v>
       </c>
       <c r="D60" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +7843,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>181965.223443828</v>
+        <v>181965.2277193</v>
       </c>
       <c r="C61" t="n">
         <v>14.0581199328785</v>
       </c>
       <c r="D61" t="n">
-        <v>-389222.341824643</v>
+        <v>-389222.25015528</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +7857,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>197999.59077783</v>
+        <v>197999.596215389</v>
       </c>
       <c r="C62" t="n">
         <v>16.7131514365444</v>
       </c>
       <c r="D62" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>171229.713292039</v>
+        <v>171229.715295157</v>
       </c>
       <c r="C63" t="n">
         <v>15.0201154728914</v>
       </c>
       <c r="D63" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +7885,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>162338.678967164</v>
+        <v>162338.679634088</v>
       </c>
       <c r="C64" t="n">
         <v>14.7205931675529</v>
       </c>
       <c r="D64" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +7899,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>145169.573473937</v>
+        <v>145169.573045907</v>
       </c>
       <c r="C65" t="n">
         <v>13.6947685788558</v>
       </c>
       <c r="D65" t="n">
-        <v>-433594.942068743</v>
+        <v>-433594.845337003</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +7913,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>134988.620500439</v>
+        <v>134988.619147383</v>
       </c>
       <c r="C66" t="n">
         <v>15.4268195791034</v>
       </c>
       <c r="D66" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +7927,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>188433.445580064</v>
+        <v>188433.448341529</v>
       </c>
       <c r="C67" t="n">
         <v>19.3157381050926</v>
       </c>
       <c r="D67" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +7941,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>179796.4835746</v>
+        <v>179796.485410412</v>
       </c>
       <c r="C68" t="n">
         <v>17.4208649420682</v>
       </c>
       <c r="D68" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +7955,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>272008.971816221</v>
+        <v>272008.979253481</v>
       </c>
       <c r="C69" t="n">
         <v>22.9465188390045</v>
       </c>
       <c r="D69" t="n">
-        <v>-554640.947535298</v>
+        <v>-554640.870460316</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +7969,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>235884.72430457</v>
+        <v>235884.726978995</v>
       </c>
       <c r="C70" t="n">
         <v>18.9177240989619</v>
       </c>
       <c r="D70" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +7983,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>254777.2856385</v>
+        <v>254777.288767512</v>
       </c>
       <c r="C71" t="n">
         <v>19.2294986424461</v>
       </c>
       <c r="D71" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +7997,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>261811.465360079</v>
+        <v>261811.468792959</v>
       </c>
       <c r="C72" t="n">
         <v>20.0609197134899</v>
       </c>
       <c r="D72" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8011,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>256917.471918108</v>
+        <v>256917.475499181</v>
       </c>
       <c r="C73" t="n">
         <v>21.4063312457483</v>
       </c>
       <c r="D73" t="n">
-        <v>-640769.334475277</v>
+        <v>-640769.270506737</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8025,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>276896.509130411</v>
+        <v>276896.509474673</v>
       </c>
       <c r="C74" t="n">
         <v>22.9332960748977</v>
       </c>
       <c r="D74" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8039,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>317848.683237012</v>
+        <v>317848.686869921</v>
       </c>
       <c r="C75" t="n">
         <v>27.4605973462161</v>
       </c>
       <c r="D75" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8053,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>295203.974337342</v>
+        <v>295203.975938296</v>
       </c>
       <c r="C76" t="n">
         <v>24.8195973535314</v>
       </c>
       <c r="D76" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8067,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>329593.407153905</v>
+        <v>329593.409966481</v>
       </c>
       <c r="C77" t="n">
         <v>24.7865092253548</v>
       </c>
       <c r="D77" t="n">
-        <v>-462193.490567883</v>
+        <v>-462193.430545413</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8081,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>389431.627487796</v>
+        <v>389431.629566993</v>
       </c>
       <c r="C78" t="n">
         <v>25.5697122982907</v>
       </c>
       <c r="D78" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8095,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>422291.388830656</v>
+        <v>422291.391971511</v>
       </c>
       <c r="C79" t="n">
         <v>25.117741323994</v>
       </c>
       <c r="D79" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8109,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>416772.715699095</v>
+        <v>416772.717941126</v>
       </c>
       <c r="C80" t="n">
         <v>23.2748447271129</v>
       </c>
       <c r="D80" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8123,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>409114.284687487</v>
+        <v>409114.286642968</v>
       </c>
       <c r="C81" t="n">
         <v>22.977887436854</v>
       </c>
       <c r="D81" t="n">
-        <v>-503573.191226236</v>
+        <v>-503573.149061938</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8137,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>521963.125877657</v>
+        <v>521963.124875301</v>
       </c>
       <c r="C82" t="n">
         <v>25.7050958592039</v>
       </c>
       <c r="D82" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8151,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>520033.497277212</v>
+        <v>520033.497492536</v>
       </c>
       <c r="C83" t="n">
         <v>27.6284805866413</v>
       </c>
       <c r="D83" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8165,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>462093.527949938</v>
+        <v>462093.525739823</v>
       </c>
       <c r="C84" t="n">
         <v>25.0493763241664</v>
       </c>
       <c r="D84" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8179,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>480453.742100896</v>
+        <v>480453.743215587</v>
       </c>
       <c r="C85" t="n">
         <v>28.6905294527306</v>
       </c>
       <c r="D85" t="n">
-        <v>-47752.4140952635</v>
+        <v>-47752.3692505008</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8193,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>532053.734436681</v>
+        <v>532053.733399196</v>
       </c>
       <c r="C86" t="n">
         <v>30.9426742711305</v>
       </c>
       <c r="D86" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8207,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>551404.304578998</v>
+        <v>551404.305692446</v>
       </c>
       <c r="C87" t="n">
         <v>33.6577154927094</v>
       </c>
       <c r="D87" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8221,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>527283.916788598</v>
+        <v>527283.915389253</v>
       </c>
       <c r="C88" t="n">
         <v>31.8066819569784</v>
       </c>
       <c r="D88" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8235,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>495128.875266121</v>
+        <v>495128.869206054</v>
       </c>
       <c r="C89" t="n">
         <v>28.2614125059696</v>
       </c>
       <c r="D89" t="n">
-        <v>174171.210939422</v>
+        <v>174171.246907192</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8249,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>529257.243843491</v>
+        <v>529257.235368749</v>
       </c>
       <c r="C90" t="n">
         <v>30.8225633404867</v>
       </c>
       <c r="D90" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8263,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>644513.139193145</v>
+        <v>644513.136732647</v>
       </c>
       <c r="C91" t="n">
         <v>38.4894445516996</v>
       </c>
       <c r="D91" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8277,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>639809.449113431</v>
+        <v>639809.445937729</v>
       </c>
       <c r="C92" t="n">
         <v>36.743249301837</v>
       </c>
       <c r="D92" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8291,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>792953.47355307</v>
+        <v>792953.482655598</v>
       </c>
       <c r="C93" t="n">
         <v>48.0981142253385</v>
       </c>
       <c r="D93" t="n">
-        <v>78402.3251610349</v>
+        <v>78402.3457151942</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8305,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>683063.427452438</v>
+        <v>683063.422245984</v>
       </c>
       <c r="C94" t="n">
         <v>35.9047478439183</v>
       </c>
       <c r="D94" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8319,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>686331.298906361</v>
+        <v>686331.296326553</v>
       </c>
       <c r="C95" t="n">
         <v>35.6089180232297</v>
       </c>
       <c r="D95" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8333,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>717253.356538125</v>
+        <v>717253.357750051</v>
       </c>
       <c r="C96" t="n">
         <v>37.7411349899931</v>
       </c>
       <c r="D96" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8347,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>663237.155243215</v>
+        <v>663237.153418485</v>
       </c>
       <c r="C97" t="n">
         <v>33.1766504256562</v>
       </c>
       <c r="D97" t="n">
-        <v>215238.092974925</v>
+        <v>215238.087699671</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8361,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>678361.364173908</v>
+        <v>688767.257088381</v>
       </c>
       <c r="C98" t="n">
-        <v>35.7234755131877</v>
+        <v>36.5667931921348</v>
       </c>
       <c r="D98" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8375,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>698645.354121532</v>
+        <v>707666.747497657</v>
       </c>
       <c r="C99" t="n">
-        <v>37.3673362801895</v>
+        <v>38.0984508529146</v>
       </c>
       <c r="D99" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8389,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>713494.64376849</v>
+        <v>706241.078125728</v>
       </c>
       <c r="C100" t="n">
-        <v>38.5707565506349</v>
+        <v>37.9829113665069</v>
       </c>
       <c r="D100" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8403,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>725835.773540057</v>
+        <v>745694.34169158</v>
       </c>
       <c r="C101" t="n">
-        <v>39.5709098293704</v>
+        <v>41.1802935220461</v>
       </c>
       <c r="D101" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8417,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>737097.601992466</v>
+        <v>722982.843086357</v>
       </c>
       <c r="C102" t="n">
-        <v>40.48359406977</v>
+        <v>39.3397020524789</v>
       </c>
       <c r="D102" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8431,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>747963.767732388</v>
+        <v>713088.661298611</v>
       </c>
       <c r="C103" t="n">
-        <v>41.3642129023429</v>
+        <v>38.537855071202</v>
       </c>
       <c r="D103" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8445,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>758759.371892401</v>
+        <v>722435.47450512</v>
       </c>
       <c r="C104" t="n">
-        <v>42.2391132636895</v>
+        <v>39.295342058502</v>
       </c>
       <c r="D104" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8459,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>769639.593656209</v>
+        <v>693083.878818742</v>
       </c>
       <c r="C105" t="n">
-        <v>43.120871228468</v>
+        <v>36.9166220287235</v>
       </c>
       <c r="D105" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8473,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>780679.647774688</v>
+        <v>722581.113381598</v>
       </c>
       <c r="C106" t="n">
-        <v>44.0155823714829</v>
+        <v>39.3071449640849</v>
       </c>
       <c r="D106" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8487,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>791917.260508694</v>
+        <v>739944.719900216</v>
       </c>
       <c r="C107" t="n">
-        <v>44.9263041148822</v>
+        <v>40.7143311033447</v>
       </c>
       <c r="D107" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8501,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>803372.63534162</v>
+        <v>739093.665754208</v>
       </c>
       <c r="C108" t="n">
-        <v>45.8546737949979</v>
+        <v>40.6453597409301</v>
       </c>
       <c r="D108" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8515,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>815057.818925032</v>
+        <v>774876.807836374</v>
       </c>
       <c r="C109" t="n">
-        <v>46.8016676999242</v>
+        <v>43.545306909348</v>
       </c>
       <c r="D109" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8529,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>826981.091070363</v>
+        <v>754950.176394876</v>
       </c>
       <c r="C110" t="n">
-        <v>47.7679568444468</v>
+        <v>41.9304074046541</v>
       </c>
       <c r="D110" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8543,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>839149.022119651</v>
+        <v>746509.952881998</v>
       </c>
       <c r="C111" t="n">
-        <v>48.7540737040565</v>
+        <v>41.246392506779</v>
       </c>
       <c r="D111" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8557,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>851567.437548703</v>
+        <v>755312.801425764</v>
       </c>
       <c r="C112" t="n">
-        <v>49.7604903885876</v>
+        <v>41.9597953613938</v>
       </c>
       <c r="D112" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8571,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>864241.87080268</v>
+        <v>729435.559193729</v>
       </c>
       <c r="C113" t="n">
-        <v>50.7876553410449</v>
+        <v>39.8626448326633</v>
       </c>
       <c r="D113" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8585,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>877177.776504651</v>
+        <v>756296.474252399</v>
       </c>
       <c r="C114" t="n">
-        <v>51.8360106165116</v>
+        <v>42.0395144431251</v>
       </c>
       <c r="D114" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8599,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>890380.631482647</v>
+        <v>772283.678115897</v>
       </c>
       <c r="C115" t="n">
-        <v>52.9060000696114</v>
+        <v>43.3351537826893</v>
       </c>
       <c r="D115" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8613,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>903855.983293754</v>
+        <v>771947.573001807</v>
       </c>
       <c r="C116" t="n">
-        <v>53.9980732870122</v>
+        <v>43.3079150602859</v>
       </c>
       <c r="D116" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8627,13 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>917609.474189818</v>
+        <v>804441.68719229</v>
       </c>
       <c r="C117" t="n">
-        <v>55.1126875296605</v>
+        <v>45.9413119324937</v>
       </c>
       <c r="D117" t="n">
-        <v>503237.670904647</v>
+        <v>503237.675898054</v>
       </c>
     </row>
   </sheetData>
@@ -8663,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>218352.991472004</v>
+        <v>218352.994483535</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +8671,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>193399.19992017</v>
+        <v>193399.200511737</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +8679,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>188689.065072003</v>
+        <v>188689.064032429</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +8687,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>194621.459521736</v>
+        <v>194621.456958213</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212075.74973505</v>
+        <v>212075.750695607</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +8703,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>214001.263189716</v>
+        <v>214001.262447886</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +8711,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>221718.413578879</v>
+        <v>221718.412300243</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +8719,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>227689.43103729</v>
+        <v>227689.429852284</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>210430.231162825</v>
+        <v>210430.228584394</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +8735,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>207768.952123831</v>
+        <v>207768.950075265</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>211966.854566588</v>
+        <v>211966.853829529</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +8751,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>269802.451478393</v>
+        <v>269802.45615552</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +8759,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>184807.14173332</v>
+        <v>184807.142057229</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>210068.797549646</v>
+        <v>210068.800485523</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>153774.499188804</v>
+        <v>153774.498162286</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +8783,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>152269.201566382</v>
+        <v>152269.199682891</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>138544.31054461</v>
+        <v>138544.310439398</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +8799,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>170717.342218728</v>
+        <v>170717.343208284</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +8807,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>175350.428154135</v>
+        <v>175350.428628331</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +8815,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>193679.603496032</v>
+        <v>193679.604772285</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>189368.952722533</v>
+        <v>189368.953409359</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +8831,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>211257.540061521</v>
+        <v>211257.542477669</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +8839,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>180664.919277488</v>
+        <v>180664.920026563</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +8847,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>125968.576921972</v>
+        <v>125968.574622233</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>142467.864130946</v>
+        <v>142467.863597628</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +8863,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>147271.935950223</v>
+        <v>147271.936368657</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +8871,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>166066.621819039</v>
+        <v>166066.62362933</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +8879,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>142540.346861687</v>
+        <v>142540.34650611</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +8887,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>136580.416279319</v>
+        <v>136580.417180749</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>164751.454989819</v>
+        <v>164751.457232067</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>149487.317710332</v>
+        <v>149487.318599326</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +8911,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>126703.260857645</v>
+        <v>126703.260249112</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +8919,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>144697.291339293</v>
+        <v>144697.293053451</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +8927,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>147441.464705337</v>
+        <v>147441.466843315</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +8935,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>123309.537299512</v>
+        <v>123309.537672618</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +8943,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>117484.619206595</v>
+        <v>117484.618833904</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>136701.891598141</v>
+        <v>136701.892886654</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +8959,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>146003.677383264</v>
+        <v>146003.678951875</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +8967,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>128055.575711463</v>
+        <v>128055.575858172</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +8975,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>142405.968518228</v>
+        <v>142405.969768662</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +8983,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>132999.497385578</v>
+        <v>132999.498448545</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +8991,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>130119.529646335</v>
+        <v>130119.530645679</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +8999,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>137056.440578133</v>
+        <v>137056.442034116</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9007,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>144988.428819019</v>
+        <v>144988.430625603</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>159404.780543058</v>
+        <v>159404.78313892</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9023,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>150827.400163904</v>
+        <v>150827.401936192</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9031,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>135504.806257034</v>
+        <v>135504.806901465</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9039,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>129691.65130638</v>
+        <v>129691.651672665</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9047,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>151744.916509131</v>
+        <v>151744.918286741</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9055,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>141861.545627785</v>
+        <v>141861.546769691</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9063,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>144880.787138907</v>
+        <v>144880.788317945</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9071,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>153109.257867248</v>
+        <v>153109.259210061</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>175030.626367758</v>
+        <v>175030.628496857</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9087,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>160731.401395574</v>
+        <v>160731.402421735</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9095,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>159896.051072016</v>
+        <v>159896.052526924</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9103,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>140923.924631541</v>
+        <v>140923.925803398</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>104754.352101102</v>
+        <v>104754.351979752</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>86598.0323644379</v>
+        <v>86598.0315931368</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9127,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>147587.415763351</v>
+        <v>147587.418960398</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9135,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>181965.223443828</v>
+        <v>181965.2277193</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9143,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>197999.59077783</v>
+        <v>197999.596215389</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9151,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>171229.713292039</v>
+        <v>171229.715295157</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>162338.678967164</v>
+        <v>162338.679634088</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9167,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>145169.573473937</v>
+        <v>145169.573045907</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9175,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>134988.620500439</v>
+        <v>134988.619147383</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9183,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>188433.445580064</v>
+        <v>188433.448341529</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9191,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>179796.4835746</v>
+        <v>179796.485410412</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9199,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>272008.971816221</v>
+        <v>272008.979253481</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9207,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>235884.72430457</v>
+        <v>235884.726978995</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9215,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>254777.2856385</v>
+        <v>254777.288767512</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9223,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>261811.465360079</v>
+        <v>261811.468792959</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9231,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>256917.471918108</v>
+        <v>256917.475499181</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>276896.509130411</v>
+        <v>276896.509474673</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9247,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>317848.683237012</v>
+        <v>317848.686869921</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9255,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>295203.974337342</v>
+        <v>295203.975938296</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>329593.407153905</v>
+        <v>329593.409966481</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9271,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>389431.627487796</v>
+        <v>389431.629566993</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9279,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>422291.388830656</v>
+        <v>422291.391971511</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9287,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>416772.715699095</v>
+        <v>416772.717941126</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9295,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>409114.284687487</v>
+        <v>409114.286642968</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9303,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>521963.125877657</v>
+        <v>521963.124875301</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9311,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>520033.497277212</v>
+        <v>520033.497492536</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9319,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>462093.527949938</v>
+        <v>462093.525739823</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9327,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>480453.742100896</v>
+        <v>480453.743215587</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9335,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>532053.734436681</v>
+        <v>532053.733399196</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9343,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>551404.304578998</v>
+        <v>551404.305692446</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9351,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>527283.916788598</v>
+        <v>527283.915389253</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9359,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>495128.875266121</v>
+        <v>495128.869206054</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9367,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>529257.243843491</v>
+        <v>529257.235368749</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9375,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>644513.139193145</v>
+        <v>644513.136732647</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9383,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>639809.449113431</v>
+        <v>639809.445937729</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9391,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>792953.47355307</v>
+        <v>792953.482655598</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>683063.427452438</v>
+        <v>683063.422245984</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9407,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>686331.298906361</v>
+        <v>686331.296326553</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>717253.356538125</v>
+        <v>717253.357750051</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9423,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>663237.155243215</v>
+        <v>663237.153418485</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9431,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>678361.364173908</v>
+        <v>688767.257088381</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9439,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>698645.354121532</v>
+        <v>707666.747497657</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9447,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>713494.64376849</v>
+        <v>706241.078125728</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9455,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>725835.773540057</v>
+        <v>745694.34169158</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9463,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>737097.601992466</v>
+        <v>722982.843086357</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9471,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>747963.767732388</v>
+        <v>713088.661298611</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +9479,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>758759.371892401</v>
+        <v>722435.47450512</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +9487,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>769639.593656209</v>
+        <v>693083.878818742</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +9495,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>780679.647774688</v>
+        <v>722581.113381598</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +9503,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>791917.260508694</v>
+        <v>739944.719900216</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +9511,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>803372.63534162</v>
+        <v>739093.665754208</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +9519,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>815057.818925032</v>
+        <v>774876.807836374</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +9527,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>826981.091070363</v>
+        <v>754950.176394876</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +9535,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>839149.022119651</v>
+        <v>746509.952881998</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +9543,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>851567.437548703</v>
+        <v>755312.801425764</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +9551,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>864241.87080268</v>
+        <v>729435.559193729</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +9559,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>877177.776504651</v>
+        <v>756296.474252399</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +9567,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>890380.631482647</v>
+        <v>772283.678115897</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +9575,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>903855.983293754</v>
+        <v>771947.573001807</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +9583,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>917609.474189818</v>
+        <v>804441.68719229</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_BTP.xlsx
+++ b/VA_result_BTP.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -461,73 +509,73 @@
     <t xml:space="preserve">2.3283064365387e-10</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.74947333906312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.03917788644321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.429996399092488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8748469746206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29661750863306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79020657052752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75608748197556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7767627016874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73408994101919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2840680617373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4127440357115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5613192111487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3725979605224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2725942936959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8932258789428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.042166242376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1288825955708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5822493715677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0261225977447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.89451001142152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.0012493310496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.3451679977588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.4266440970823</t>
+    <t xml:space="preserve">1.49028890067711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10638192342594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877846105024219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608695220318623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844607939827256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859936818713322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547067175153643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.481316472170874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442895329557359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.211564731202088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208267759066075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167799287242815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0851718130288646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.114947046444286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.408871089457534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.966554715065286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.48194822575897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.820111926877871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.21884157415479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637206118321046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40776750724763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823703934438527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04618727369234</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1789,10 +1837,10 @@
         <v>74</v>
       </c>
       <c r="B63" t="n">
-        <v>627544.613276318</v>
+        <v>959017.460733117</v>
       </c>
       <c r="C63" t="n">
-        <v>22.7914768772391</v>
+        <v>34.8300723466544</v>
       </c>
     </row>
     <row r="64">
@@ -2141,10 +2189,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="n">
-        <v>4239101.08616753</v>
+        <v>3796107.74445705</v>
       </c>
       <c r="C95" t="n">
-        <v>153.957778206798</v>
+        <v>137.868926050689</v>
       </c>
     </row>
     <row r="96">
@@ -2163,10 +2211,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>5297368.42477346</v>
+        <v>3902935.22520407</v>
       </c>
       <c r="C97" t="n">
-        <v>192.392456901354</v>
+        <v>141.748739542495</v>
       </c>
     </row>
     <row r="98">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>4027346.57628613</v>
+        <v>3808974.00177601</v>
       </c>
       <c r="C102" t="n">
-        <v>146.267172768539</v>
+        <v>138.336209172842</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>4196038.32357095</v>
+        <v>3886371.56990489</v>
       </c>
       <c r="C103" t="n">
-        <v>152.393803411659</v>
+        <v>141.147172484525</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>4183313.18378183</v>
+        <v>3935913.33638173</v>
       </c>
       <c r="C104" t="n">
-        <v>151.931645466028</v>
+        <v>142.946454959789</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>4535462.35938847</v>
+        <v>3975456.96931301</v>
       </c>
       <c r="C105" t="n">
-        <v>164.721174088184</v>
+        <v>144.382620256292</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>4332745.65644015</v>
+        <v>4011412.02577309</v>
       </c>
       <c r="C106" t="n">
-        <v>157.358808209916</v>
+        <v>145.688453850579</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>4244432.86188409</v>
+        <v>4046079.05371955</v>
       </c>
       <c r="C107" t="n">
-        <v>154.151420284808</v>
+        <v>146.947508185727</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>4327859.99230963</v>
+        <v>4080283.77649703</v>
       </c>
       <c r="C108" t="n">
-        <v>157.181368234008</v>
+        <v>148.189772292187</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>4065875.57607889</v>
+        <v>4114322.56655874</v>
       </c>
       <c r="C109" t="n">
-        <v>147.666488114894</v>
+        <v>149.42600997188</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>4329159.92558898</v>
+        <v>4148301.79928038</v>
       </c>
       <c r="C110" t="n">
-        <v>157.22857985634</v>
+        <v>150.660084618523</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>4484142.78805569</v>
+        <v>4182259.65540525</v>
       </c>
       <c r="C111" t="n">
-        <v>162.857324413379</v>
+        <v>151.893382899309</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>4476546.50858915</v>
+        <v>4216209.83894284</v>
       </c>
       <c r="C112" t="n">
-        <v>162.58143896372</v>
+        <v>153.126402523261</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>4795937.17100717</v>
+        <v>4250157.26859982</v>
       </c>
       <c r="C113" t="n">
-        <v>174.181227637392</v>
+        <v>154.35932213041</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>4618077.44026453</v>
+        <v>4284103.7098212</v>
       </c>
       <c r="C114" t="n">
-        <v>167.721629618616</v>
+        <v>155.592205839063</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>4542742.28460536</v>
+        <v>4318049.79626868</v>
       </c>
       <c r="C115" t="n">
-        <v>164.985570027116</v>
+        <v>156.825076662862</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>4621314.13335757</v>
+        <v>4351995.75537907</v>
       </c>
       <c r="C116" t="n">
-        <v>167.839181445575</v>
+        <v>158.057942861969</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>4390340.85775581</v>
+        <v>4385941.66878504</v>
       </c>
       <c r="C117" t="n">
-        <v>159.450579330653</v>
+        <v>159.29080740116</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>4630094.1313516</v>
+        <v>4419887.56578657</v>
       </c>
       <c r="C118" t="n">
-        <v>168.1580577725</v>
+        <v>160.523671344567</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>4772791.59543817</v>
+        <v>4453833.45690014</v>
       </c>
       <c r="C119" t="n">
-        <v>173.340615130757</v>
+        <v>161.756535074132</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>4769791.61196034</v>
+        <v>4487779.34590038</v>
       </c>
       <c r="C120" t="n">
-        <v>173.231660241144</v>
+        <v>162.989398726944</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>5059825.29967156</v>
+        <v>4521725.23414208</v>
       </c>
       <c r="C121" t="n">
-        <v>183.765247729975</v>
+        <v>164.222262352207</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4555671.12211154</v>
+      </c>
+      <c r="C122" t="n">
+        <v>165.455125967583</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4589617.00998328</v>
+      </c>
+      <c r="C123" t="n">
+        <v>166.687989579409</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4623562.89781994</v>
+      </c>
+      <c r="C124" t="n">
+        <v>167.920853189962</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4657508.78564401</v>
+      </c>
+      <c r="C125" t="n">
+        <v>169.153716800057</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4691454.67346357</v>
+      </c>
+      <c r="C126" t="n">
+        <v>170.386580409988</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4725400.5612815</v>
+      </c>
+      <c r="C127" t="n">
+        <v>171.61944401986</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4759346.44909886</v>
+      </c>
+      <c r="C128" t="n">
+        <v>172.852307629712</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4793292.336916</v>
+      </c>
+      <c r="C129" t="n">
+        <v>174.085171239555</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4827238.22473307</v>
+      </c>
+      <c r="C130" t="n">
+        <v>175.318034849396</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4861184.11255011</v>
+      </c>
+      <c r="C131" t="n">
+        <v>176.550898459236</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4895130.00036714</v>
+      </c>
+      <c r="C132" t="n">
+        <v>177.783762069076</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4929075.88818417</v>
+      </c>
+      <c r="C133" t="n">
+        <v>179.016625678915</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4963021.77600119</v>
+      </c>
+      <c r="C134" t="n">
+        <v>180.249489288755</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4996967.66381822</v>
+      </c>
+      <c r="C135" t="n">
+        <v>181.482352898594</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5030913.55163525</v>
+      </c>
+      <c r="C136" t="n">
+        <v>182.715216508433</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5064859.43945227</v>
+      </c>
+      <c r="C137" t="n">
+        <v>183.948080118273</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>47.5266033937301</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>875484.855296019</v>
+        <v>875492.095058259</v>
       </c>
       <c r="C4" t="n">
         <v>39.0961949688878</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1151943982656</v>
+        <v>10.1161049883479</v>
       </c>
       <c r="E4" t="n">
         <v>42.2360853884394</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>899968.488644708</v>
+        <v>899971.634204518</v>
       </c>
       <c r="C5" t="n">
         <v>44.468328376837</v>
       </c>
       <c r="D5" t="n">
-        <v>2.79657988377311</v>
+        <v>2.79608911199019</v>
       </c>
       <c r="E5" t="n">
         <v>13.7408088235294</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>700919.640387929</v>
+        <v>700920.088237635</v>
       </c>
       <c r="C6" t="n">
         <v>35.8082337192066</v>
       </c>
       <c r="D6" t="n">
-        <v>-22.1173130802094</v>
+        <v>-22.1175355313086</v>
       </c>
       <c r="E6" t="n">
         <v>-19.4747474747475</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>678291.687048298</v>
+        <v>678286.420896544</v>
       </c>
       <c r="C7" t="n">
         <v>30.4361003112573</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.22832348186276</v>
+        <v>-3.22913663353563</v>
       </c>
       <c r="E7" t="n">
         <v>-15.0025087807326</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>707259.990535824</v>
+        <v>707257.538526255</v>
       </c>
       <c r="C8" t="n">
         <v>32.0890644367802</v>
       </c>
       <c r="D8" t="n">
-        <v>4.27077377486176</v>
+        <v>4.27122182269521</v>
       </c>
       <c r="E8" t="n">
         <v>5.43093270365997</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>598346.770101725</v>
+        <v>598344.839831973</v>
       </c>
       <c r="C9" t="n">
         <v>30.0767602839698</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.3993187641769</v>
+        <v>-15.3992983830513</v>
       </c>
       <c r="E9" t="n">
         <v>-6.27099664053751</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>577522.453261254</v>
+        <v>577515.244240948</v>
       </c>
       <c r="C10" t="n">
         <v>29.7892882621397</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.48030905839604</v>
+        <v>-3.48120251139373</v>
       </c>
       <c r="E10" t="n">
         <v>-0.955794504181595</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>532932.916403288</v>
+        <v>532924.620957059</v>
       </c>
       <c r="C11" t="n">
         <v>27.4892218102726</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.72083173670052</v>
+        <v>-7.72111623520801</v>
       </c>
       <c r="E11" t="n">
         <v>-7.72111918763227</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>553167.117465363</v>
+        <v>553157.826270752</v>
       </c>
       <c r="C12" t="n">
         <v>32.6280744777115</v>
       </c>
       <c r="D12" t="n">
-        <v>3.79676323966509</v>
+        <v>3.79663549365707</v>
       </c>
       <c r="E12" t="n">
         <v>18.6940638149263</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>545163.901753943</v>
+        <v>545151.829250612</v>
       </c>
       <c r="C13" t="n">
         <v>32.1558394428441</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.44679888929251</v>
+        <v>-1.44732599629183</v>
       </c>
       <c r="E13" t="n">
         <v>-1.44732731681727</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>575428.643649243</v>
+        <v>575416.439172966</v>
       </c>
       <c r="C14" t="n">
         <v>34.8124287791466</v>
       </c>
       <c r="D14" t="n">
-        <v>5.55149410992359</v>
+        <v>5.55159284046733</v>
       </c>
       <c r="E14" t="n">
         <v>8.26160778985254</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>591596.512584438</v>
+        <v>591584.119064515</v>
       </c>
       <c r="C15" t="n">
         <v>37.2359421209589</v>
       </c>
       <c r="D15" t="n">
-        <v>2.80970874731969</v>
+        <v>2.80973548736043</v>
       </c>
       <c r="E15" t="n">
         <v>6.96163245945076</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>636582.009248914</v>
+        <v>636568.721822767</v>
       </c>
       <c r="C16" t="n">
         <v>43.488796591477</v>
       </c>
       <c r="D16" t="n">
-        <v>7.60408415322682</v>
+        <v>7.6040923528149</v>
       </c>
       <c r="E16" t="n">
         <v>16.7925238743956</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>520905.030252586</v>
+        <v>520889.642711246</v>
       </c>
       <c r="C17" t="n">
-        <v>37.7099732742537</v>
+        <v>40.7196221416075</v>
       </c>
       <c r="D17" t="n">
-        <v>-18.1715752747729</v>
+        <v>-18.1722844911831</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.288073642295</v>
+        <v>-6.3675582377744</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>676737.564190542</v>
+        <v>676719.262093573</v>
       </c>
       <c r="C18" t="n">
         <v>60.1486286558445</v>
       </c>
       <c r="D18" t="n">
-        <v>29.9157283742091</v>
+        <v>29.9160525771312</v>
       </c>
       <c r="E18" t="n">
-        <v>59.5032386217857</v>
+        <v>47.7141129813784</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>775227.532152804</v>
+        <v>775201.523431847</v>
       </c>
       <c r="C19" t="n">
         <v>75.1099414652688</v>
       </c>
       <c r="D19" t="n">
-        <v>14.5536428260885</v>
+        <v>14.5528976127557</v>
       </c>
       <c r="E19" t="n">
         <v>24.8739050977026</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1009390.96003865</v>
+        <v>1009359.34920783</v>
       </c>
       <c r="C20" t="n">
         <v>79.6144737006461</v>
       </c>
       <c r="D20" t="n">
-        <v>30.2057677486726</v>
+        <v>30.2060585148688</v>
       </c>
       <c r="E20" t="n">
         <v>5.99725169198844</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1219542.58224937</v>
+        <v>1219522.17988807</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>20.8196457597241</v>
+        <v>20.8214082373329</v>
       </c>
       <c r="E21" t="n">
         <v>25.6053018399699</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1637610.0261226</v>
+        <v>1637586.78115843</v>
       </c>
       <c r="C22" t="n">
         <v>96.9401857862517</v>
       </c>
       <c r="D22" t="n">
-        <v>34.2806762107582</v>
+        <v>34.2810166280635</v>
       </c>
       <c r="E22" t="n">
         <v>-3.05981421374834</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1984543.89132325</v>
+        <v>1984549.42303938</v>
       </c>
       <c r="C23" t="n">
         <v>107.073482222742</v>
       </c>
       <c r="D23" t="n">
-        <v>21.18537745046</v>
+        <v>21.1874354307813</v>
       </c>
       <c r="E23" t="n">
         <v>10.4531431978416</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2105870.82368695</v>
+        <v>2105890.23270379</v>
       </c>
       <c r="C24" t="n">
         <v>124.668484226788</v>
       </c>
       <c r="D24" t="n">
-        <v>6.11359279551156</v>
+        <v>6.11427502161048</v>
       </c>
       <c r="E24" t="n">
         <v>16.4326419938817</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2606533.30069472</v>
+        <v>2606546.46956665</v>
       </c>
       <c r="C25" t="n">
-        <v>154.153371419362</v>
+        <v>137.47022904062</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7746053260387</v>
+        <v>23.7740898878697</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6506342203833</v>
+        <v>10.2686295523926</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2749885.22974107</v>
+        <v>2749907.70257244</v>
       </c>
       <c r="C26" t="n">
         <v>142.431451282797</v>
       </c>
       <c r="D26" t="n">
-        <v>5.49971600240604</v>
+        <v>5.50004516242608</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.60406342633659</v>
+        <v>3.60894302482875</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>2848369.42440335</v>
+        <v>2684087.58286919</v>
       </c>
       <c r="C27" t="n">
-        <v>153.828448933602</v>
+        <v>141.703114218362</v>
       </c>
       <c r="D27" t="n">
-        <v>3.58139291040691</v>
+        <v>-2.39353923194141</v>
       </c>
       <c r="E27" t="n">
-        <v>8.00174227543069</v>
+        <v>-0.511359715762061</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>2851590.85770883</v>
+        <v>2726831.68368236</v>
       </c>
       <c r="C28" t="n">
-        <v>154.089521210907</v>
+        <v>147.562936075093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113097454209576</v>
+        <v>1.59250022562507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.169716511551643</v>
+        <v>4.13528092805444</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>2976496.3068724</v>
+        <v>2762795.96357995</v>
       </c>
       <c r="C29" t="n">
-        <v>164.212142717708</v>
+        <v>152.509798042876</v>
       </c>
       <c r="D29" t="n">
-        <v>4.38020232902288</v>
+        <v>1.31890355069597</v>
       </c>
       <c r="E29" t="n">
-        <v>6.56931206434603</v>
+        <v>3.35237431523132</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>2986208.48989637</v>
+        <v>2804543.83157709</v>
       </c>
       <c r="C30" t="n">
-        <v>164.99924010549</v>
+        <v>157.441508191264</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326295819737688</v>
+        <v>1.5110731500795</v>
       </c>
       <c r="E30" t="n">
-        <v>0.479317409027136</v>
+        <v>3.23370053050722</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>3104969.41256239</v>
+        <v>2851380.4813871</v>
       </c>
       <c r="C31" t="n">
-        <v>174.623895218594</v>
+        <v>162.372966874463</v>
       </c>
       <c r="D31" t="n">
-        <v>3.97698027675712</v>
+        <v>1.6700273778097</v>
       </c>
       <c r="E31" t="n">
-        <v>5.83315117509056</v>
+        <v>3.13224812176478</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2902529.46058863</v>
+      </c>
+      <c r="C32" t="n">
+        <v>167.304421384252</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.79383212922362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.03711547846668</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2957330.15147161</v>
+      </c>
+      <c r="C33" t="n">
+        <v>172.235875824779</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.88803220181168</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.94759361391905</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3015223.09444893</v>
+      </c>
+      <c r="C34" t="n">
+        <v>177.167330264156</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.95760838364663</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.86319816691025</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3075734.54107558</v>
+      </c>
+      <c r="C35" t="n">
+        <v>182.098784703514</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.00686465747941</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.78350101680997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>795062.715985913</v>
       </c>
       <c r="C2" t="n">
-        <v>808428.848025299</v>
+        <v>715137.346348382</v>
       </c>
       <c r="D2" t="n">
-        <v>-13366.1320393856</v>
+        <v>79925.369637531</v>
       </c>
       <c r="E2" t="n">
         <v>27.4868327978221</v>
       </c>
       <c r="F2" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>875490.604769358</v>
       </c>
       <c r="C3" t="n">
-        <v>941107.38384747</v>
+        <v>948566.359736545</v>
       </c>
       <c r="D3" t="n">
-        <v>-65616.779078112</v>
+        <v>-73075.7549671863</v>
       </c>
       <c r="E3" t="n">
         <v>39.0961949688878</v>
       </c>
       <c r="F3" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>899970.527822594</v>
       </c>
       <c r="C4" t="n">
-        <v>949832.855737338</v>
+        <v>948877.893813329</v>
       </c>
       <c r="D4" t="n">
-        <v>-49862.3279147435</v>
+        <v>-48907.3659907346</v>
       </c>
       <c r="E4" t="n">
         <v>44.468328376837</v>
       </c>
       <c r="F4" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>700919.21039153</v>
       </c>
       <c r="C5" t="n">
-        <v>804666.41061257</v>
+        <v>768757.354576873</v>
       </c>
       <c r="D5" t="n">
-        <v>-103747.200221039</v>
+        <v>-67838.1441853424</v>
       </c>
       <c r="E5" t="n">
         <v>35.8082337192066</v>
       </c>
       <c r="F5" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>678285.812201323</v>
       </c>
       <c r="C6" t="n">
-        <v>653905.426795194</v>
+        <v>630022.547609475</v>
       </c>
       <c r="D6" t="n">
-        <v>24380.3854061293</v>
+        <v>48263.2645918478</v>
       </c>
       <c r="E6" t="n">
         <v>30.4361003112573</v>
       </c>
       <c r="F6" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>707256.693918315</v>
       </c>
       <c r="C7" t="n">
-        <v>714301.124206398</v>
+        <v>705160.89836638</v>
       </c>
       <c r="D7" t="n">
-        <v>-7044.43028808315</v>
+        <v>2095.79555193524</v>
       </c>
       <c r="E7" t="n">
         <v>32.0890644367802</v>
       </c>
       <c r="F7" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>598343.979895154</v>
       </c>
       <c r="C8" t="n">
-        <v>697327.423504754</v>
+        <v>677812.263411455</v>
       </c>
       <c r="D8" t="n">
-        <v>-98983.4436096001</v>
+        <v>-79468.2835163002</v>
       </c>
       <c r="E8" t="n">
         <v>30.0767602839698</v>
       </c>
       <c r="F8" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>577514.697173772</v>
       </c>
       <c r="C9" t="n">
-        <v>616738.163463504</v>
+        <v>607124.763268265</v>
       </c>
       <c r="D9" t="n">
-        <v>-39223.4662897317</v>
+        <v>-29610.0660944928</v>
       </c>
       <c r="E9" t="n">
         <v>29.7892882621397</v>
       </c>
       <c r="F9" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>532924.139640586</v>
       </c>
       <c r="C10" t="n">
-        <v>572522.050496333</v>
+        <v>558214.835917452</v>
       </c>
       <c r="D10" t="n">
-        <v>-39597.9108557465</v>
+        <v>-25290.6962768661</v>
       </c>
       <c r="E10" t="n">
         <v>27.4892218102726</v>
       </c>
       <c r="F10" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>553157.383375422</v>
       </c>
       <c r="C11" t="n">
-        <v>621079.339106879</v>
+        <v>628209.031329302</v>
       </c>
       <c r="D11" t="n">
-        <v>-67921.9557314572</v>
+        <v>-75051.6479538796</v>
       </c>
       <c r="E11" t="n">
         <v>32.6280744777115</v>
       </c>
       <c r="F11" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>545151.617685881</v>
       </c>
       <c r="C12" t="n">
-        <v>575691.23981059</v>
+        <v>571995.303380969</v>
       </c>
       <c r="D12" t="n">
-        <v>-30539.6221247087</v>
+        <v>-26843.6856950882</v>
       </c>
       <c r="E12" t="n">
         <v>32.1558394428441</v>
       </c>
       <c r="F12" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>575416.230905207</v>
       </c>
       <c r="C13" t="n">
-        <v>606475.216101498</v>
+        <v>611690.818096231</v>
       </c>
       <c r="D13" t="n">
-        <v>-31058.9851962912</v>
+        <v>-36274.587191024</v>
       </c>
       <c r="E13" t="n">
         <v>34.8124287791466</v>
       </c>
       <c r="F13" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>591583.951265227</v>
       </c>
       <c r="C14" t="n">
-        <v>634074.490103398</v>
+        <v>639963.397560384</v>
       </c>
       <c r="D14" t="n">
-        <v>-42490.5388381706</v>
+        <v>-48379.4462951565</v>
       </c>
       <c r="E14" t="n">
         <v>37.2359421209589</v>
       </c>
       <c r="F14" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>636568.636650954</v>
       </c>
       <c r="C15" t="n">
-        <v>698643.550924735</v>
+        <v>717526.319823924</v>
       </c>
       <c r="D15" t="n">
-        <v>-62074.9142737811</v>
+        <v>-80957.6831729698</v>
       </c>
       <c r="E15" t="n">
         <v>43.488796591477</v>
       </c>
       <c r="F15" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>520889.757658292</v>
       </c>
       <c r="C16" t="n">
-        <v>597860.189306348</v>
+        <v>633002.53879266</v>
       </c>
       <c r="D16" t="n">
-        <v>-76970.4316480554</v>
+        <v>-112112.781134368</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7099732742537</v>
+        <v>40.7196221416075</v>
       </c>
       <c r="F16" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>676719.670964663</v>
       </c>
       <c r="C17" t="n">
-        <v>834078.911819664</v>
+        <v>866126.560098738</v>
       </c>
       <c r="D17" t="n">
-        <v>-157359.240855002</v>
+        <v>-189406.889134075</v>
       </c>
       <c r="E17" t="n">
         <v>60.1486286558445</v>
       </c>
       <c r="F17" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>775202.489986562</v>
       </c>
       <c r="C18" t="n">
-        <v>907779.458228395</v>
+        <v>975410.83840862</v>
       </c>
       <c r="D18" t="n">
-        <v>-132576.968241833</v>
+        <v>-200208.348422058</v>
       </c>
       <c r="E18" t="n">
         <v>75.1099414652688</v>
       </c>
       <c r="F18" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>1009360.83115605</v>
       </c>
       <c r="C19" t="n">
-        <v>884445.210418893</v>
+        <v>934660.088124976</v>
       </c>
       <c r="D19" t="n">
-        <v>124915.620737158</v>
+        <v>74700.7430310749</v>
       </c>
       <c r="E19" t="n">
         <v>79.6144737006461</v>
       </c>
       <c r="F19" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>1219523</v>
       </c>
       <c r="C20" t="n">
-        <v>1299610.53366406</v>
+        <v>1384912.93229323</v>
       </c>
       <c r="D20" t="n">
-        <v>-80087.5336640618</v>
+        <v>-165389.93229323</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>1637588</v>
       </c>
       <c r="C21" t="n">
-        <v>1223939.81686517</v>
+        <v>1253871.98888086</v>
       </c>
       <c r="D21" t="n">
-        <v>413648.18313483</v>
+        <v>383716.011119144</v>
       </c>
       <c r="E21" t="n">
         <v>96.9401857862517</v>
       </c>
       <c r="F21" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>1984548.78583326</v>
       </c>
       <c r="C22" t="n">
-        <v>1766631.25688627</v>
+        <v>1801363.29206458</v>
       </c>
       <c r="D22" t="n">
-        <v>217917.528946985</v>
+        <v>183185.493768681</v>
       </c>
       <c r="E22" t="n">
         <v>107.073482222742</v>
       </c>
       <c r="F22" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>2105888.82493628</v>
       </c>
       <c r="C23" t="n">
-        <v>2187081.8395196</v>
+        <v>2232230.82040012</v>
       </c>
       <c r="D23" t="n">
-        <v>-81193.0145833179</v>
+        <v>-126341.995463837</v>
       </c>
       <c r="E23" t="n">
         <v>124.668484226788</v>
       </c>
       <c r="F23" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>2606545.64586272</v>
       </c>
       <c r="C24" t="n">
-        <v>2463152.88090144</v>
+        <v>2303086.591852</v>
       </c>
       <c r="D24" t="n">
-        <v>143392.764961281</v>
+        <v>303459.054010724</v>
       </c>
       <c r="E24" t="n">
-        <v>154.153371419362</v>
+        <v>137.47022904062</v>
       </c>
       <c r="F24" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>2749905.65638517</v>
       </c>
       <c r="C25" t="n">
-        <v>2443891.59773713</v>
+        <v>2637643.34822359</v>
       </c>
       <c r="D25" t="n">
-        <v>306014.05864804</v>
+        <v>112262.308161578</v>
       </c>
       <c r="E25" t="n">
         <v>142.431451282797</v>
       </c>
       <c r="F25" t="n">
-        <v>503237.675898054</v>
+        <v>357321.645533007</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>8.16221959350705</v>
       </c>
       <c r="C2" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
       <c r="D2" t="n">
-        <v>218031.140923</v>
+        <v>198407.002391649</v>
       </c>
       <c r="E2" t="n">
-        <v>808428.848025299</v>
+        <v>715137.346348382</v>
       </c>
       <c r="F2" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G2" t="n">
-        <v>-13366.1320393856</v>
+        <v>79925.369637531</v>
       </c>
       <c r="H2" t="n">
-        <v>321.853560535156</v>
+        <v>29693.7557644392</v>
       </c>
       <c r="I2" t="n">
-        <v>218352.994483535</v>
+        <v>228100.758156088</v>
       </c>
       <c r="J2" t="n">
         <v>795062.715985914</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>6.25866308053367</v>
       </c>
       <c r="C3" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
       <c r="D3" t="n">
-        <v>194542.701579355</v>
+        <v>169462.776508537</v>
       </c>
       <c r="E3" t="n">
-        <v>808428.848025299</v>
+        <v>715137.346348382</v>
       </c>
       <c r="F3" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G3" t="n">
-        <v>-13366.1320393856</v>
+        <v>79925.369637531</v>
       </c>
       <c r="H3" t="n">
-        <v>-1143.50106761745</v>
+        <v>25808.7904224166</v>
       </c>
       <c r="I3" t="n">
-        <v>193399.200511737</v>
+        <v>195271.566930953</v>
       </c>
       <c r="J3" t="n">
         <v>795062.715985914</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>6.11445425379326</v>
       </c>
       <c r="C4" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
       <c r="D4" t="n">
-        <v>192763.274356351</v>
+        <v>167270.032123452</v>
       </c>
       <c r="E4" t="n">
-        <v>808428.848025299</v>
+        <v>715137.346348382</v>
       </c>
       <c r="F4" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G4" t="n">
-        <v>-13366.1320393856</v>
+        <v>79925.369637531</v>
       </c>
       <c r="H4" t="n">
-        <v>-4074.21032392266</v>
+        <v>18038.8597383715</v>
       </c>
       <c r="I4" t="n">
-        <v>188689.064032429</v>
+        <v>185308.891861824</v>
       </c>
       <c r="J4" t="n">
         <v>795062.715985914</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>6.95149586998813</v>
       </c>
       <c r="C5" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
       <c r="D5" t="n">
-        <v>203091.731166593</v>
+        <v>179997.535324745</v>
       </c>
       <c r="E5" t="n">
-        <v>808428.848025299</v>
+        <v>715137.346348382</v>
       </c>
       <c r="F5" t="n">
         <v>795062.715985913</v>
       </c>
       <c r="G5" t="n">
-        <v>-13366.1320393856</v>
+        <v>79925.369637531</v>
       </c>
       <c r="H5" t="n">
-        <v>-8470.27420838047</v>
+        <v>6383.96371230386</v>
       </c>
       <c r="I5" t="n">
-        <v>194621.456958213</v>
+        <v>186381.499037048</v>
       </c>
       <c r="J5" t="n">
         <v>795062.715985914</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>9.05536868764681</v>
       </c>
       <c r="C6" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
       <c r="D6" t="n">
-        <v>226407.443416598</v>
+        <v>226214.187210204</v>
       </c>
       <c r="E6" t="n">
-        <v>941101.634374131</v>
+        <v>948567.850025445</v>
       </c>
       <c r="F6" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G6" t="n">
-        <v>-65611.0296047725</v>
+        <v>-73077.2452560866</v>
       </c>
       <c r="H6" t="n">
-        <v>-14331.6927209909</v>
+        <v>-9155.89765578634</v>
       </c>
       <c r="I6" t="n">
-        <v>212075.750695607</v>
+        <v>217058.289554417</v>
       </c>
       <c r="J6" t="n">
-        <v>875484.855296019</v>
+        <v>875492.095058259</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>9.46860971902752</v>
       </c>
       <c r="C7" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
       <c r="D7" t="n">
-        <v>231506.523393335</v>
+        <v>232497.658005494</v>
       </c>
       <c r="E7" t="n">
-        <v>941101.634374131</v>
+        <v>948567.850025445</v>
       </c>
       <c r="F7" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G7" t="n">
-        <v>-65611.0296047725</v>
+        <v>-73077.2452560866</v>
       </c>
       <c r="H7" t="n">
-        <v>-17505.2609454498</v>
+        <v>-19017.0586374265</v>
       </c>
       <c r="I7" t="n">
-        <v>214001.262447886</v>
+        <v>213480.599368068</v>
       </c>
       <c r="J7" t="n">
-        <v>875484.855296019</v>
+        <v>875492.095058259</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>10.1333887695095</v>
       </c>
       <c r="C8" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
       <c r="D8" t="n">
-        <v>239709.391182</v>
+        <v>242605.85015444</v>
       </c>
       <c r="E8" t="n">
-        <v>941101.634374131</v>
+        <v>948567.850025445</v>
       </c>
       <c r="F8" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G8" t="n">
-        <v>-65611.0296047725</v>
+        <v>-73077.2452560866</v>
       </c>
       <c r="H8" t="n">
-        <v>-17990.9788817574</v>
+        <v>-23199.5192326165</v>
       </c>
       <c r="I8" t="n">
-        <v>221718.412300243</v>
+        <v>219406.330921824</v>
       </c>
       <c r="J8" t="n">
-        <v>875484.855296019</v>
+        <v>875492.095058259</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>10.438827792704</v>
       </c>
       <c r="C9" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
       <c r="D9" t="n">
-        <v>243478.276382197</v>
+        <v>247250.154655307</v>
       </c>
       <c r="E9" t="n">
-        <v>941101.634374131</v>
+        <v>948567.850025445</v>
       </c>
       <c r="F9" t="n">
         <v>875490.604769358</v>
       </c>
       <c r="G9" t="n">
-        <v>-65611.0296047725</v>
+        <v>-73077.2452560866</v>
       </c>
       <c r="H9" t="n">
-        <v>-15788.8465299135</v>
+        <v>-21703.2794413565</v>
       </c>
       <c r="I9" t="n">
-        <v>227689.429852284</v>
+        <v>225546.875213951</v>
       </c>
       <c r="J9" t="n">
-        <v>875484.855296019</v>
+        <v>875492.095058259</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>9.80998274495072</v>
       </c>
       <c r="C10" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
       <c r="D10" t="n">
-        <v>221329.092474312</v>
+        <v>217344.858728926</v>
       </c>
       <c r="E10" t="n">
-        <v>949830.816559451</v>
+        <v>948879.000195251</v>
       </c>
       <c r="F10" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G10" t="n">
-        <v>-49860.2887368563</v>
+        <v>-48908.4723726568</v>
       </c>
       <c r="H10" t="n">
-        <v>-10898.8638899181</v>
+        <v>-14528.3392636464</v>
       </c>
       <c r="I10" t="n">
-        <v>210430.228584394</v>
+        <v>202816.51946528</v>
       </c>
       <c r="J10" t="n">
-        <v>899968.488644708</v>
+        <v>899971.634204518</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>9.4865767203919</v>
       </c>
       <c r="C11" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
       <c r="D11" t="n">
-        <v>217338.508144692</v>
+        <v>212427.359845655</v>
       </c>
       <c r="E11" t="n">
-        <v>949830.816559451</v>
+        <v>948879.000195251</v>
       </c>
       <c r="F11" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G11" t="n">
-        <v>-49860.2887368563</v>
+        <v>-48908.4723726568</v>
       </c>
       <c r="H11" t="n">
-        <v>-9569.558069427</v>
+        <v>-10737.7640861772</v>
       </c>
       <c r="I11" t="n">
-        <v>207768.950075265</v>
+        <v>201689.595759478</v>
       </c>
       <c r="J11" t="n">
-        <v>899968.488644708</v>
+        <v>899971.634204518</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>10.0076197599589</v>
       </c>
       <c r="C12" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
       <c r="D12" t="n">
-        <v>223767.782897969</v>
+        <v>220349.996935369</v>
       </c>
       <c r="E12" t="n">
-        <v>949830.816559451</v>
+        <v>948879.000195251</v>
       </c>
       <c r="F12" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G12" t="n">
-        <v>-49860.2887368563</v>
+        <v>-48908.4723726568</v>
       </c>
       <c r="H12" t="n">
-        <v>-11800.9290684401</v>
+        <v>-10331.5539089487</v>
       </c>
       <c r="I12" t="n">
-        <v>211966.853829529</v>
+        <v>210018.443026421</v>
       </c>
       <c r="J12" t="n">
-        <v>899968.488644708</v>
+        <v>899971.634204518</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>15.1641491515355</v>
       </c>
       <c r="C13" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
       <c r="D13" t="n">
-        <v>287395.433042477</v>
+        <v>298756.784685301</v>
       </c>
       <c r="E13" t="n">
-        <v>949830.816559451</v>
+        <v>948879.000195251</v>
       </c>
       <c r="F13" t="n">
         <v>899970.527822594</v>
       </c>
       <c r="G13" t="n">
-        <v>-49860.2887368563</v>
+        <v>-48908.4723726568</v>
       </c>
       <c r="H13" t="n">
-        <v>-17592.9768869575</v>
+        <v>-13309.7087319611</v>
       </c>
       <c r="I13" t="n">
-        <v>269802.45615552</v>
+        <v>285447.075953339</v>
       </c>
       <c r="J13" t="n">
-        <v>899968.488644708</v>
+        <v>899971.634204518</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>9.80998274495072</v>
       </c>
       <c r="C14" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
       <c r="D14" t="n">
-        <v>211752.843582208</v>
+        <v>205234.589865532</v>
       </c>
       <c r="E14" t="n">
-        <v>804666.840608968</v>
+        <v>768758.232422977</v>
       </c>
       <c r="F14" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G14" t="n">
-        <v>-103747.630217438</v>
+        <v>-67839.0220314462</v>
       </c>
       <c r="H14" t="n">
-        <v>-26945.701524979</v>
+        <v>-19672.2285552143</v>
       </c>
       <c r="I14" t="n">
-        <v>184807.142057229</v>
+        <v>185562.361310318</v>
       </c>
       <c r="J14" t="n">
-        <v>700919.640387929</v>
+        <v>700920.088237635</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>12.1277259209556</v>
       </c>
       <c r="C15" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
       <c r="D15" t="n">
-        <v>240352.031277823</v>
+        <v>240476.665195641</v>
       </c>
       <c r="E15" t="n">
-        <v>804666.840608968</v>
+        <v>768758.232422977</v>
       </c>
       <c r="F15" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G15" t="n">
-        <v>-103747.630217438</v>
+        <v>-67839.0220314462</v>
       </c>
       <c r="H15" t="n">
-        <v>-30283.2307922999</v>
+        <v>-21132.159480964</v>
       </c>
       <c r="I15" t="n">
-        <v>210068.800485523</v>
+        <v>219344.505714677</v>
       </c>
       <c r="J15" t="n">
-        <v>700919.640387929</v>
+        <v>700920.088237635</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>7.34850355803085</v>
       </c>
       <c r="C16" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
       <c r="D16" t="n">
-        <v>181380.062851206</v>
+        <v>167806.959476192</v>
       </c>
       <c r="E16" t="n">
-        <v>804666.840608968</v>
+        <v>768758.232422977</v>
       </c>
       <c r="F16" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G16" t="n">
-        <v>-103747.630217438</v>
+        <v>-67839.0220314462</v>
       </c>
       <c r="H16" t="n">
-        <v>-27605.5646889201</v>
+        <v>-17689.5015092102</v>
       </c>
       <c r="I16" t="n">
-        <v>153774.498162286</v>
+        <v>150117.457966982</v>
       </c>
       <c r="J16" t="n">
-        <v>700919.640387929</v>
+        <v>700920.088237635</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>6.52202149526943</v>
       </c>
       <c r="C17" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
       <c r="D17" t="n">
-        <v>171181.902897731</v>
+        <v>155240.017885611</v>
       </c>
       <c r="E17" t="n">
-        <v>804666.840608968</v>
+        <v>768758.232422977</v>
       </c>
       <c r="F17" t="n">
         <v>700919.21039153</v>
       </c>
       <c r="G17" t="n">
-        <v>-103747.630217438</v>
+        <v>-67839.0220314462</v>
       </c>
       <c r="H17" t="n">
-        <v>-18912.7032148395</v>
+        <v>-9344.25463995285</v>
       </c>
       <c r="I17" t="n">
-        <v>152269.199682891</v>
+        <v>145895.763245658</v>
       </c>
       <c r="J17" t="n">
-        <v>700919.640387929</v>
+        <v>700920.088237635</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>5.92911045024494</v>
       </c>
       <c r="C18" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
       <c r="D18" t="n">
-        <v>142748.956809456</v>
+        <v>131962.114321405</v>
       </c>
       <c r="E18" t="n">
-        <v>653911.301642167</v>
+        <v>630023.156304694</v>
       </c>
       <c r="F18" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G18" t="n">
-        <v>24374.5105591563</v>
+        <v>48262.6558966294</v>
       </c>
       <c r="H18" t="n">
-        <v>-4204.6463700583</v>
+        <v>3903.58112680795</v>
       </c>
       <c r="I18" t="n">
-        <v>138544.310439398</v>
+        <v>135865.695448213</v>
       </c>
       <c r="J18" t="n">
-        <v>678291.687048298</v>
+        <v>678286.420896544</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>7.7258105866828</v>
       </c>
       <c r="C19" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
       <c r="D19" t="n">
-        <v>164918.869751794</v>
+        <v>159281.552561799</v>
       </c>
       <c r="E19" t="n">
-        <v>653911.301642167</v>
+        <v>630023.156304694</v>
       </c>
       <c r="F19" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G19" t="n">
-        <v>24374.5105591563</v>
+        <v>48262.6558966294</v>
       </c>
       <c r="H19" t="n">
-        <v>5798.47345649061</v>
+        <v>12467.6094419741</v>
       </c>
       <c r="I19" t="n">
-        <v>170717.343208284</v>
+        <v>171749.162003773</v>
       </c>
       <c r="J19" t="n">
-        <v>678291.687048298</v>
+        <v>678286.420896544</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>7.67190958258966</v>
       </c>
       <c r="C20" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
       <c r="D20" t="n">
-        <v>164253.772363524</v>
+        <v>158461.969414587</v>
       </c>
       <c r="E20" t="n">
-        <v>653911.301642167</v>
+        <v>630023.156304694</v>
       </c>
       <c r="F20" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G20" t="n">
-        <v>24374.5105591563</v>
+        <v>48262.6558966294</v>
       </c>
       <c r="H20" t="n">
-        <v>11096.6562648072</v>
+        <v>16347.8303055455</v>
       </c>
       <c r="I20" t="n">
-        <v>175350.428628331</v>
+        <v>174809.799720133</v>
       </c>
       <c r="J20" t="n">
-        <v>678291.687048298</v>
+        <v>678286.420896544</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>9.10926969173995</v>
       </c>
       <c r="C21" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
       <c r="D21" t="n">
-        <v>181989.702717393</v>
+        <v>180317.520006903</v>
       </c>
       <c r="E21" t="n">
-        <v>653911.301642167</v>
+        <v>630023.156304694</v>
       </c>
       <c r="F21" t="n">
         <v>678285.812201323</v>
       </c>
       <c r="G21" t="n">
-        <v>24374.5105591563</v>
+        <v>48262.6558966294</v>
       </c>
       <c r="H21" t="n">
-        <v>11689.9020548915</v>
+        <v>15544.2437175223</v>
       </c>
       <c r="I21" t="n">
-        <v>193679.604772285</v>
+        <v>195861.763724425</v>
       </c>
       <c r="J21" t="n">
-        <v>678291.687048298</v>
+        <v>678286.420896544</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>8.28278762897853</v>
       </c>
       <c r="C22" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
       <c r="D22" t="n">
-        <v>181790.742582615</v>
+        <v>180251.754288437</v>
       </c>
       <c r="E22" t="n">
-        <v>714304.420823906</v>
+        <v>705161.742974318</v>
       </c>
       <c r="F22" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G22" t="n">
-        <v>-7047.72690559051</v>
+        <v>2094.95094399725</v>
       </c>
       <c r="H22" t="n">
-        <v>7578.21082674341</v>
+        <v>10056.8496779043</v>
       </c>
       <c r="I22" t="n">
-        <v>189368.953409359</v>
+        <v>190308.603966341</v>
       </c>
       <c r="J22" t="n">
-        <v>707259.990535824</v>
+        <v>707257.538526255</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>10.4927287967971</v>
       </c>
       <c r="C23" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
       <c r="D23" t="n">
-        <v>209059.73550169</v>
+        <v>213854.663324121</v>
       </c>
       <c r="E23" t="n">
-        <v>714304.420823906</v>
+        <v>705161.742974318</v>
       </c>
       <c r="F23" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G23" t="n">
-        <v>-7047.72690559051</v>
+        <v>2094.95094399725</v>
       </c>
       <c r="H23" t="n">
-        <v>2197.80697597864</v>
+        <v>4048.7317460891</v>
       </c>
       <c r="I23" t="n">
-        <v>211257.542477669</v>
+        <v>217903.395070211</v>
       </c>
       <c r="J23" t="n">
-        <v>707259.990535824</v>
+        <v>707257.538526255</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>8.55229264944421</v>
       </c>
       <c r="C24" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
       <c r="D24" t="n">
-        <v>185116.229523966</v>
+        <v>184349.670024496</v>
       </c>
       <c r="E24" t="n">
-        <v>714304.420823906</v>
+        <v>705161.742974318</v>
       </c>
       <c r="F24" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G24" t="n">
-        <v>-7047.72690559051</v>
+        <v>2094.95094399725</v>
       </c>
       <c r="H24" t="n">
-        <v>-4451.30949740285</v>
+        <v>-2480.1100779233</v>
       </c>
       <c r="I24" t="n">
-        <v>180664.920026563</v>
+        <v>181869.559946572</v>
       </c>
       <c r="J24" t="n">
-        <v>707259.990535824</v>
+        <v>707257.538526255</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>4.76125536156033</v>
       </c>
       <c r="C25" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
       <c r="D25" t="n">
-        <v>138337.713215634</v>
+        <v>126705.655337264</v>
       </c>
       <c r="E25" t="n">
-        <v>714304.420823906</v>
+        <v>705161.742974318</v>
       </c>
       <c r="F25" t="n">
         <v>707256.693918315</v>
       </c>
       <c r="G25" t="n">
-        <v>-7047.72690559051</v>
+        <v>2094.95094399725</v>
       </c>
       <c r="H25" t="n">
-        <v>-12369.1385934011</v>
+        <v>-9529.67579413292</v>
       </c>
       <c r="I25" t="n">
-        <v>125968.574622233</v>
+        <v>117175.979543131</v>
       </c>
       <c r="J25" t="n">
-        <v>707259.990535824</v>
+        <v>707257.538526255</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>6.68372450754884</v>
       </c>
       <c r="C26" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
       <c r="D26" t="n">
-        <v>164023.543909644</v>
+        <v>156749.742055285</v>
       </c>
       <c r="E26" t="n">
-        <v>697330.213711324</v>
+        <v>677813.123348272</v>
       </c>
       <c r="F26" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G26" t="n">
-        <v>-98986.2338161701</v>
+        <v>-79469.143453118</v>
       </c>
       <c r="H26" t="n">
-        <v>-21555.680312016</v>
+        <v>-17099.9654025398</v>
       </c>
       <c r="I26" t="n">
-        <v>142467.863597628</v>
+        <v>139649.776652745</v>
       </c>
       <c r="J26" t="n">
-        <v>598346.770101725</v>
+        <v>598344.839831973</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>7.4742725675815</v>
       </c>
       <c r="C27" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
       <c r="D27" t="n">
-        <v>173778.305604273</v>
+        <v>168770.294881058</v>
       </c>
       <c r="E27" t="n">
-        <v>697330.213711324</v>
+        <v>677813.123348272</v>
       </c>
       <c r="F27" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G27" t="n">
-        <v>-98986.2338161701</v>
+        <v>-79469.143453118</v>
       </c>
       <c r="H27" t="n">
-        <v>-26506.3692356155</v>
+        <v>-21234.9234365165</v>
       </c>
       <c r="I27" t="n">
-        <v>147271.936368657</v>
+        <v>147535.371444542</v>
       </c>
       <c r="J27" t="n">
-        <v>598346.770101725</v>
+        <v>598344.839831973</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>9.05536868764681</v>
       </c>
       <c r="C28" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
       <c r="D28" t="n">
-        <v>193287.828993529</v>
+        <v>192811.400532605</v>
       </c>
       <c r="E28" t="n">
-        <v>697330.213711324</v>
+        <v>677813.123348272</v>
       </c>
       <c r="F28" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G28" t="n">
-        <v>-98986.2338161701</v>
+        <v>-79469.143453118</v>
       </c>
       <c r="H28" t="n">
-        <v>-27221.2053641997</v>
+        <v>-21934.5498960632</v>
       </c>
       <c r="I28" t="n">
-        <v>166066.62362933</v>
+        <v>170876.850636542</v>
       </c>
       <c r="J28" t="n">
-        <v>598346.770101725</v>
+        <v>598344.839831973</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>6.86339452119263</v>
       </c>
       <c r="C29" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
       <c r="D29" t="n">
-        <v>166240.535203878</v>
+        <v>159481.685879324</v>
       </c>
       <c r="E29" t="n">
-        <v>697330.213711324</v>
+        <v>677813.123348272</v>
       </c>
       <c r="F29" t="n">
         <v>598343.979895154</v>
       </c>
       <c r="G29" t="n">
-        <v>-98986.2338161701</v>
+        <v>-79469.143453118</v>
       </c>
       <c r="H29" t="n">
-        <v>-23700.1886977684</v>
+        <v>-19198.8447811799</v>
       </c>
       <c r="I29" t="n">
-        <v>142540.34650611</v>
+        <v>140282.841098144</v>
       </c>
       <c r="J29" t="n">
-        <v>598346.770101725</v>
+        <v>598344.839831973</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>7.31256955530209</v>
       </c>
       <c r="C30" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
       <c r="D30" t="n">
-        <v>152523.736417071</v>
+        <v>149732.36971583</v>
       </c>
       <c r="E30" t="n">
-        <v>616745.919550986</v>
+        <v>607125.31033544</v>
       </c>
       <c r="F30" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G30" t="n">
-        <v>-39231.2223772134</v>
+        <v>-29610.6131616676</v>
       </c>
       <c r="H30" t="n">
-        <v>-15943.3192363219</v>
+        <v>-13027.8080918664</v>
       </c>
       <c r="I30" t="n">
-        <v>136580.417180749</v>
+        <v>136704.561623964</v>
       </c>
       <c r="J30" t="n">
-        <v>577522.453261254</v>
+        <v>577515.244240948</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>9.14520369446871</v>
       </c>
       <c r="C31" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
       <c r="D31" t="n">
-        <v>175137.047618255</v>
+        <v>177598.196721032</v>
       </c>
       <c r="E31" t="n">
-        <v>616745.919550986</v>
+        <v>607125.31033544</v>
       </c>
       <c r="F31" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G31" t="n">
-        <v>-39231.2223772134</v>
+        <v>-29610.6131616676</v>
       </c>
       <c r="H31" t="n">
-        <v>-10385.5903861876</v>
+        <v>-8309.27678884368</v>
       </c>
       <c r="I31" t="n">
-        <v>164751.457232067</v>
+        <v>169288.919932189</v>
       </c>
       <c r="J31" t="n">
-        <v>577522.453261254</v>
+        <v>577515.244240948</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>7.63597557986091</v>
       </c>
       <c r="C32" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
       <c r="D32" t="n">
-        <v>156514.320746692</v>
+        <v>154649.868599101</v>
       </c>
       <c r="E32" t="n">
-        <v>616745.919550986</v>
+        <v>607125.31033544</v>
       </c>
       <c r="F32" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G32" t="n">
-        <v>-39231.2223772134</v>
+        <v>-29610.6131616676</v>
       </c>
       <c r="H32" t="n">
-        <v>-7027.00214736573</v>
+        <v>-5043.25087211173</v>
       </c>
       <c r="I32" t="n">
-        <v>149487.318599326</v>
+        <v>149606.61772699</v>
       </c>
       <c r="J32" t="n">
-        <v>577522.453261254</v>
+        <v>577515.244240948</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>5.69553943250802</v>
       </c>
       <c r="C33" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
       <c r="D33" t="n">
-        <v>132570.814768968</v>
+        <v>125144.875299476</v>
       </c>
       <c r="E33" t="n">
-        <v>616745.919550986</v>
+        <v>607125.31033544</v>
       </c>
       <c r="F33" t="n">
         <v>577514.697173772</v>
       </c>
       <c r="G33" t="n">
-        <v>-39231.2223772134</v>
+        <v>-29610.6131616676</v>
       </c>
       <c r="H33" t="n">
-        <v>-5867.5545198562</v>
+        <v>-3229.73034167052</v>
       </c>
       <c r="I33" t="n">
-        <v>126703.260249112</v>
+        <v>121915.144957805</v>
       </c>
       <c r="J33" t="n">
-        <v>577522.453261254</v>
+        <v>577515.244240948</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>7.55888211528903</v>
       </c>
       <c r="C34" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
       <c r="D34" t="n">
-        <v>151604.540557111</v>
+        <v>149993.461584397</v>
       </c>
       <c r="E34" t="n">
-        <v>572530.827259034</v>
+        <v>558215.317233924</v>
       </c>
       <c r="F34" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G34" t="n">
-        <v>-39606.687618448</v>
+        <v>-25291.1775933378</v>
       </c>
       <c r="H34" t="n">
-        <v>-6907.24750365904</v>
+        <v>-2868.71519752008</v>
       </c>
       <c r="I34" t="n">
-        <v>144697.293053451</v>
+        <v>147124.746386877</v>
       </c>
       <c r="J34" t="n">
-        <v>532932.916403288</v>
+        <v>532924.620957059</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>7.91197868468834</v>
       </c>
       <c r="C35" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
       <c r="D35" t="n">
-        <v>155961.483624606</v>
+        <v>155362.415326297</v>
       </c>
       <c r="E35" t="n">
-        <v>572530.827259034</v>
+        <v>558215.317233924</v>
       </c>
       <c r="F35" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G35" t="n">
-        <v>-39606.687618448</v>
+        <v>-25291.1775933378</v>
       </c>
       <c r="H35" t="n">
-        <v>-8520.01678129119</v>
+        <v>-4105.89268853843</v>
       </c>
       <c r="I35" t="n">
-        <v>147441.466843315</v>
+        <v>151256.522637758</v>
       </c>
       <c r="J35" t="n">
-        <v>532932.916403288</v>
+        <v>532924.620957059</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>6.13341818697328</v>
       </c>
       <c r="C36" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
       <c r="D36" t="n">
-        <v>134015.40002537</v>
+        <v>128318.79647821</v>
       </c>
       <c r="E36" t="n">
-        <v>572530.827259034</v>
+        <v>558215.317233924</v>
       </c>
       <c r="F36" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G36" t="n">
-        <v>-39606.687618448</v>
+        <v>-25291.1775933378</v>
       </c>
       <c r="H36" t="n">
-        <v>-10705.8623527527</v>
+        <v>-6941.26281472558</v>
       </c>
       <c r="I36" t="n">
-        <v>123309.537672618</v>
+        <v>121377.533663484</v>
       </c>
       <c r="J36" t="n">
-        <v>532932.916403288</v>
+        <v>532924.620957059</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>5.88494282332191</v>
       </c>
       <c r="C37" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
       <c r="D37" t="n">
-        <v>130949.403051948</v>
+        <v>124540.643845021</v>
       </c>
       <c r="E37" t="n">
-        <v>572530.827259034</v>
+        <v>558215.317233924</v>
       </c>
       <c r="F37" t="n">
         <v>532924.139640586</v>
       </c>
       <c r="G37" t="n">
-        <v>-39606.687618448</v>
+        <v>-25291.1775933378</v>
       </c>
       <c r="H37" t="n">
-        <v>-13464.7842180435</v>
+        <v>-11374.8255760815</v>
       </c>
       <c r="I37" t="n">
-        <v>117484.618833904</v>
+        <v>113165.818268939</v>
       </c>
       <c r="J37" t="n">
-        <v>532932.916403288</v>
+        <v>532924.620957059</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>8.01328260851286</v>
       </c>
       <c r="C38" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
       <c r="D38" t="n">
-        <v>153498.675263818</v>
+        <v>154866.813496926</v>
       </c>
       <c r="E38" t="n">
-        <v>621089.07319682</v>
+        <v>628209.474224631</v>
       </c>
       <c r="F38" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G38" t="n">
-        <v>-67931.6898213981</v>
+        <v>-75052.0908492089</v>
       </c>
       <c r="H38" t="n">
-        <v>-16796.7823771636</v>
+        <v>-17406.5809726063</v>
       </c>
       <c r="I38" t="n">
-        <v>136701.892886654</v>
+        <v>137460.23252432</v>
       </c>
       <c r="J38" t="n">
-        <v>553167.117465363</v>
+        <v>553157.826270752</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>8.88108877441235</v>
       </c>
       <c r="C39" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
       <c r="D39" t="n">
-        <v>164206.743214967</v>
+        <v>168062.102167037</v>
       </c>
       <c r="E39" t="n">
-        <v>621089.07319682</v>
+        <v>628209.474224631</v>
       </c>
       <c r="F39" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G39" t="n">
-        <v>-67931.6898213981</v>
+        <v>-75052.0908492089</v>
       </c>
       <c r="H39" t="n">
-        <v>-18203.064263092</v>
+        <v>-20361.8155375617</v>
       </c>
       <c r="I39" t="n">
-        <v>146003.678951875</v>
+        <v>147700.286629475</v>
       </c>
       <c r="J39" t="n">
-        <v>553167.117465363</v>
+        <v>553157.826270752</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>7.3844375607596</v>
       </c>
       <c r="C40" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
       <c r="D40" t="n">
-        <v>145739.205734</v>
+        <v>145305.010112788</v>
       </c>
       <c r="E40" t="n">
-        <v>621089.07319682</v>
+        <v>628209.474224631</v>
       </c>
       <c r="F40" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G40" t="n">
-        <v>-67931.6898213981</v>
+        <v>-75052.0908492089</v>
       </c>
       <c r="H40" t="n">
-        <v>-17683.6298758285</v>
+        <v>-20240.5292709475</v>
       </c>
       <c r="I40" t="n">
-        <v>128055.575858172</v>
+        <v>125064.480841841</v>
       </c>
       <c r="J40" t="n">
-        <v>553167.117465363</v>
+        <v>553157.826270752</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>8.34926553402674</v>
       </c>
       <c r="C41" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
       <c r="D41" t="n">
-        <v>157644.448984035</v>
+        <v>159975.54844788</v>
       </c>
       <c r="E41" t="n">
-        <v>621089.07319682</v>
+        <v>628209.474224631</v>
       </c>
       <c r="F41" t="n">
         <v>553157.383375422</v>
       </c>
       <c r="G41" t="n">
-        <v>-67931.6898213981</v>
+        <v>-75052.0908492089</v>
       </c>
       <c r="H41" t="n">
-        <v>-15238.4792153732</v>
+        <v>-17042.7221727639</v>
       </c>
       <c r="I41" t="n">
-        <v>142405.969768662</v>
+        <v>142932.826275116</v>
       </c>
       <c r="J41" t="n">
-        <v>553167.117465363</v>
+        <v>553157.826270752</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>8.03419698692758</v>
       </c>
       <c r="C42" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
       <c r="D42" t="n">
-        <v>143867.110730271</v>
+        <v>142926.457616431</v>
       </c>
       <c r="E42" t="n">
-        <v>575703.523878652</v>
+        <v>571995.5149457</v>
       </c>
       <c r="F42" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G42" t="n">
-        <v>-30551.9061927708</v>
+        <v>-26843.8972598193</v>
       </c>
       <c r="H42" t="n">
-        <v>-10867.612281726</v>
+        <v>-10768.3942430108</v>
       </c>
       <c r="I42" t="n">
-        <v>132999.498448545</v>
+        <v>132158.063373421</v>
       </c>
       <c r="J42" t="n">
-        <v>545163.901753943</v>
+        <v>545151.829250612</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>7.55431349246636</v>
       </c>
       <c r="C43" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
       <c r="D43" t="n">
-        <v>137945.713453726</v>
+        <v>135629.665445251</v>
       </c>
       <c r="E43" t="n">
-        <v>575703.523878652</v>
+        <v>571995.5149457</v>
       </c>
       <c r="F43" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G43" t="n">
-        <v>-30551.9061927708</v>
+        <v>-26843.8972598193</v>
       </c>
       <c r="H43" t="n">
-        <v>-7826.18280804767</v>
+        <v>-6635.67394341404</v>
       </c>
       <c r="I43" t="n">
-        <v>130119.530645679</v>
+        <v>128993.991501837</v>
       </c>
       <c r="J43" t="n">
-        <v>545163.901753943</v>
+        <v>545151.829250612</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>7.97775283468964</v>
       </c>
       <c r="C44" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
       <c r="D44" t="n">
-        <v>143170.632828454</v>
+        <v>142068.205034477</v>
       </c>
       <c r="E44" t="n">
-        <v>575703.523878652</v>
+        <v>571995.5149457</v>
       </c>
       <c r="F44" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G44" t="n">
-        <v>-30551.9061927708</v>
+        <v>-26843.8972598193</v>
       </c>
       <c r="H44" t="n">
-        <v>-6114.19079433806</v>
+        <v>-4644.56127397366</v>
       </c>
       <c r="I44" t="n">
-        <v>137056.442034116</v>
+        <v>137423.643760503</v>
       </c>
       <c r="J44" t="n">
-        <v>545163.901753943</v>
+        <v>545151.829250612</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>8.58957612876056</v>
       </c>
       <c r="C45" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
       <c r="D45" t="n">
-        <v>150720.0668662</v>
+        <v>151371.186849541</v>
       </c>
       <c r="E45" t="n">
-        <v>575703.523878652</v>
+        <v>571995.5149457</v>
       </c>
       <c r="F45" t="n">
         <v>545151.617685881</v>
       </c>
       <c r="G45" t="n">
-        <v>-30551.9061927708</v>
+        <v>-26843.8972598193</v>
       </c>
       <c r="H45" t="n">
-        <v>-5731.63624059722</v>
+        <v>-4795.05623468964</v>
       </c>
       <c r="I45" t="n">
-        <v>144988.430625603</v>
+        <v>146576.130614851</v>
       </c>
       <c r="J45" t="n">
-        <v>545163.901753943</v>
+        <v>545151.829250612</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>9.87509152195869</v>
       </c>
       <c r="C46" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
       <c r="D46" t="n">
-        <v>166083.302285745</v>
+        <v>170743.177926505</v>
       </c>
       <c r="E46" t="n">
-        <v>606487.628845534</v>
+        <v>611691.026363989</v>
       </c>
       <c r="F46" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G46" t="n">
-        <v>-31071.3979403269</v>
+        <v>-36274.7954587825</v>
       </c>
       <c r="H46" t="n">
-        <v>-6678.51914682514</v>
+        <v>-7087.15882556199</v>
       </c>
       <c r="I46" t="n">
-        <v>159404.78313892</v>
+        <v>163656.019100943</v>
       </c>
       <c r="J46" t="n">
-        <v>575428.643649243</v>
+        <v>575416.439172966</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>9.24586819727895</v>
       </c>
       <c r="C47" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
       <c r="D47" t="n">
-        <v>158319.165106408</v>
+        <v>161175.622712709</v>
       </c>
       <c r="E47" t="n">
-        <v>606487.628845534</v>
+        <v>611691.026363989</v>
       </c>
       <c r="F47" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G47" t="n">
-        <v>-31071.3979403269</v>
+        <v>-36274.7954587825</v>
       </c>
       <c r="H47" t="n">
-        <v>-7491.76317021538</v>
+        <v>-8796.59505078849</v>
       </c>
       <c r="I47" t="n">
-        <v>150827.401936192</v>
+        <v>152379.02766192</v>
       </c>
       <c r="J47" t="n">
-        <v>575428.643649243</v>
+        <v>575416.439172966</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>8.0591670131493</v>
       </c>
       <c r="C48" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
       <c r="D48" t="n">
-        <v>143676.175212233</v>
+        <v>143131.426548786</v>
       </c>
       <c r="E48" t="n">
-        <v>606487.628845534</v>
+        <v>611691.026363989</v>
       </c>
       <c r="F48" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G48" t="n">
-        <v>-31071.3979403269</v>
+        <v>-36274.7954587825</v>
       </c>
       <c r="H48" t="n">
-        <v>-8171.36831076795</v>
+        <v>-9923.36491036912</v>
       </c>
       <c r="I48" t="n">
-        <v>135504.806901465</v>
+        <v>133208.061638416</v>
       </c>
       <c r="J48" t="n">
-        <v>575428.643649243</v>
+        <v>575416.439172966</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>7.63230204675969</v>
       </c>
       <c r="C49" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
       <c r="D49" t="n">
-        <v>138408.986241148</v>
+        <v>136640.79917599</v>
       </c>
       <c r="E49" t="n">
-        <v>606487.628845534</v>
+        <v>611691.026363989</v>
       </c>
       <c r="F49" t="n">
         <v>575416.230905207</v>
       </c>
       <c r="G49" t="n">
-        <v>-31071.3979403269</v>
+        <v>-36274.7954587825</v>
       </c>
       <c r="H49" t="n">
-        <v>-8717.33456848283</v>
+        <v>-10467.4684043039</v>
       </c>
       <c r="I49" t="n">
-        <v>129691.651672665</v>
+        <v>126173.330771686</v>
       </c>
       <c r="J49" t="n">
-        <v>575428.643649243</v>
+        <v>575416.439172966</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>9.499663198153</v>
       </c>
       <c r="C50" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
       <c r="D50" t="n">
-        <v>160874.580230101</v>
+        <v>162890.21030068</v>
       </c>
       <c r="E50" t="n">
-        <v>634087.051422609</v>
+        <v>639963.56535967</v>
       </c>
       <c r="F50" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G50" t="n">
-        <v>-42503.1001573815</v>
+        <v>-48379.6140944427</v>
       </c>
       <c r="H50" t="n">
-        <v>-9129.66194336004</v>
+        <v>-10428.9055325928</v>
       </c>
       <c r="I50" t="n">
-        <v>151744.918286741</v>
+        <v>152461.304768087</v>
       </c>
       <c r="J50" t="n">
-        <v>591596.512584438</v>
+        <v>591584.119064515</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>8.76045624743491</v>
       </c>
       <c r="C51" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
       <c r="D51" t="n">
-        <v>151753.328769475</v>
+        <v>151650.316549099</v>
       </c>
       <c r="E51" t="n">
-        <v>634087.051422609</v>
+        <v>639963.56535967</v>
       </c>
       <c r="F51" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G51" t="n">
-        <v>-42503.1001573815</v>
+        <v>-48379.6140944427</v>
       </c>
       <c r="H51" t="n">
-        <v>-9891.78199978395</v>
+        <v>-11079.8628003868</v>
       </c>
       <c r="I51" t="n">
-        <v>141861.546769691</v>
+        <v>140570.453748712</v>
       </c>
       <c r="J51" t="n">
-        <v>591596.512584438</v>
+        <v>591584.119064515</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>9.09525438078848</v>
       </c>
       <c r="C52" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
       <c r="D52" t="n">
-        <v>155884.4830557</v>
+        <v>156741.036331247</v>
       </c>
       <c r="E52" t="n">
-        <v>634087.051422609</v>
+        <v>639963.56535967</v>
       </c>
       <c r="F52" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G52" t="n">
-        <v>-42503.1001573815</v>
+        <v>-48379.6140944427</v>
       </c>
       <c r="H52" t="n">
-        <v>-11003.6947377546</v>
+        <v>-12420.3402076859</v>
       </c>
       <c r="I52" t="n">
-        <v>144880.788317945</v>
+        <v>144320.696123561</v>
       </c>
       <c r="J52" t="n">
-        <v>591596.512584438</v>
+        <v>591584.119064515</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>9.88056829458249</v>
       </c>
       <c r="C53" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
       <c r="D53" t="n">
-        <v>165574.659367333</v>
+        <v>168682.002178644</v>
       </c>
       <c r="E53" t="n">
-        <v>634087.051422609</v>
+        <v>639963.56535967</v>
       </c>
       <c r="F53" t="n">
         <v>591583.951265227</v>
       </c>
       <c r="G53" t="n">
-        <v>-42503.1001573815</v>
+        <v>-48379.6140944427</v>
       </c>
       <c r="H53" t="n">
-        <v>-12465.4001572719</v>
+        <v>-14450.33775449</v>
       </c>
       <c r="I53" t="n">
-        <v>153109.259210061</v>
+        <v>154231.664424154</v>
       </c>
       <c r="J53" t="n">
-        <v>591596.512584438</v>
+        <v>591584.119064515</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>12.0589251293415</v>
       </c>
       <c r="C54" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
       <c r="D54" t="n">
-        <v>189307.526755193</v>
+        <v>197426.174464907</v>
       </c>
       <c r="E54" t="n">
-        <v>698656.923522695</v>
+        <v>717526.404995736</v>
       </c>
       <c r="F54" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G54" t="n">
-        <v>-62088.2868717412</v>
+        <v>-80957.7683447818</v>
       </c>
       <c r="H54" t="n">
-        <v>-14276.8982583359</v>
+        <v>-17169.8554407992</v>
       </c>
       <c r="I54" t="n">
-        <v>175030.628496857</v>
+        <v>180256.319024108</v>
       </c>
       <c r="J54" t="n">
-        <v>636582.009248914</v>
+        <v>636568.721822767</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>10.999062816302</v>
       </c>
       <c r="C55" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
       <c r="D55" t="n">
-        <v>176229.63204454</v>
+        <v>181310.606587336</v>
       </c>
       <c r="E55" t="n">
-        <v>698656.923522695</v>
+        <v>717526.404995736</v>
       </c>
       <c r="F55" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G55" t="n">
-        <v>-62088.2868717412</v>
+        <v>-80957.7683447818</v>
       </c>
       <c r="H55" t="n">
-        <v>-15498.2296228052</v>
+        <v>-19485.4886563</v>
       </c>
       <c r="I55" t="n">
-        <v>160731.402421735</v>
+        <v>161825.117931036</v>
       </c>
       <c r="J55" t="n">
-        <v>636582.009248914</v>
+        <v>636568.721822767</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>10.9825151781621</v>
       </c>
       <c r="C56" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
       <c r="D56" t="n">
-        <v>176025.446777604</v>
+        <v>181058.994106757</v>
       </c>
       <c r="E56" t="n">
-        <v>698656.923522695</v>
+        <v>717526.404995736</v>
       </c>
       <c r="F56" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G56" t="n">
-        <v>-62088.2868717412</v>
+        <v>-80957.7683447818</v>
       </c>
       <c r="H56" t="n">
-        <v>-16129.3942506798</v>
+        <v>-21397.2374009926</v>
       </c>
       <c r="I56" t="n">
-        <v>159896.052526924</v>
+        <v>159661.756705764</v>
       </c>
       <c r="J56" t="n">
-        <v>636582.009248914</v>
+        <v>636568.721822767</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>9.44829346767149</v>
       </c>
       <c r="C57" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
       <c r="D57" t="n">
-        <v>157094.317945358</v>
+        <v>157730.629836735</v>
       </c>
       <c r="E57" t="n">
-        <v>698656.923522695</v>
+        <v>717526.404995736</v>
       </c>
       <c r="F57" t="n">
         <v>636568.636650954</v>
       </c>
       <c r="G57" t="n">
-        <v>-62088.2868717412</v>
+        <v>-80957.7683447818</v>
       </c>
       <c r="H57" t="n">
-        <v>-16170.3921419598</v>
+        <v>-22905.1016748769</v>
       </c>
       <c r="I57" t="n">
-        <v>140923.925803398</v>
+        <v>134825.528161858</v>
       </c>
       <c r="J57" t="n">
-        <v>636582.009248914</v>
+        <v>636568.721822767</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>7.06970695262227</v>
       </c>
       <c r="C58" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
       <c r="D58" t="n">
-        <v>120375.575276397</v>
+        <v>110958.975947912</v>
       </c>
       <c r="E58" t="n">
-        <v>597875.461900641</v>
+        <v>633002.423845613</v>
       </c>
       <c r="F58" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G58" t="n">
-        <v>-76985.7042423484</v>
+        <v>-112112.66618732</v>
       </c>
       <c r="H58" t="n">
-        <v>-15621.2232966451</v>
+        <v>-24009.0814779529</v>
       </c>
       <c r="I58" t="n">
-        <v>104754.351979752</v>
+        <v>86949.894469959</v>
       </c>
       <c r="J58" t="n">
-        <v>520905.030252586</v>
+        <v>520889.642711246</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5624,34 +5928,34 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>5.69786921930977</v>
+        <v>8.70751808666359</v>
       </c>
       <c r="C59" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
       <c r="D59" t="n">
-        <v>103448.141197803</v>
+        <v>135862.452726503</v>
       </c>
       <c r="E59" t="n">
-        <v>597875.461900641</v>
+        <v>633002.423845613</v>
       </c>
       <c r="F59" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G59" t="n">
-        <v>-76985.7042423484</v>
+        <v>-112112.66618732</v>
       </c>
       <c r="H59" t="n">
-        <v>-16850.1096046667</v>
+        <v>-26058.3189214388</v>
       </c>
       <c r="I59" t="n">
-        <v>86598.0315931368</v>
+        <v>109804.133805064</v>
       </c>
       <c r="J59" t="n">
-        <v>520905.030252586</v>
+        <v>520889.642711246</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>10.8842771694431</v>
       </c>
       <c r="C60" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
       <c r="D60" t="n">
-        <v>167444.470026422</v>
+        <v>168960.816844242</v>
       </c>
       <c r="E60" t="n">
-        <v>597875.461900641</v>
+        <v>633002.423845613</v>
       </c>
       <c r="F60" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G60" t="n">
-        <v>-76985.7042423484</v>
+        <v>-112112.66618732</v>
       </c>
       <c r="H60" t="n">
-        <v>-19857.0510660244</v>
+        <v>-29052.8140053347</v>
       </c>
       <c r="I60" t="n">
-        <v>147587.418960398</v>
+        <v>139908.002838907</v>
       </c>
       <c r="J60" t="n">
-        <v>520905.030252586</v>
+        <v>520889.642711246</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>14.0581199328785</v>
       </c>
       <c r="C61" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
       <c r="D61" t="n">
-        <v>206607.275400018</v>
+        <v>217220.178326956</v>
       </c>
       <c r="E61" t="n">
-        <v>597875.461900641</v>
+        <v>633002.423845613</v>
       </c>
       <c r="F61" t="n">
         <v>520889.757658292</v>
       </c>
       <c r="G61" t="n">
-        <v>-76985.7042423484</v>
+        <v>-112112.66618732</v>
       </c>
       <c r="H61" t="n">
-        <v>-24642.0476807185</v>
+        <v>-32992.5667296405</v>
       </c>
       <c r="I61" t="n">
-        <v>181965.2277193</v>
+        <v>184227.611597315</v>
       </c>
       <c r="J61" t="n">
-        <v>520905.030252586</v>
+        <v>520889.642711246</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>16.7131514365444</v>
       </c>
       <c r="C62" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
       <c r="D62" t="n">
-        <v>229204.695664137</v>
+        <v>242015.602227294</v>
       </c>
       <c r="E62" t="n">
-        <v>834096.805045542</v>
+        <v>866126.151227647</v>
       </c>
       <c r="F62" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G62" t="n">
-        <v>-157377.13408088</v>
+        <v>-189406.480262984</v>
       </c>
       <c r="H62" t="n">
-        <v>-31205.0994487487</v>
+        <v>-37877.5770943562</v>
       </c>
       <c r="I62" t="n">
-        <v>197999.596215389</v>
+        <v>204138.025132938</v>
       </c>
       <c r="J62" t="n">
-        <v>676737.564190542</v>
+        <v>676719.262093573</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>15.0201154728914</v>
       </c>
       <c r="C63" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
       <c r="D63" t="n">
-        <v>208313.919757119</v>
+        <v>216272.413083064</v>
       </c>
       <c r="E63" t="n">
-        <v>834096.805045542</v>
+        <v>866126.151227647</v>
       </c>
       <c r="F63" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G63" t="n">
-        <v>-157377.13408088</v>
+        <v>-189406.480262984</v>
       </c>
       <c r="H63" t="n">
-        <v>-37084.2044619614</v>
+        <v>-43621.2393159074</v>
       </c>
       <c r="I63" t="n">
-        <v>171229.715295157</v>
+        <v>172651.173767156</v>
       </c>
       <c r="J63" t="n">
-        <v>676737.564190542</v>
+        <v>676719.262093573</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>14.7205931675529</v>
       </c>
       <c r="C64" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
       <c r="D64" t="n">
-        <v>204618.042354445</v>
+        <v>211718.074294768</v>
       </c>
       <c r="E64" t="n">
-        <v>834096.805045542</v>
+        <v>866126.151227647</v>
       </c>
       <c r="F64" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G64" t="n">
-        <v>-157377.13408088</v>
+        <v>-189406.480262984</v>
       </c>
       <c r="H64" t="n">
-        <v>-42279.3627203565</v>
+        <v>-50223.553394294</v>
       </c>
       <c r="I64" t="n">
-        <v>162338.679634088</v>
+        <v>161494.520900474</v>
       </c>
       <c r="J64" t="n">
-        <v>676737.564190542</v>
+        <v>676719.262093573</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>13.6947685788558</v>
       </c>
       <c r="C65" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
       <c r="D65" t="n">
-        <v>191960.147269841</v>
+        <v>196120.06162252</v>
       </c>
       <c r="E65" t="n">
-        <v>834096.805045542</v>
+        <v>866126.151227647</v>
       </c>
       <c r="F65" t="n">
         <v>676719.670964663</v>
       </c>
       <c r="G65" t="n">
-        <v>-157377.13408088</v>
+        <v>-189406.480262984</v>
       </c>
       <c r="H65" t="n">
-        <v>-46790.5742239341</v>
+        <v>-57684.519329516</v>
       </c>
       <c r="I65" t="n">
-        <v>145169.573045907</v>
+        <v>138435.542293004</v>
       </c>
       <c r="J65" t="n">
-        <v>676737.564190542</v>
+        <v>676719.262093573</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>15.4268195791034</v>
       </c>
       <c r="C66" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
       <c r="D66" t="n">
-        <v>185606.458120077</v>
+        <v>192904.452108436</v>
       </c>
       <c r="E66" t="n">
-        <v>907804.500394636</v>
+        <v>975409.871853904</v>
       </c>
       <c r="F66" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G66" t="n">
-        <v>-132602.010408074</v>
+        <v>-200207.381867342</v>
       </c>
       <c r="H66" t="n">
-        <v>-50617.8389726941</v>
+        <v>-66004.1371215735</v>
       </c>
       <c r="I66" t="n">
-        <v>134988.619147383</v>
+        <v>126900.314986863</v>
       </c>
       <c r="J66" t="n">
-        <v>775227.532152804</v>
+        <v>775201.523431847</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>19.3157381050926</v>
       </c>
       <c r="C67" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
       <c r="D67" t="n">
-        <v>233592.754448832</v>
+        <v>252036.784398077</v>
       </c>
       <c r="E67" t="n">
-        <v>907804.500394636</v>
+        <v>975409.871853904</v>
       </c>
       <c r="F67" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G67" t="n">
-        <v>-132602.010408074</v>
+        <v>-200207.381867342</v>
       </c>
       <c r="H67" t="n">
-        <v>-45159.3061073037</v>
+        <v>-62951.1642319727</v>
       </c>
       <c r="I67" t="n">
-        <v>188433.448341529</v>
+        <v>189085.620166104</v>
       </c>
       <c r="J67" t="n">
-        <v>775227.532152804</v>
+        <v>775201.523431847</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>17.4208649420682</v>
       </c>
       <c r="C68" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
       <c r="D68" t="n">
-        <v>210211.461038175</v>
+        <v>223224.591811918</v>
       </c>
       <c r="E68" t="n">
-        <v>907804.500394636</v>
+        <v>975409.871853904</v>
       </c>
       <c r="F68" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G68" t="n">
-        <v>-132602.010408074</v>
+        <v>-200207.381867342</v>
       </c>
       <c r="H68" t="n">
-        <v>-30414.9756277628</v>
+        <v>-48525.6006607138</v>
       </c>
       <c r="I68" t="n">
-        <v>179796.485410412</v>
+        <v>174698.991151205</v>
       </c>
       <c r="J68" t="n">
-        <v>775227.532152804</v>
+        <v>775201.523431847</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>22.9465188390045</v>
       </c>
       <c r="C69" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
       <c r="D69" t="n">
-        <v>278393.826787552</v>
+        <v>307244.043535472</v>
       </c>
       <c r="E69" t="n">
-        <v>907804.500394636</v>
+        <v>975409.871853904</v>
       </c>
       <c r="F69" t="n">
         <v>775202.489986562</v>
       </c>
       <c r="G69" t="n">
-        <v>-132602.010408074</v>
+        <v>-200207.381867342</v>
       </c>
       <c r="H69" t="n">
-        <v>-6384.8475340715</v>
+        <v>-22727.4464077966</v>
       </c>
       <c r="I69" t="n">
-        <v>272008.979253481</v>
+        <v>284516.597127675</v>
       </c>
       <c r="J69" t="n">
-        <v>775227.532152804</v>
+        <v>775201.523431847</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>18.9177240989619</v>
       </c>
       <c r="C70" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
       <c r="D70" t="n">
-        <v>208953.648805225</v>
+        <v>218673.792129234</v>
       </c>
       <c r="E70" t="n">
-        <v>884475.339301488</v>
+        <v>934658.606176749</v>
       </c>
       <c r="F70" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G70" t="n">
-        <v>124885.491854563</v>
+        <v>74702.2249793021</v>
       </c>
       <c r="H70" t="n">
-        <v>26931.0781737702</v>
+        <v>14443.2985267788</v>
       </c>
       <c r="I70" t="n">
-        <v>235884.726978995</v>
+        <v>233117.090656013</v>
       </c>
       <c r="J70" t="n">
-        <v>1009390.96003865</v>
+        <v>1009359.34920783</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>19.2294986424461</v>
       </c>
       <c r="C71" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
       <c r="D71" t="n">
-        <v>212800.709506397</v>
+        <v>223414.430376488</v>
       </c>
       <c r="E71" t="n">
-        <v>884475.339301488</v>
+        <v>934658.606176749</v>
       </c>
       <c r="F71" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G71" t="n">
-        <v>124885.491854563</v>
+        <v>74702.2249793021</v>
       </c>
       <c r="H71" t="n">
-        <v>41976.5792611147</v>
+        <v>31004.3513930051</v>
       </c>
       <c r="I71" t="n">
-        <v>254777.288767512</v>
+        <v>254418.781769493</v>
       </c>
       <c r="J71" t="n">
-        <v>1009390.96003865</v>
+        <v>1009359.34920783</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>20.0609197134899</v>
       </c>
       <c r="C72" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
       <c r="D72" t="n">
-        <v>223059.813064997</v>
+        <v>236056.471272181</v>
       </c>
       <c r="E72" t="n">
-        <v>884475.339301488</v>
+        <v>934658.606176749</v>
       </c>
       <c r="F72" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G72" t="n">
-        <v>124885.491854563</v>
+        <v>74702.2249793021</v>
       </c>
       <c r="H72" t="n">
-        <v>38751.655727962</v>
+        <v>26955.7121908822</v>
       </c>
       <c r="I72" t="n">
-        <v>261811.468792959</v>
+        <v>263012.183463063</v>
       </c>
       <c r="J72" t="n">
-        <v>1009390.96003865</v>
+        <v>1009359.34920783</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>21.4063312457483</v>
       </c>
       <c r="C73" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
       <c r="D73" t="n">
-        <v>239661.167924869</v>
+        <v>256513.912398845</v>
       </c>
       <c r="E73" t="n">
-        <v>884475.339301488</v>
+        <v>934658.606176749</v>
       </c>
       <c r="F73" t="n">
         <v>1009360.83115605</v>
       </c>
       <c r="G73" t="n">
-        <v>124885.491854563</v>
+        <v>74702.2249793021</v>
       </c>
       <c r="H73" t="n">
-        <v>17256.3075743121</v>
+        <v>2297.38092041028</v>
       </c>
       <c r="I73" t="n">
-        <v>256917.475499181</v>
+        <v>258811.293319256</v>
       </c>
       <c r="J73" t="n">
-        <v>1009390.96003865</v>
+        <v>1009359.34920783</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>22.9332960748977</v>
       </c>
       <c r="C74" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
       <c r="D74" t="n">
-        <v>299405.974674508</v>
+        <v>314803.090128333</v>
       </c>
       <c r="E74" t="n">
-        <v>1299630.11591343</v>
+        <v>1384912.1121813</v>
       </c>
       <c r="F74" t="n">
         <v>1219523</v>
       </c>
       <c r="G74" t="n">
-        <v>-80107.1159134326</v>
+        <v>-165389.112181303</v>
       </c>
       <c r="H74" t="n">
-        <v>-22509.465199835</v>
+        <v>-42970.6424184108</v>
       </c>
       <c r="I74" t="n">
-        <v>276896.509474673</v>
+        <v>271832.447709922</v>
       </c>
       <c r="J74" t="n">
-        <v>1219542.58224937</v>
+        <v>1219522.17988807</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>27.4605973462161</v>
       </c>
       <c r="C75" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
       <c r="D75" t="n">
-        <v>355269.428465887</v>
+        <v>383642.249746061</v>
       </c>
       <c r="E75" t="n">
-        <v>1299630.11591343</v>
+        <v>1384912.1121813</v>
       </c>
       <c r="F75" t="n">
         <v>1219523</v>
       </c>
       <c r="G75" t="n">
-        <v>-80107.1159134326</v>
+        <v>-165389.112181303</v>
       </c>
       <c r="H75" t="n">
-        <v>-37420.741595966</v>
+        <v>-60428.5880158979</v>
       </c>
       <c r="I75" t="n">
-        <v>317848.686869921</v>
+        <v>323213.661730163</v>
       </c>
       <c r="J75" t="n">
-        <v>1219542.58224937</v>
+        <v>1219522.17988807</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>24.8195973535314</v>
       </c>
       <c r="C76" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
       <c r="D76" t="n">
-        <v>322681.497552377</v>
+        <v>343484.944289361</v>
       </c>
       <c r="E76" t="n">
-        <v>1299630.11591343</v>
+        <v>1384912.1121813</v>
       </c>
       <c r="F76" t="n">
         <v>1219523</v>
       </c>
       <c r="G76" t="n">
-        <v>-80107.1159134326</v>
+        <v>-165389.112181303</v>
       </c>
       <c r="H76" t="n">
-        <v>-27477.5216140808</v>
+        <v>-50076.455872051</v>
       </c>
       <c r="I76" t="n">
-        <v>295203.975938296</v>
+        <v>293408.48841731</v>
       </c>
       <c r="J76" t="n">
-        <v>1219542.58224937</v>
+        <v>1219522.17988807</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>24.7865092253548</v>
       </c>
       <c r="C77" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
       <c r="D77" t="n">
-        <v>322273.21522066</v>
+        <v>342981.828017548</v>
       </c>
       <c r="E77" t="n">
-        <v>1299630.11591343</v>
+        <v>1384912.1121813</v>
       </c>
       <c r="F77" t="n">
         <v>1219523</v>
       </c>
       <c r="G77" t="n">
-        <v>-80107.1159134326</v>
+        <v>-165389.112181303</v>
       </c>
       <c r="H77" t="n">
-        <v>7320.19474582061</v>
+        <v>-11914.24598687</v>
       </c>
       <c r="I77" t="n">
-        <v>329593.409966481</v>
+        <v>331067.582030678</v>
       </c>
       <c r="J77" t="n">
-        <v>1219542.58224937</v>
+        <v>1219522.17988807</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>25.5697122982907</v>
       </c>
       <c r="C78" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
       <c r="D78" t="n">
-        <v>322459.222083255</v>
+        <v>333761.741899793</v>
       </c>
       <c r="E78" t="n">
-        <v>1223961.84298777</v>
+        <v>1253870.77003928</v>
       </c>
       <c r="F78" t="n">
         <v>1637588</v>
       </c>
       <c r="G78" t="n">
-        <v>413626.157012233</v>
+        <v>383717.229960719</v>
       </c>
       <c r="H78" t="n">
-        <v>66972.4074837382</v>
+        <v>54058.0416396449</v>
       </c>
       <c r="I78" t="n">
-        <v>389431.629566993</v>
+        <v>387819.783539438</v>
       </c>
       <c r="J78" t="n">
-        <v>1637610.0261226</v>
+        <v>1637586.78115843</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>25.117741323994</v>
       </c>
       <c r="C79" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
       <c r="D79" t="n">
-        <v>316882.244072618</v>
+        <v>326889.369115746</v>
       </c>
       <c r="E79" t="n">
-        <v>1223961.84298777</v>
+        <v>1253870.77003928</v>
       </c>
       <c r="F79" t="n">
         <v>1637588</v>
       </c>
       <c r="G79" t="n">
-        <v>413626.157012233</v>
+        <v>383717.229960719</v>
       </c>
       <c r="H79" t="n">
-        <v>105409.147898893</v>
+        <v>97195.3411463074</v>
       </c>
       <c r="I79" t="n">
-        <v>422291.391971511</v>
+        <v>424084.710262053</v>
       </c>
       <c r="J79" t="n">
-        <v>1637610.0261226</v>
+        <v>1637586.78115843</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>23.2748447271129</v>
       </c>
       <c r="C80" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
       <c r="D80" t="n">
-        <v>294142.301949841</v>
+        <v>298867.497941548</v>
       </c>
       <c r="E80" t="n">
-        <v>1223961.84298777</v>
+        <v>1253870.77003928</v>
       </c>
       <c r="F80" t="n">
         <v>1637588</v>
       </c>
       <c r="G80" t="n">
-        <v>413626.157012233</v>
+        <v>383717.229960719</v>
       </c>
       <c r="H80" t="n">
-        <v>122630.415991285</v>
+        <v>117497.652533117</v>
       </c>
       <c r="I80" t="n">
-        <v>416772.717941126</v>
+        <v>416365.150474665</v>
       </c>
       <c r="J80" t="n">
-        <v>1637610.0261226</v>
+        <v>1637586.78115843</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>22.977887436854</v>
       </c>
       <c r="C81" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
       <c r="D81" t="n">
-        <v>290478.074882054</v>
+        <v>294352.161082195</v>
       </c>
       <c r="E81" t="n">
-        <v>1223961.84298777</v>
+        <v>1253870.77003928</v>
       </c>
       <c r="F81" t="n">
         <v>1637588</v>
       </c>
       <c r="G81" t="n">
-        <v>413626.157012233</v>
+        <v>383717.229960719</v>
       </c>
       <c r="H81" t="n">
-        <v>118636.211760914</v>
+        <v>114964.975800075</v>
       </c>
       <c r="I81" t="n">
-        <v>409114.286642968</v>
+        <v>409317.13688227</v>
       </c>
       <c r="J81" t="n">
-        <v>1637610.0261226</v>
+        <v>1637586.78115843</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>25.7050958592039</v>
       </c>
       <c r="C82" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
       <c r="D82" t="n">
-        <v>428536.58966752</v>
+        <v>434173.52798626</v>
       </c>
       <c r="E82" t="n">
-        <v>1766626.36237626</v>
+        <v>1801363.92927069</v>
       </c>
       <c r="F82" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G82" t="n">
-        <v>217922.423456997</v>
+        <v>183184.856562563</v>
       </c>
       <c r="H82" t="n">
-        <v>93426.5352077807</v>
+        <v>89597.3109471803</v>
       </c>
       <c r="I82" t="n">
-        <v>521963.124875301</v>
+        <v>523770.83893344</v>
       </c>
       <c r="J82" t="n">
-        <v>1984543.89132325</v>
+        <v>1984549.42303938</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>27.6284805866413</v>
       </c>
       <c r="C83" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
       <c r="D83" t="n">
-        <v>452269.694094422</v>
+        <v>463419.248631621</v>
       </c>
       <c r="E83" t="n">
-        <v>1766626.36237626</v>
+        <v>1801363.92927069</v>
       </c>
       <c r="F83" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G83" t="n">
-        <v>217922.423456997</v>
+        <v>183184.856562563</v>
       </c>
       <c r="H83" t="n">
-        <v>67763.8033981136</v>
+        <v>61929.8700040184</v>
       </c>
       <c r="I83" t="n">
-        <v>520033.497492536</v>
+        <v>525349.118635639</v>
       </c>
       <c r="J83" t="n">
-        <v>1984543.89132325</v>
+        <v>1984549.42303938</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>25.0493763241664</v>
       </c>
       <c r="C84" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
       <c r="D84" t="n">
-        <v>420445.50940791</v>
+        <v>424203.088858897</v>
       </c>
       <c r="E84" t="n">
-        <v>1766626.36237626</v>
+        <v>1801363.92927069</v>
       </c>
       <c r="F84" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G84" t="n">
-        <v>217922.423456997</v>
+        <v>183184.856562563</v>
       </c>
       <c r="H84" t="n">
-        <v>41648.0163319128</v>
+        <v>31962.6529705896</v>
       </c>
       <c r="I84" t="n">
-        <v>462093.525739823</v>
+        <v>456165.741829487</v>
       </c>
       <c r="J84" t="n">
-        <v>1984543.89132325</v>
+        <v>1984549.42303938</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>28.6905294527306</v>
       </c>
       <c r="C85" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
       <c r="D85" t="n">
-        <v>465374.569206409</v>
+        <v>479568.063793917</v>
       </c>
       <c r="E85" t="n">
-        <v>1766626.36237626</v>
+        <v>1801363.92927069</v>
       </c>
       <c r="F85" t="n">
         <v>1984548.78583326</v>
       </c>
       <c r="G85" t="n">
-        <v>217922.423456997</v>
+        <v>183184.856562563</v>
       </c>
       <c r="H85" t="n">
-        <v>15079.1740091785</v>
+        <v>-304.340153106288</v>
       </c>
       <c r="I85" t="n">
-        <v>480453.743215587</v>
+        <v>479263.72364081</v>
       </c>
       <c r="J85" t="n">
-        <v>1984543.89132325</v>
+        <v>1984549.42303938</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>30.9426742711305</v>
       </c>
       <c r="C86" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
       <c r="D86" t="n">
-        <v>543996.456969286</v>
+        <v>554645.267132124</v>
       </c>
       <c r="E86" t="n">
-        <v>2187063.83827027</v>
+        <v>2232232.22816762</v>
       </c>
       <c r="F86" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G86" t="n">
-        <v>-81175.013333986</v>
+        <v>-126343.403231343</v>
       </c>
       <c r="H86" t="n">
-        <v>-11942.7235700894</v>
+        <v>-34871.1093670692</v>
       </c>
       <c r="I86" t="n">
-        <v>532053.733399196</v>
+        <v>519774.157765055</v>
       </c>
       <c r="J86" t="n">
-        <v>2105870.82368695</v>
+        <v>2105890.23270379</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>33.6577154927094</v>
       </c>
       <c r="C87" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
       <c r="D87" t="n">
-        <v>577498.000324538</v>
+        <v>595928.394721854</v>
       </c>
       <c r="E87" t="n">
-        <v>2187063.83827027</v>
+        <v>2232232.22816762</v>
       </c>
       <c r="F87" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G87" t="n">
-        <v>-81175.013333986</v>
+        <v>-126343.403231343</v>
       </c>
       <c r="H87" t="n">
-        <v>-26093.6946320925</v>
+        <v>-47383.5728522102</v>
       </c>
       <c r="I87" t="n">
-        <v>551404.305692446</v>
+        <v>548544.821869644</v>
       </c>
       <c r="J87" t="n">
-        <v>2105870.82368695</v>
+        <v>2105890.23270379</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>31.8066819569784</v>
       </c>
       <c r="C88" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
       <c r="D88" t="n">
-        <v>554657.654566084</v>
+        <v>567782.798617788</v>
       </c>
       <c r="E88" t="n">
-        <v>2187063.83827027</v>
+        <v>2232232.22816762</v>
       </c>
       <c r="F88" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G88" t="n">
-        <v>-81175.013333986</v>
+        <v>-126343.403231343</v>
       </c>
       <c r="H88" t="n">
-        <v>-27373.7391768308</v>
+        <v>-37841.7306085293</v>
       </c>
       <c r="I88" t="n">
-        <v>527283.915389253</v>
+        <v>529941.068009258</v>
       </c>
       <c r="J88" t="n">
-        <v>2105870.82368695</v>
+        <v>2105890.23270379</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>28.2614125059696</v>
       </c>
       <c r="C89" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
       <c r="D89" t="n">
-        <v>510911.726410359</v>
+        <v>513875.767695858</v>
       </c>
       <c r="E89" t="n">
-        <v>2187063.83827027</v>
+        <v>2232232.22816762</v>
       </c>
       <c r="F89" t="n">
         <v>2105888.82493628</v>
       </c>
       <c r="G89" t="n">
-        <v>-81175.013333986</v>
+        <v>-126343.403231343</v>
       </c>
       <c r="H89" t="n">
-        <v>-15782.8572043043</v>
+        <v>-6245.58263602661</v>
       </c>
       <c r="I89" t="n">
-        <v>495128.869206054</v>
+        <v>507630.185059831</v>
       </c>
       <c r="J89" t="n">
-        <v>2105870.82368695</v>
+        <v>2105890.23270379</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6712,31 +7016,31 @@
         <v>30.8225633404867</v>
       </c>
       <c r="C90" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
       <c r="D90" t="n">
-        <v>520578.284083262</v>
+        <v>521869.012515042</v>
       </c>
       <c r="E90" t="n">
-        <v>2463140.53573344</v>
+        <v>2303087.41555593</v>
       </c>
       <c r="F90" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G90" t="n">
-        <v>143405.110129279</v>
+        <v>303458.23030679</v>
       </c>
       <c r="H90" t="n">
-        <v>8678.951285487</v>
+        <v>47404.871065298</v>
       </c>
       <c r="I90" t="n">
-        <v>529257.235368749</v>
+        <v>569273.88358034</v>
       </c>
       <c r="J90" t="n">
-        <v>2606533.30069472</v>
+        <v>2606546.46956665</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6744,34 +7048,34 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>38.4894445516996</v>
+        <v>34.4672315126723</v>
       </c>
       <c r="C91" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
       <c r="D91" t="n">
-        <v>615181.76606931</v>
+        <v>577287.434886936</v>
       </c>
       <c r="E91" t="n">
-        <v>2463140.53573344</v>
+        <v>2303087.41555593</v>
       </c>
       <c r="F91" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G91" t="n">
-        <v>143405.110129279</v>
+        <v>303458.23030679</v>
       </c>
       <c r="H91" t="n">
-        <v>29331.3706633369</v>
+        <v>80249.0095207811</v>
       </c>
       <c r="I91" t="n">
-        <v>644513.136732647</v>
+        <v>657536.444407717</v>
       </c>
       <c r="J91" t="n">
-        <v>2606533.30069472</v>
+        <v>2606546.46956665</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>36.743249301837</v>
       </c>
       <c r="C92" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
       <c r="D92" t="n">
-        <v>593635.045008483</v>
+        <v>611895.061481989</v>
       </c>
       <c r="E92" t="n">
-        <v>2463140.53573344</v>
+        <v>2303087.41555593</v>
       </c>
       <c r="F92" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G92" t="n">
-        <v>143405.110129279</v>
+        <v>303458.23030679</v>
       </c>
       <c r="H92" t="n">
-        <v>46174.4009292453</v>
+        <v>92286.8327304226</v>
       </c>
       <c r="I92" t="n">
-        <v>639809.445937729</v>
+        <v>704181.894212412</v>
       </c>
       <c r="J92" t="n">
-        <v>2606533.30069472</v>
+        <v>2606546.46956665</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6814,34 +7118,34 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>48.0981142253385</v>
+        <v>35.4371848856237</v>
       </c>
       <c r="C93" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
       <c r="D93" t="n">
-        <v>733745.440572386</v>
+        <v>592035.906671963</v>
       </c>
       <c r="E93" t="n">
-        <v>2463140.53573344</v>
+        <v>2303087.41555593</v>
       </c>
       <c r="F93" t="n">
         <v>2606545.64586272</v>
       </c>
       <c r="G93" t="n">
-        <v>143405.110129279</v>
+        <v>303458.23030679</v>
       </c>
       <c r="H93" t="n">
-        <v>59208.0420832122</v>
+        <v>83518.3406942226</v>
       </c>
       <c r="I93" t="n">
-        <v>792953.482655598</v>
+        <v>675554.247366186</v>
       </c>
       <c r="J93" t="n">
-        <v>2606533.30069472</v>
+        <v>2606546.46956665</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6852,31 +7156,31 @@
         <v>35.9047478439183</v>
       </c>
       <c r="C94" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
       <c r="D94" t="n">
-        <v>614631.128120746</v>
+        <v>663925.586617085</v>
       </c>
       <c r="E94" t="n">
-        <v>2443871.17109303</v>
+        <v>2637645.39441086</v>
       </c>
       <c r="F94" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G94" t="n">
-        <v>306034.485292137</v>
+        <v>112260.261974305</v>
       </c>
       <c r="H94" t="n">
-        <v>68432.2941252377</v>
+        <v>53943.5334121811</v>
       </c>
       <c r="I94" t="n">
-        <v>683063.422245984</v>
+        <v>717869.120029266</v>
       </c>
       <c r="J94" t="n">
-        <v>2749885.22974107</v>
+        <v>2749907.70257244</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6887,31 +7191,31 @@
         <v>35.6089180232297</v>
       </c>
       <c r="C95" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
       <c r="D95" t="n">
-        <v>610980.813169796</v>
+        <v>659427.39331701</v>
       </c>
       <c r="E95" t="n">
-        <v>2443871.17109303</v>
+        <v>2637645.39441086</v>
       </c>
       <c r="F95" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G95" t="n">
-        <v>306034.485292137</v>
+        <v>112260.261974305</v>
       </c>
       <c r="H95" t="n">
-        <v>75350.4831567568</v>
+        <v>31762.4279506499</v>
       </c>
       <c r="I95" t="n">
-        <v>686331.296326553</v>
+        <v>691189.82126766</v>
       </c>
       <c r="J95" t="n">
-        <v>2749885.22974107</v>
+        <v>2749907.70257244</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>37.7411349899931</v>
       </c>
       <c r="C96" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
       <c r="D96" t="n">
-        <v>637290.748572282</v>
+        <v>691848.479372082</v>
       </c>
       <c r="E96" t="n">
-        <v>2443871.17109303</v>
+        <v>2637645.39441086</v>
       </c>
       <c r="F96" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G96" t="n">
-        <v>306034.485292137</v>
+        <v>112260.261974305</v>
       </c>
       <c r="H96" t="n">
-        <v>79962.6091777695</v>
+        <v>16975.0243096292</v>
       </c>
       <c r="I96" t="n">
-        <v>717253.357750051</v>
+        <v>708823.503681711</v>
       </c>
       <c r="J96" t="n">
-        <v>2749885.22974107</v>
+        <v>2749907.70257244</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>33.1766504256562</v>
       </c>
       <c r="C97" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
       <c r="D97" t="n">
-        <v>580968.481230209</v>
+        <v>622443.935104688</v>
       </c>
       <c r="E97" t="n">
-        <v>2443871.17109303</v>
+        <v>2637645.39441086</v>
       </c>
       <c r="F97" t="n">
         <v>2749905.65638517</v>
       </c>
       <c r="G97" t="n">
-        <v>306034.485292137</v>
+        <v>112260.261974305</v>
       </c>
       <c r="H97" t="n">
-        <v>82268.6721882759</v>
+        <v>9581.3224891188</v>
       </c>
       <c r="I97" t="n">
-        <v>663237.153418485</v>
+        <v>632025.257593806</v>
       </c>
       <c r="J97" t="n">
-        <v>2749885.22974107</v>
+        <v>2749907.70257244</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>218352.994483535</v>
+        <v>228100.758156088</v>
       </c>
       <c r="C2" t="n">
         <v>8.16221959350705</v>
       </c>
       <c r="D2" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>193399.200511737</v>
+        <v>195271.566930953</v>
       </c>
       <c r="C3" t="n">
         <v>6.25866308053367</v>
       </c>
       <c r="D3" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>188689.064032429</v>
+        <v>185308.891861824</v>
       </c>
       <c r="C4" t="n">
         <v>6.11445425379326</v>
       </c>
       <c r="D4" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>194621.456958213</v>
+        <v>186381.499037048</v>
       </c>
       <c r="C5" t="n">
         <v>6.95149586998813</v>
       </c>
       <c r="D5" t="n">
-        <v>-21730.8128617054</v>
+        <v>83048.9723006711</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212075.750695607</v>
+        <v>217058.289554417</v>
       </c>
       <c r="C6" t="n">
         <v>9.05536868764681</v>
       </c>
       <c r="D6" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>214001.262447886</v>
+        <v>213480.599368068</v>
       </c>
       <c r="C7" t="n">
         <v>9.46860971902752</v>
       </c>
       <c r="D7" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>221718.412300243</v>
+        <v>219406.330921824</v>
       </c>
       <c r="C8" t="n">
         <v>10.1333887695095</v>
       </c>
       <c r="D8" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>227689.429852284</v>
+        <v>225546.875213951</v>
       </c>
       <c r="C9" t="n">
         <v>10.438827792704</v>
       </c>
       <c r="D9" t="n">
-        <v>-33276.110224882</v>
+        <v>150250.824743957</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>210430.228584394</v>
+        <v>202816.51946528</v>
       </c>
       <c r="C10" t="n">
         <v>9.80998274495072</v>
       </c>
       <c r="D10" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>207768.950075265</v>
+        <v>201689.595759478</v>
       </c>
       <c r="C11" t="n">
         <v>9.4865767203919</v>
       </c>
       <c r="D11" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>211966.853829529</v>
+        <v>210018.443026421</v>
       </c>
       <c r="C12" t="n">
         <v>10.0076197599589</v>
       </c>
       <c r="D12" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>269802.45615552</v>
+        <v>285447.075953339</v>
       </c>
       <c r="C13" t="n">
         <v>15.1641491515355</v>
       </c>
       <c r="D13" t="n">
-        <v>-96098.9194454278</v>
+        <v>54154.4029812908</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>184807.142057229</v>
+        <v>185562.361310318</v>
       </c>
       <c r="C14" t="n">
         <v>9.80998274495072</v>
       </c>
       <c r="D14" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>210068.800485523</v>
+        <v>219344.505714677</v>
       </c>
       <c r="C15" t="n">
         <v>12.1277259209556</v>
       </c>
       <c r="D15" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>153774.498162286</v>
+        <v>150117.457966982</v>
       </c>
       <c r="C16" t="n">
         <v>7.34850355803085</v>
       </c>
       <c r="D16" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>152269.199682891</v>
+        <v>145895.763245658</v>
       </c>
       <c r="C17" t="n">
         <v>6.52202149526943</v>
       </c>
       <c r="D17" t="n">
-        <v>-137907.03608978</v>
+        <v>-3050.79430425167</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>138544.310439398</v>
+        <v>135865.695448213</v>
       </c>
       <c r="C18" t="n">
         <v>5.92911045024494</v>
       </c>
       <c r="D18" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>170717.343208284</v>
+        <v>171749.162003773</v>
       </c>
       <c r="C19" t="n">
         <v>7.7258105866828</v>
       </c>
       <c r="D19" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>175350.428628331</v>
+        <v>174809.799720133</v>
       </c>
       <c r="C20" t="n">
         <v>7.67190958258966</v>
       </c>
       <c r="D20" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>193679.604772285</v>
+        <v>195861.763724425</v>
       </c>
       <c r="C21" t="n">
         <v>9.10926969173995</v>
       </c>
       <c r="D21" t="n">
-        <v>-230099.373138779</v>
+        <v>-70422.419416616</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>189368.953409359</v>
+        <v>190308.603966341</v>
       </c>
       <c r="C22" t="n">
         <v>8.28278762897853</v>
       </c>
       <c r="D22" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>211257.542477669</v>
+        <v>217903.395070211</v>
       </c>
       <c r="C23" t="n">
         <v>10.4927287967971</v>
       </c>
       <c r="D23" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>180664.920026563</v>
+        <v>181869.559946572</v>
       </c>
       <c r="C24" t="n">
         <v>8.55229264944421</v>
       </c>
       <c r="D24" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>125968.574622233</v>
+        <v>117175.979543131</v>
       </c>
       <c r="C25" t="n">
         <v>4.76125536156033</v>
       </c>
       <c r="D25" t="n">
-        <v>-186444.731631398</v>
+        <v>-11370.6972680446</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>142467.863597628</v>
+        <v>139649.776652745</v>
       </c>
       <c r="C26" t="n">
         <v>6.68372450754884</v>
       </c>
       <c r="D26" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>147271.936368657</v>
+        <v>147535.371444542</v>
       </c>
       <c r="C27" t="n">
         <v>7.4742725675815</v>
       </c>
       <c r="D27" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>166066.62362933</v>
+        <v>170876.850636542</v>
       </c>
       <c r="C28" t="n">
         <v>9.05536868764681</v>
       </c>
       <c r="D28" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>142540.34650611</v>
+        <v>140282.841098144</v>
       </c>
       <c r="C29" t="n">
         <v>6.86339452119263</v>
       </c>
       <c r="D29" t="n">
-        <v>-177870.169821356</v>
+        <v>-7533.6987322151</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>136580.417180749</v>
+        <v>136704.561623964</v>
       </c>
       <c r="C30" t="n">
         <v>7.31256955530209</v>
       </c>
       <c r="D30" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>164751.457232067</v>
+        <v>169288.919932189</v>
       </c>
       <c r="C31" t="n">
         <v>9.14520369446871</v>
       </c>
       <c r="D31" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>149487.318599326</v>
+        <v>149606.61772699</v>
       </c>
       <c r="C32" t="n">
         <v>7.63597557986091</v>
       </c>
       <c r="D32" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>126703.260249112</v>
+        <v>121915.144957805</v>
       </c>
       <c r="C33" t="n">
         <v>5.69553943250802</v>
       </c>
       <c r="D33" t="n">
-        <v>-261952.5813491</v>
+        <v>-85848.6419261347</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>144697.293053451</v>
+        <v>147124.746386877</v>
       </c>
       <c r="C34" t="n">
         <v>7.55888211528903</v>
       </c>
       <c r="D34" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>147441.466843315</v>
+        <v>151256.522637758</v>
       </c>
       <c r="C35" t="n">
         <v>7.91197868468834</v>
       </c>
       <c r="D35" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>123309.537672618</v>
+        <v>121377.533663484</v>
       </c>
       <c r="C36" t="n">
         <v>6.13341818697328</v>
       </c>
       <c r="D36" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>117484.618833904</v>
+        <v>113165.818268939</v>
       </c>
       <c r="C37" t="n">
         <v>5.88494282332191</v>
       </c>
       <c r="D37" t="n">
-        <v>-279234.677999707</v>
+        <v>-102306.814529054</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>136701.892886654</v>
+        <v>137460.23252432</v>
       </c>
       <c r="C38" t="n">
         <v>8.01328260851286</v>
       </c>
       <c r="D38" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>146003.678951875</v>
+        <v>147700.286629475</v>
       </c>
       <c r="C39" t="n">
         <v>8.88108877441235</v>
       </c>
       <c r="D39" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>128055.575858172</v>
+        <v>125064.480841841</v>
       </c>
       <c r="C40" t="n">
         <v>7.3844375607596</v>
       </c>
       <c r="D40" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>142405.969768662</v>
+        <v>142932.826275116</v>
       </c>
       <c r="C41" t="n">
         <v>8.34926553402674</v>
       </c>
       <c r="D41" t="n">
-        <v>-295444.165166537</v>
+        <v>-111924.07735032</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>132999.498448545</v>
+        <v>132158.063373421</v>
       </c>
       <c r="C42" t="n">
         <v>8.03419698692758</v>
       </c>
       <c r="D42" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>130119.530645679</v>
+        <v>128993.991501837</v>
       </c>
       <c r="C43" t="n">
         <v>7.55431349246636</v>
       </c>
       <c r="D43" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>137056.442034116</v>
+        <v>137423.643760503</v>
       </c>
       <c r="C44" t="n">
         <v>7.97775283468964</v>
       </c>
       <c r="D44" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>144988.430625603</v>
+        <v>146576.130614851</v>
       </c>
       <c r="C45" t="n">
         <v>8.58957612876056</v>
       </c>
       <c r="D45" t="n">
-        <v>-338620.45424695</v>
+        <v>-169828.840747227</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>159404.78313892</v>
+        <v>163656.019100943</v>
       </c>
       <c r="C46" t="n">
         <v>9.87509152195869</v>
       </c>
       <c r="D46" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>150827.401936192</v>
+        <v>152379.02766192</v>
       </c>
       <c r="C47" t="n">
         <v>9.24586819727895</v>
       </c>
       <c r="D47" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>135504.806901465</v>
+        <v>133208.061638416</v>
       </c>
       <c r="C48" t="n">
         <v>8.0591670131493</v>
       </c>
       <c r="D48" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>129691.651672665</v>
+        <v>126173.330771686</v>
       </c>
       <c r="C49" t="n">
         <v>7.63230204675969</v>
       </c>
       <c r="D49" t="n">
-        <v>-340799.198833188</v>
+        <v>-170654.111701799</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>151744.918286741</v>
+        <v>152461.304768087</v>
       </c>
       <c r="C50" t="n">
         <v>9.499663198153</v>
       </c>
       <c r="D50" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>141861.546769691</v>
+        <v>140570.453748712</v>
       </c>
       <c r="C51" t="n">
         <v>8.76045624743491</v>
       </c>
       <c r="D51" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>144880.788317945</v>
+        <v>144320.696123561</v>
       </c>
       <c r="C52" t="n">
         <v>9.09525438078848</v>
       </c>
       <c r="D52" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>153109.259210061</v>
+        <v>154231.664424154</v>
       </c>
       <c r="C53" t="n">
         <v>9.88056829458249</v>
       </c>
       <c r="D53" t="n">
-        <v>-343314.877168877</v>
+        <v>-180783.845224771</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>175030.628496857</v>
+        <v>180256.319024108</v>
       </c>
       <c r="C54" t="n">
         <v>12.0589251293415</v>
       </c>
       <c r="D54" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>160731.402421735</v>
+        <v>161825.117931036</v>
       </c>
       <c r="C55" t="n">
         <v>10.999062816302</v>
       </c>
       <c r="D55" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>159896.052526924</v>
+        <v>159661.756705764</v>
       </c>
       <c r="C56" t="n">
         <v>10.9825151781621</v>
       </c>
       <c r="D56" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>140923.925803398</v>
+        <v>134825.528161858</v>
       </c>
       <c r="C57" t="n">
         <v>9.44829346767149</v>
       </c>
       <c r="D57" t="n">
-        <v>-357051.467891669</v>
+        <v>-201466.471633064</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>104754.351979752</v>
+        <v>86949.894469959</v>
       </c>
       <c r="C58" t="n">
         <v>7.06970695262227</v>
       </c>
       <c r="D58" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>86598.0315931368</v>
+        <v>109804.133805064</v>
       </c>
       <c r="C59" t="n">
-        <v>5.69786921930977</v>
+        <v>8.70751808666359</v>
       </c>
       <c r="D59" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>147587.418960398</v>
+        <v>139908.002838907</v>
       </c>
       <c r="C60" t="n">
         <v>10.8842771694431</v>
       </c>
       <c r="D60" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>181965.2277193</v>
+        <v>184227.611597315</v>
       </c>
       <c r="C61" t="n">
         <v>14.0581199328785</v>
       </c>
       <c r="D61" t="n">
-        <v>-389222.25015528</v>
+        <v>-251558.570664001</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>197999.596215389</v>
+        <v>204138.025132938</v>
       </c>
       <c r="C62" t="n">
         <v>16.7131514365444</v>
       </c>
       <c r="D62" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>171229.715295157</v>
+        <v>172651.173767156</v>
       </c>
       <c r="C63" t="n">
         <v>15.0201154728914</v>
       </c>
       <c r="D63" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>162338.679634088</v>
+        <v>161494.520900474</v>
       </c>
       <c r="C64" t="n">
         <v>14.7205931675529</v>
       </c>
       <c r="D64" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>145169.573045907</v>
+        <v>138435.542293004</v>
       </c>
       <c r="C65" t="n">
         <v>13.6947685788558</v>
       </c>
       <c r="D65" t="n">
-        <v>-433594.845337003</v>
+        <v>-325131.207871611</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>134988.619147383</v>
+        <v>126900.314986863</v>
       </c>
       <c r="C66" t="n">
         <v>15.4268195791034</v>
       </c>
       <c r="D66" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>188433.448341529</v>
+        <v>189085.620166104</v>
       </c>
       <c r="C67" t="n">
         <v>19.3157381050926</v>
       </c>
       <c r="D67" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>179796.485410412</v>
+        <v>174698.991151205</v>
       </c>
       <c r="C68" t="n">
         <v>17.4208649420682</v>
       </c>
       <c r="D68" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>272008.979253481</v>
+        <v>284516.597127675</v>
       </c>
       <c r="C69" t="n">
         <v>22.9465188390045</v>
       </c>
       <c r="D69" t="n">
-        <v>-554640.870460316</v>
+        <v>-464725.9638093</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>235884.726978995</v>
+        <v>233117.090656013</v>
       </c>
       <c r="C70" t="n">
         <v>18.9177240989619</v>
       </c>
       <c r="D70" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>254777.288767512</v>
+        <v>254418.781769493</v>
       </c>
       <c r="C71" t="n">
         <v>19.2294986424461</v>
       </c>
       <c r="D71" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>261811.468792959</v>
+        <v>263012.183463063</v>
       </c>
       <c r="C72" t="n">
         <v>20.0609197134899</v>
       </c>
       <c r="D72" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>256917.475499181</v>
+        <v>258811.293319256</v>
       </c>
       <c r="C73" t="n">
         <v>21.4063312457483</v>
       </c>
       <c r="D73" t="n">
-        <v>-640769.270506737</v>
+        <v>-593735.007788337</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>276896.509474673</v>
+        <v>271832.447709922</v>
       </c>
       <c r="C74" t="n">
         <v>22.9332960748977</v>
       </c>
       <c r="D74" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>317848.686869921</v>
+        <v>323213.661730163</v>
       </c>
       <c r="C75" t="n">
         <v>27.4605973462161</v>
       </c>
       <c r="D75" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>295203.975938296</v>
+        <v>293408.48841731</v>
       </c>
       <c r="C76" t="n">
         <v>24.8195973535314</v>
       </c>
       <c r="D76" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>329593.409966481</v>
+        <v>331067.582030678</v>
       </c>
       <c r="C77" t="n">
         <v>24.7865092253548</v>
       </c>
       <c r="D77" t="n">
-        <v>-462193.430545413</v>
+        <v>-428069.615280965</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>389431.629566993</v>
+        <v>387819.783539438</v>
       </c>
       <c r="C78" t="n">
         <v>25.5697122982907</v>
       </c>
       <c r="D78" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>422291.391971511</v>
+        <v>424084.710262053</v>
       </c>
       <c r="C79" t="n">
         <v>25.117741323994</v>
       </c>
       <c r="D79" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>416772.717941126</v>
+        <v>416365.150474665</v>
       </c>
       <c r="C80" t="n">
         <v>23.2748447271129</v>
       </c>
       <c r="D80" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>409114.286642968</v>
+        <v>409317.13688227</v>
       </c>
       <c r="C81" t="n">
         <v>22.977887436854</v>
       </c>
       <c r="D81" t="n">
-        <v>-503573.149061938</v>
+        <v>-527876.325182292</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>521963.124875301</v>
+        <v>523770.83893344</v>
       </c>
       <c r="C82" t="n">
         <v>25.7050958592039</v>
       </c>
       <c r="D82" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>520033.497492536</v>
+        <v>525349.118635639</v>
       </c>
       <c r="C83" t="n">
         <v>27.6284805866413</v>
       </c>
       <c r="D83" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>462093.525739823</v>
+        <v>456165.741829487</v>
       </c>
       <c r="C84" t="n">
         <v>25.0493763241664</v>
       </c>
       <c r="D84" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>480453.743215587</v>
+        <v>479263.72364081</v>
       </c>
       <c r="C85" t="n">
         <v>28.6905294527306</v>
       </c>
       <c r="D85" t="n">
-        <v>-47752.3692505008</v>
+        <v>-63285.8066807417</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>532053.733399196</v>
+        <v>519774.157765055</v>
       </c>
       <c r="C86" t="n">
         <v>30.9426742711305</v>
       </c>
       <c r="D86" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>551404.305692446</v>
+        <v>548544.821869644</v>
       </c>
       <c r="C87" t="n">
         <v>33.6577154927094</v>
       </c>
       <c r="D87" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>527283.915389253</v>
+        <v>529941.068009258</v>
       </c>
       <c r="C88" t="n">
         <v>31.8066819569784</v>
       </c>
       <c r="D88" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>495128.869206054</v>
+        <v>507630.185059831</v>
       </c>
       <c r="C89" t="n">
         <v>28.2614125059696</v>
       </c>
       <c r="D89" t="n">
-        <v>174171.246907192</v>
+        <v>129594.751431732</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>529257.235368749</v>
+        <v>569273.88358034</v>
       </c>
       <c r="C90" t="n">
         <v>30.8225633404867</v>
       </c>
       <c r="D90" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>644513.136732647</v>
+        <v>657536.444407717</v>
       </c>
       <c r="C91" t="n">
-        <v>38.4894445516996</v>
+        <v>34.4672315126723</v>
       </c>
       <c r="D91" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>639809.445937729</v>
+        <v>704181.894212412</v>
       </c>
       <c r="C92" t="n">
         <v>36.743249301837</v>
       </c>
       <c r="D92" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>792953.482655598</v>
+        <v>675554.247366186</v>
       </c>
       <c r="C93" t="n">
-        <v>48.0981142253385</v>
+        <v>35.4371848856237</v>
       </c>
       <c r="D93" t="n">
-        <v>78402.3457151942</v>
+        <v>-16603.2147453851</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>683063.422245984</v>
+        <v>717869.120029266</v>
       </c>
       <c r="C94" t="n">
         <v>35.9047478439183</v>
       </c>
       <c r="D94" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>686331.296326553</v>
+        <v>691189.82126766</v>
       </c>
       <c r="C95" t="n">
         <v>35.6089180232297</v>
       </c>
       <c r="D95" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>717253.357750051</v>
+        <v>708823.503681711</v>
       </c>
       <c r="C96" t="n">
         <v>37.7411349899931</v>
       </c>
       <c r="D96" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>663237.153418485</v>
+        <v>632025.257593806</v>
       </c>
       <c r="C97" t="n">
         <v>33.1766504256562</v>
       </c>
       <c r="D97" t="n">
-        <v>215238.087699671</v>
+        <v>289398.710955103</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>688767.257088381</v>
+        <v>660538.023391617</v>
       </c>
       <c r="C98" t="n">
-        <v>36.5667931921348</v>
+        <v>34.5840522932104</v>
       </c>
       <c r="D98" t="n">
-        <v>503237.675898054</v>
+        <v>92064.0865739535</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>707666.747497657</v>
+        <v>670297.49231006</v>
       </c>
       <c r="C99" t="n">
-        <v>38.0984508529146</v>
+        <v>35.2867931211311</v>
       </c>
       <c r="D99" t="n">
-        <v>503237.675898054</v>
+        <v>90970.6164976728</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>706241.078125728</v>
+        <v>675285.278203289</v>
       </c>
       <c r="C100" t="n">
-        <v>37.9829113665069</v>
+        <v>35.7366137399472</v>
       </c>
       <c r="D100" t="n">
-        <v>503237.675898054</v>
+        <v>88783.6763451115</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>745694.34169158</v>
+        <v>677966.788964227</v>
       </c>
       <c r="C101" t="n">
-        <v>41.1802935220461</v>
+        <v>36.0956550640731</v>
       </c>
       <c r="D101" t="n">
-        <v>503237.675898054</v>
+        <v>85503.2661162695</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>722982.843086357</v>
+        <v>679226.920230257</v>
       </c>
       <c r="C102" t="n">
-        <v>39.3397020524789</v>
+        <v>36.4221134626447</v>
       </c>
       <c r="D102" t="n">
-        <v>503237.675898054</v>
+        <v>81129.3858111467</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>713088.661298611</v>
+        <v>680673.681987426</v>
       </c>
       <c r="C103" t="n">
-        <v>38.537855071202</v>
+        <v>36.7368770464317</v>
       </c>
       <c r="D103" t="n">
-        <v>503237.675898054</v>
+        <v>77185.8979087497</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>722435.47450512</v>
+        <v>682421.072594261</v>
       </c>
       <c r="C104" t="n">
-        <v>39.295342058502</v>
+        <v>37.0474430730467</v>
       </c>
       <c r="D104" t="n">
-        <v>503237.675898054</v>
+        <v>73672.8024090784</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>693083.878818742</v>
+        <v>684510.008870415</v>
       </c>
       <c r="C105" t="n">
-        <v>36.9166220287235</v>
+        <v>37.3565024929699</v>
       </c>
       <c r="D105" t="n">
-        <v>503237.675898054</v>
+        <v>70590.0993121327</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>722581.113381598</v>
+        <v>686955.176870603</v>
       </c>
       <c r="C106" t="n">
-        <v>39.3071449640849</v>
+        <v>37.6650211546306</v>
       </c>
       <c r="D106" t="n">
-        <v>503237.675898054</v>
+        <v>67937.7886179127</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>739944.719900216</v>
+        <v>689429.944989828</v>
       </c>
       <c r="C107" t="n">
-        <v>40.7143311033447</v>
+        <v>37.9733457248273</v>
       </c>
       <c r="D107" t="n">
-        <v>503237.675898054</v>
+        <v>65323.9185683014</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>739093.665754208</v>
+        <v>691936.205186938</v>
       </c>
       <c r="C108" t="n">
-        <v>40.6453597409301</v>
+        <v>38.2816006308153</v>
       </c>
       <c r="D108" t="n">
-        <v>503237.675898054</v>
+        <v>62748.4891632989</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>774876.807836374</v>
+        <v>694474.63653258</v>
       </c>
       <c r="C109" t="n">
-        <v>43.545306909348</v>
+        <v>38.5898305326024</v>
       </c>
       <c r="D109" t="n">
-        <v>503237.675898054</v>
+        <v>60211.5004029051</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>754950.176394876</v>
+        <v>697045.482761939</v>
       </c>
       <c r="C110" t="n">
-        <v>41.9304074046541</v>
+        <v>38.8980514597657</v>
       </c>
       <c r="D110" t="n">
-        <v>503237.675898054</v>
+        <v>57712.95228712</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>746509.952881998</v>
+        <v>699709.997619746</v>
       </c>
       <c r="C111" t="n">
-        <v>41.246392506779</v>
+        <v>39.2062691657155</v>
       </c>
       <c r="D111" t="n">
-        <v>503237.675898054</v>
+        <v>55325.0774833998</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>755312.801425764</v>
+        <v>702468.212505648</v>
       </c>
       <c r="C112" t="n">
-        <v>41.9597953613938</v>
+        <v>39.5144857154923</v>
       </c>
       <c r="D112" t="n">
-        <v>503237.675898054</v>
+        <v>53047.8759917445</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>729435.559193729</v>
+        <v>705320.138689753</v>
       </c>
       <c r="C113" t="n">
-        <v>39.8626448326633</v>
+        <v>39.8227018502901</v>
       </c>
       <c r="D113" t="n">
-        <v>503237.675898054</v>
+        <v>50881.3478121541</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>756296.474252399</v>
+        <v>708265.780217179</v>
       </c>
       <c r="C114" t="n">
-        <v>42.0395144431251</v>
+        <v>40.1309178361418</v>
       </c>
       <c r="D114" t="n">
-        <v>503237.675898054</v>
+        <v>48825.4929446285</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>772283.678115897</v>
+        <v>711275.772652836</v>
       </c>
       <c r="C115" t="n">
-        <v>43.3351537826893</v>
+        <v>40.439133768533</v>
       </c>
       <c r="D115" t="n">
-        <v>503237.675898054</v>
+        <v>46845.6325274227</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>771947.573001807</v>
+        <v>714350.116517841</v>
       </c>
       <c r="C116" t="n">
-        <v>43.3079150602859</v>
+        <v>40.747349681736</v>
       </c>
       <c r="D116" t="n">
-        <v>503237.675898054</v>
+        <v>44941.7665605365</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>804441.68719229</v>
+        <v>717488.81199924</v>
       </c>
       <c r="C117" t="n">
-        <v>45.9413119324937</v>
+        <v>41.0555655880518</v>
       </c>
       <c r="D117" t="n">
-        <v>503237.675898054</v>
+        <v>43113.89504397</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>720691.859164165</v>
+      </c>
+      <c r="C118" t="n">
+        <v>41.3637814918956</v>
+      </c>
+      <c r="D118" t="n">
+        <v>41362.0179777232</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>723949.280419562</v>
+      </c>
+      <c r="C119" t="n">
+        <v>41.6719973948522</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39674.3525606869</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>727261.07577408</v>
+      </c>
+      <c r="C120" t="n">
+        <v>41.9802132974904</v>
+      </c>
+      <c r="D120" t="n">
+        <v>38050.8987928613</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>730627.245230822</v>
+      </c>
+      <c r="C121" t="n">
+        <v>42.2884292000142</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36491.6566742463</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>734047.788790903</v>
+      </c>
+      <c r="C122" t="n">
+        <v>42.596645102497</v>
+      </c>
+      <c r="D122" t="n">
+        <v>34996.6262048418</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>737529.905845673</v>
+      </c>
+      <c r="C123" t="n">
+        <v>42.9048610049651</v>
+      </c>
+      <c r="D123" t="n">
+        <v>33574.3093135542</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>741073.596395276</v>
+      </c>
+      <c r="C124" t="n">
+        <v>43.2130769074279</v>
+      </c>
+      <c r="D124" t="n">
+        <v>32224.7060003833</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>744678.860439762</v>
+      </c>
+      <c r="C125" t="n">
+        <v>43.5212928098888</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30947.8162653292</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>748345.697979152</v>
+      </c>
+      <c r="C126" t="n">
+        <v>43.8295087123491</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29743.6401083918</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>751996.463248139</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44.137724614809</v>
+      </c>
+      <c r="D127" t="n">
+        <v>28520.4838319926</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>755631.156246726</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44.4459405172689</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27278.3474361318</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>759249.776974915</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44.7541564197288</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26017.2309208091</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>762852.325432705</v>
+      </c>
+      <c r="C130" t="n">
+        <v>45.0623723221886</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24737.1342860247</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>766725.868750297</v>
+      </c>
+      <c r="C131" t="n">
+        <v>45.3705882246485</v>
+      </c>
+      <c r="D131" t="n">
+        <v>23777.0618099365</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>770870.406927692</v>
+      </c>
+      <c r="C132" t="n">
+        <v>45.6788041271083</v>
+      </c>
+      <c r="D132" t="n">
+        <v>23137.0134925443</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>775285.93996489</v>
+      </c>
+      <c r="C133" t="n">
+        <v>45.9870200295682</v>
+      </c>
+      <c r="D133" t="n">
+        <v>22816.9893338482</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>218352.994483535</v>
+        <v>228100.758156088</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>193399.200511737</v>
+        <v>195271.566930953</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>188689.064032429</v>
+        <v>185308.891861824</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>194621.456958213</v>
+        <v>186381.499037048</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212075.750695607</v>
+        <v>217058.289554417</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>214001.262447886</v>
+        <v>213480.599368068</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>221718.412300243</v>
+        <v>219406.330921824</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>227689.429852284</v>
+        <v>225546.875213951</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>210430.228584394</v>
+        <v>202816.51946528</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>207768.950075265</v>
+        <v>201689.595759478</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>211966.853829529</v>
+        <v>210018.443026421</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>269802.45615552</v>
+        <v>285447.075953339</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>184807.142057229</v>
+        <v>185562.361310318</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>210068.800485523</v>
+        <v>219344.505714677</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>153774.498162286</v>
+        <v>150117.457966982</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>152269.199682891</v>
+        <v>145895.763245658</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>138544.310439398</v>
+        <v>135865.695448213</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>170717.343208284</v>
+        <v>171749.162003773</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>175350.428628331</v>
+        <v>174809.799720133</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>193679.604772285</v>
+        <v>195861.763724425</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>189368.953409359</v>
+        <v>190308.603966341</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>211257.542477669</v>
+        <v>217903.395070211</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>180664.920026563</v>
+        <v>181869.559946572</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>125968.574622233</v>
+        <v>117175.979543131</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>142467.863597628</v>
+        <v>139649.776652745</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>147271.936368657</v>
+        <v>147535.371444542</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>166066.62362933</v>
+        <v>170876.850636542</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>142540.34650611</v>
+        <v>140282.841098144</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>136580.417180749</v>
+        <v>136704.561623964</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>164751.457232067</v>
+        <v>169288.919932189</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>149487.318599326</v>
+        <v>149606.61772699</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>126703.260249112</v>
+        <v>121915.144957805</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>144697.293053451</v>
+        <v>147124.746386877</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>147441.466843315</v>
+        <v>151256.522637758</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>123309.537672618</v>
+        <v>121377.533663484</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>117484.618833904</v>
+        <v>113165.818268939</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>136701.892886654</v>
+        <v>137460.23252432</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>146003.678951875</v>
+        <v>147700.286629475</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>128055.575858172</v>
+        <v>125064.480841841</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>142405.969768662</v>
+        <v>142932.826275116</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>132999.498448545</v>
+        <v>132158.063373421</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>130119.530645679</v>
+        <v>128993.991501837</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>137056.442034116</v>
+        <v>137423.643760503</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>144988.430625603</v>
+        <v>146576.130614851</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>159404.78313892</v>
+        <v>163656.019100943</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>150827.401936192</v>
+        <v>152379.02766192</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>135504.806901465</v>
+        <v>133208.061638416</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>129691.651672665</v>
+        <v>126173.330771686</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>151744.918286741</v>
+        <v>152461.304768087</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>141861.546769691</v>
+        <v>140570.453748712</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>144880.788317945</v>
+        <v>144320.696123561</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>153109.259210061</v>
+        <v>154231.664424154</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>175030.628496857</v>
+        <v>180256.319024108</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>160731.402421735</v>
+        <v>161825.117931036</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>159896.052526924</v>
+        <v>159661.756705764</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>140923.925803398</v>
+        <v>134825.528161858</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>104754.351979752</v>
+        <v>86949.894469959</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>86598.0315931368</v>
+        <v>109804.133805064</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>147587.418960398</v>
+        <v>139908.002838907</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>181965.2277193</v>
+        <v>184227.611597315</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>197999.596215389</v>
+        <v>204138.025132938</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>171229.715295157</v>
+        <v>172651.173767156</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>162338.679634088</v>
+        <v>161494.520900474</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>145169.573045907</v>
+        <v>138435.542293004</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>134988.619147383</v>
+        <v>126900.314986863</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>188433.448341529</v>
+        <v>189085.620166104</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>179796.485410412</v>
+        <v>174698.991151205</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>272008.979253481</v>
+        <v>284516.597127675</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>235884.726978995</v>
+        <v>233117.090656013</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>254777.288767512</v>
+        <v>254418.781769493</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>261811.468792959</v>
+        <v>263012.183463063</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>256917.475499181</v>
+        <v>258811.293319256</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>276896.509474673</v>
+        <v>271832.447709922</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>317848.686869921</v>
+        <v>323213.661730163</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>295203.975938296</v>
+        <v>293408.48841731</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>329593.409966481</v>
+        <v>331067.582030678</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>389431.629566993</v>
+        <v>387819.783539438</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>422291.391971511</v>
+        <v>424084.710262053</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>416772.717941126</v>
+        <v>416365.150474665</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>409114.286642968</v>
+        <v>409317.13688227</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>521963.124875301</v>
+        <v>523770.83893344</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>520033.497492536</v>
+        <v>525349.118635639</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>462093.525739823</v>
+        <v>456165.741829487</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>480453.743215587</v>
+        <v>479263.72364081</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>532053.733399196</v>
+        <v>519774.157765055</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>551404.305692446</v>
+        <v>548544.821869644</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>527283.915389253</v>
+        <v>529941.068009258</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>495128.869206054</v>
+        <v>507630.185059831</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>529257.235368749</v>
+        <v>569273.88358034</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>644513.136732647</v>
+        <v>657536.444407717</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>639809.445937729</v>
+        <v>704181.894212412</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>792953.482655598</v>
+        <v>675554.247366186</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>683063.422245984</v>
+        <v>717869.120029266</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>686331.296326553</v>
+        <v>691189.82126766</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>717253.357750051</v>
+        <v>708823.503681711</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>663237.153418485</v>
+        <v>632025.257593806</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>688767.257088381</v>
+        <v>660538.023391617</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>707666.747497657</v>
+        <v>670297.49231006</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>706241.078125728</v>
+        <v>675285.278203289</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>745694.34169158</v>
+        <v>677966.788964227</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>722982.843086357</v>
+        <v>679226.920230257</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>713088.661298611</v>
+        <v>680673.681987426</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>722435.47450512</v>
+        <v>682421.072594261</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>693083.878818742</v>
+        <v>684510.008870415</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>722581.113381598</v>
+        <v>686955.176870603</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>739944.719900216</v>
+        <v>689429.944989828</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>739093.665754208</v>
+        <v>691936.205186938</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>774876.807836374</v>
+        <v>694474.63653258</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>754950.176394876</v>
+        <v>697045.482761939</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>746509.952881998</v>
+        <v>699709.997619746</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>755312.801425764</v>
+        <v>702468.212505648</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>729435.559193729</v>
+        <v>705320.138689753</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>756296.474252399</v>
+        <v>708265.780217179</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>772283.678115897</v>
+        <v>711275.772652836</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>771947.573001807</v>
+        <v>714350.116517841</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>804441.68719229</v>
+        <v>717488.81199924</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>720691.859164165</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>723949.280419562</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>727261.07577408</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>730627.245230822</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>734047.788790903</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>737529.905845673</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>741073.596395276</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>744678.860439762</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>748345.697979152</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>751996.463248139</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>755631.156246726</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>759249.776974915</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>762852.325432705</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>766725.868750297</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>770870.406927692</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>775285.93996489</v>
       </c>
     </row>
   </sheetData>
